--- a/rez.xlsx
+++ b/rez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aplikacije\parallel-doc-embeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A00A3AE4-7E12-4669-A74C-BE52F77BB3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD575EE-49CE-4682-A2ED-9D808FDBB2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" xr2:uid="{B8B4AE92-D4CE-402F-9CE7-E0A30A8665F7}"/>
   </bookViews>
@@ -287,23 +287,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,23 +624,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12FE24E-7961-459E-B918-F49D7B3E236D}">
-  <dimension ref="A2:E161"/>
+  <dimension ref="A2:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L141" sqref="L141"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -651,2520 +658,2968 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="13">
         <v>0.33110000000000001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="13">
         <v>0.78290000000000004</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="13">
         <v>0.25819999999999999</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="14">
         <v>0.71289999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="16">
         <v>0.4834</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="16">
         <v>0.91290000000000004</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="16">
         <v>0.42830000000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="17">
         <v>0.92030000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="16">
         <v>0.49130000000000001</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="16">
         <v>0.92679999999999996</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="16">
         <v>0.48149999999999998</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="17">
         <v>0.92120000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="16">
         <v>0.40579999999999999</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="16">
         <v>0.85489999999999999</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="16">
         <v>0.3468</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="17">
         <v>0.83699999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="16">
         <v>0.34110000000000001</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="16">
         <v>0.84140000000000004</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="16">
         <v>0.2979</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="17">
         <v>0.73460000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="19">
         <v>0.31850000000000001</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="19">
         <v>0.81659999999999999</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="19">
         <v>0.25600000000000001</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="20">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="13">
         <v>0.54510000000000003</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="13">
         <v>0.91169999999999995</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="13">
         <v>0.50070000000000003</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="14">
         <v>0.92569999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="16">
         <v>0.54369999999999996</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="16">
         <v>0.91020000000000001</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="16">
         <v>0.499</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="17">
         <v>0.92479999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="F11" s="15">
+        <f>D11-D10</f>
+        <v>-1.7000000000000348E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="16">
         <v>0.51280000000000003</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="16">
         <v>0.90529999999999999</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="16">
         <v>0.45789999999999997</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="17">
         <v>0.92210000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="16">
         <v>0.51280000000000003</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="16">
         <v>0.90529999999999999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="16">
         <v>0.45789999999999997</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="17">
         <v>0.92210000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="F13" s="15">
+        <f>D13-D12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="16">
         <v>0.4199</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="16">
         <v>0.85980000000000001</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="16">
         <v>0.36230000000000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="17">
         <v>0.84240000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="16">
         <v>0.5091</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="16">
         <v>0.88270000000000004</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="16">
         <v>0.44740000000000002</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="17">
         <v>0.90669999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="F15" s="15">
+        <f>D15-D14</f>
+        <v>8.5100000000000009E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="16">
         <v>0.53959999999999997</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="16">
         <v>0.91169999999999995</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="16">
         <v>0.4975</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="17">
         <v>0.92659999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="16">
         <v>0.5091</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="16">
         <v>0.88270000000000004</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="16">
         <v>0.44740000000000002</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="17">
         <v>0.90669999999999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="F17" s="15">
+        <f>D17-D16</f>
+        <v>-5.0099999999999978E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="16">
         <v>0.58779999999999999</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="16">
         <v>0.91169999999999995</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="16">
         <v>0.53900000000000003</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="17">
         <v>0.93569999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="19">
         <v>0.57020000000000004</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="19">
         <v>0.91559999999999997</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="19">
         <v>0.52470000000000006</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="20">
         <v>0.9375</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="F19" s="15">
+        <f>D19-D18</f>
+        <v>-1.4299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="13">
         <v>0.57620000000000005</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="13">
         <v>0.92589999999999995</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="13">
         <v>0.53420000000000001</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="14">
         <v>0.94110000000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="16">
         <v>0.56120000000000003</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="16">
         <v>0.92949999999999999</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="16">
         <v>0.52100000000000002</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="17">
         <v>0.94199999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="F21" s="15">
+        <f>D21-D20</f>
+        <v>-1.319999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="16">
         <v>0.57620000000000005</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="16">
         <v>0.93010000000000004</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="16">
         <v>0.53649999999999998</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="17">
         <v>0.94930000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="F22" s="18"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="19">
         <v>0.57569999999999999</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="19">
         <v>0.93010000000000004</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="19">
         <v>0.53649999999999998</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="20">
         <v>0.94930000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="15">
+        <f>D23-D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="18">
+        <f>SUM(F10:F23)</f>
+        <v>5.8000000000000274E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="13">
         <v>0.13569999999999999</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="13">
         <v>0.89090000000000003</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="13">
         <v>0.1134</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="14">
         <v>0.55610000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="16">
         <v>0.158</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="16">
         <v>0.92669999999999997</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="16">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="17">
         <v>0.66320000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="16">
         <v>0.2525</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="16">
         <v>0.93910000000000005</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="16">
         <v>0.2215</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="17">
         <v>0.8175</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="16">
         <v>0.2455</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="16">
         <v>0.94899999999999995</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="16">
         <v>0.217</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="17">
         <v>0.83509999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="16">
         <v>0.15920000000000001</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="16">
         <v>0.91679999999999995</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="16">
         <v>0.13289999999999999</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="17">
         <v>0.64390000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="19">
         <v>0.14230000000000001</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="19">
         <v>0.91139999999999999</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="19">
         <v>0.1132</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="20">
         <v>0.57720000000000005</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="13">
         <v>0.218</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="13">
         <v>0.93669999999999998</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="13">
         <v>0.19289999999999999</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="14">
         <v>0.79820000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="16">
         <v>0.21390000000000001</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="16">
         <v>0.93400000000000005</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="16">
         <v>0.1913</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="17">
         <v>0.78600000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="F34" s="15">
+        <f>D34-D33</f>
+        <v>-1.5999999999999903E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="16">
         <v>0.15920000000000001</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="16">
         <v>0.91679999999999995</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="16">
         <v>0.13289999999999999</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="17">
         <v>0.64390000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="16">
         <v>0.14230000000000001</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="16">
         <v>0.91139999999999999</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="16">
         <v>0.1132</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="17">
         <v>0.57720000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="F36" s="15">
+        <f>D36-D35</f>
+        <v>-1.9699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="16">
         <v>0.22819999999999999</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="16">
         <v>0.94469999999999998</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="16">
         <v>0.19989999999999999</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="17">
         <v>0.81399999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="16">
         <v>0.22819999999999999</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="16">
         <v>0.94469999999999998</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="16">
         <v>0.19989999999999999</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="17">
         <v>0.81399999999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="F38" s="15">
+        <f>D38-D37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="16">
         <v>0.20569999999999999</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="16">
         <v>0.92430000000000001</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="16">
         <v>0.17519999999999999</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="17">
         <v>0.74739999999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="16">
         <v>0.20569999999999999</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="16">
         <v>0.92430000000000001</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="16">
         <v>0.17519999999999999</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="17">
         <v>0.74739999999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="F40" s="15">
+        <f>D40-D39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="16">
         <v>0.19</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="16">
         <v>0.90759999999999996</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="16">
         <v>0.14480000000000001</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="17">
         <v>0.63859999999999995</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="16">
         <v>0.20569999999999999</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="16">
         <v>0.92430000000000001</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="16">
         <v>0.17519999999999999</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="17">
         <v>0.74739999999999995</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="F42" s="15">
+        <f>D42-D41</f>
+        <v>3.0399999999999983E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="16">
         <v>0.21199999999999999</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="16">
         <v>0.93769999999999998</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="16">
         <v>0.18890000000000001</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="17">
         <v>0.79649999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="19">
         <v>0.21329999999999999</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="19">
         <v>0.93940000000000001</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="19">
         <v>0.18940000000000001</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="20">
         <v>0.80349999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="F44" s="15">
+        <f>D44-D43</f>
+        <v>5.0000000000000044E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="13">
         <v>0.216</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="13">
         <v>0.93759999999999999</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="13">
         <v>0.1898</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="14">
         <v>0.79469999999999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="16">
         <v>0.2228</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="16">
         <v>0.93669999999999998</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="16">
         <v>0.1956</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="17">
         <v>0.79469999999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="F46" s="15">
+        <f>D46-D45</f>
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="16">
         <v>0.26679999999999998</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="16">
         <v>0.94259999999999999</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="16">
         <v>0.23960000000000001</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="17">
         <v>0.84040000000000004</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="19">
         <v>0.25690000000000002</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="19">
         <v>0.94199999999999995</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="19">
         <v>0.23</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="20">
         <v>0.83330000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="15">
+        <f>D48-D47</f>
+        <v>-9.5999999999999974E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="18">
+        <f>SUM(F35:F48)</f>
+        <v>7.3999999999999899E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="13">
         <v>0.18160000000000001</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="13">
         <v>0.80720000000000003</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="13">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="14">
         <v>0.44440000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="16">
         <v>0.28120000000000001</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="16">
         <v>0.81840000000000002</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="16">
         <v>0.221</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="17">
         <v>0.61250000000000004</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="16">
         <v>0.33350000000000002</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="16">
         <v>0.88070000000000004</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="16">
         <v>0.29270000000000002</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="17">
         <v>0.75609999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="16">
         <v>0.35010000000000002</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="16">
         <v>0.88260000000000005</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="16">
         <v>0.28420000000000001</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="17">
         <v>0.75070000000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="16">
         <v>0.30559999999999998</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="16">
         <v>0.87229999999999996</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="16">
         <v>0.25390000000000001</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="17">
         <v>0.7046</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="19">
         <v>0.23169999999999999</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="19">
         <v>0.82369999999999999</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="19">
         <v>0.1862</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="20">
         <v>0.56100000000000005</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="13">
         <v>0.4249</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="13">
         <v>0.87760000000000005</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="13">
         <v>0.39350000000000002</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="14">
         <v>0.82110000000000005</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="16">
         <v>0.42470000000000002</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="16">
         <v>0.87849999999999995</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="16">
         <v>0.39419999999999999</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="17">
         <v>0.82379999999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="F59" s="15">
+        <f>D59-D58</f>
+        <v>6.9999999999997842E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="16">
         <v>0.3664</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="16">
         <v>0.89470000000000005</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="16">
         <v>0.30170000000000002</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="17">
         <v>0.81299999999999994</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="16">
         <v>0.3664</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="16">
         <v>0.89470000000000005</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="16">
         <v>0.30170000000000002</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="17">
         <v>0.81299999999999994</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="F61" s="15">
+        <f>D61-D60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="16">
         <v>0.27500000000000002</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="16">
         <v>0.82379999999999998</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="16">
         <v>0.24</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="17">
         <v>0.63139999999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="16">
         <v>0.3503</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="16">
         <v>0.85880000000000001</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="16">
         <v>0.29599999999999999</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="17">
         <v>0.73980000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="F63" s="15">
+        <f>D63-D62</f>
+        <v>5.5999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="16">
         <v>0.42109999999999997</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="16">
         <v>0.86729999999999996</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="16">
         <v>0.38579999999999998</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="17">
         <v>0.80220000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="16">
         <v>0.3503</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="16">
         <v>0.85880000000000001</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="16">
         <v>0.29599999999999999</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="17">
         <v>0.73980000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="F65" s="15">
+        <f>D65-D64</f>
+        <v>-8.9799999999999991E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="16">
         <v>0.41289999999999999</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="16">
         <v>0.88229999999999997</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="16">
         <v>0.38269999999999998</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="17">
         <v>0.8266</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="19">
         <v>0.42130000000000001</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="19">
         <v>0.88870000000000005</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="19">
         <v>0.38900000000000001</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="20">
         <v>0.83199999999999996</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="15">
+        <f>D67-D66</f>
+        <v>6.3000000000000278E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="13">
         <v>0.39150000000000001</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="13">
         <v>0.88880000000000003</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="13">
         <v>0.35289999999999999</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="14">
         <v>0.81299999999999994</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="16">
         <v>0.372</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="16">
         <v>0.89029999999999998</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="16">
         <v>0.33110000000000001</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="17">
         <v>0.81030000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="F69" s="15">
+        <f>D69-D68</f>
+        <v>-2.1799999999999986E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="16">
         <v>0.45729999999999998</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="16">
         <v>0.89080000000000004</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="16">
         <v>0.39429999999999998</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="17">
         <v>0.8347</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="19">
         <v>0.44400000000000001</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="19">
         <v>0.88949999999999996</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="19">
         <v>0.37940000000000002</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="20">
         <v>0.83199999999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="15">
+        <f>D71-D70</f>
+        <v>-1.4899999999999969E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="18">
+        <f>SUM(F58:F71)</f>
+        <v>-6.3499999999999945E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="13">
         <v>0.32469999999999999</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="13">
         <v>0.879</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="13">
         <v>0.29870000000000002</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="14">
         <v>0.69910000000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="16">
         <v>0.3276</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="16">
         <v>0.92269999999999996</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="16">
         <v>0.29049999999999998</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="17">
         <v>0.80879999999999996</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="16">
         <v>0.64710000000000001</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="16">
         <v>0.99070000000000003</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="16">
         <v>0.64229999999999998</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="17">
         <v>0.98119999999999996</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="16">
         <v>0.72460000000000002</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="16">
         <v>0.98650000000000004</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="16">
         <v>0.72189999999999999</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="17">
         <v>0.97809999999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="16">
         <v>0.45279999999999998</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="16">
         <v>0.95530000000000004</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="16">
         <v>0.4289</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="17">
         <v>0.91849999999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="19">
         <v>0.42930000000000001</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="19">
         <v>0.9244</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="19">
         <v>0.38819999999999999</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="20">
         <v>0.84640000000000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="13">
         <v>0.78569999999999995</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="13">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="13">
         <v>0.78210000000000002</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="14">
         <v>0.99060000000000004</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="16">
         <v>0.78569999999999995</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="16">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="16">
         <v>0.78210000000000002</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="17">
         <v>0.99060000000000004</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="F82" s="15">
+        <f>D82-D81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="16">
         <v>0.78569999999999995</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="16">
         <v>0.99250000000000005</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="16">
         <v>0.78190000000000004</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="17">
         <v>0.98750000000000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="16">
         <v>0.78569999999999995</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="16">
         <v>0.99250000000000005</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="16">
         <v>0.78190000000000004</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="17">
         <v>0.98750000000000004</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="F84" s="15">
+        <f>D84-D83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="16">
         <v>0.32069999999999999</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="16">
         <v>0.93340000000000001</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="16">
         <v>0.2883</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="17">
         <v>0.82130000000000003</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="16">
         <v>0.72260000000000002</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="16">
         <v>0.97119999999999995</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="16">
         <v>0.71240000000000003</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="17">
         <v>0.96240000000000003</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="F86" s="15">
+        <f>D86-D85</f>
+        <v>0.42410000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="16">
         <v>0.6875</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="16">
         <v>0.98470000000000002</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="16">
         <v>0.67930000000000001</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="17">
         <v>0.97809999999999997</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="16">
         <v>0.72260000000000002</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="16">
         <v>0.97119999999999995</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="16">
         <v>0.71240000000000003</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="17">
         <v>0.96240000000000003</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="F88" s="15">
+        <f>D88-D87</f>
+        <v>3.3100000000000018E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="16">
         <v>0.84619999999999995</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="16">
         <v>0.99629999999999996</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="16">
         <v>0.84430000000000005</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="17">
         <v>0.99370000000000003</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
+      <c r="F89" s="18"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="19">
         <v>0.84619999999999995</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="19">
         <v>0.99629999999999996</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="19">
         <v>0.84430000000000005</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="20">
         <v>0.99370000000000003</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="15">
+        <f>D90-D89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="13">
         <v>0.91669999999999996</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="13">
         <v>0.998</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="13">
         <v>0.91569999999999996</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="14">
         <v>0.99690000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
+      <c r="F91" s="18"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="19">
         <v>0.84619999999999995</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="19">
         <v>0.99629999999999996</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="19">
         <v>0.84430000000000005</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="20">
         <v>0.99370000000000003</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="15">
+        <f>D92-D91</f>
+        <v>-7.1399999999999908E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="18">
+        <f>SUM(F79:F92)</f>
+        <v>0.38580000000000014</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="18"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="18"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="13">
         <v>0.1827</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="13">
         <v>0.89810000000000001</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="13">
         <v>0.1152</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="14">
         <v>0.59250000000000003</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="F96" s="18"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="16">
         <v>0.25509999999999999</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="16">
         <v>0.91369999999999996</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="16">
         <v>0.2112</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="17">
         <v>0.72450000000000003</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="F97" s="18"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="16">
         <v>0.21909999999999999</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="16">
         <v>0.92889999999999995</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="16">
         <v>0.1709</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="17">
         <v>0.75090000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="F98" s="18"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="16">
         <v>0.32429999999999998</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="16">
         <v>0.92849999999999999</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="16">
         <v>0.28260000000000002</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="17">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="F99" s="18"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="16">
         <v>0.23849999999999999</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="16">
         <v>0.94320000000000004</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="16">
         <v>0.20830000000000001</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="17">
         <v>0.81130000000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
+      <c r="F100" s="18"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="19">
         <v>0.26050000000000001</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="19">
         <v>0.92400000000000004</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="19">
         <v>0.21290000000000001</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="20">
         <v>0.75090000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="18"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="13">
         <v>0.41370000000000001</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="13">
         <v>0.92879999999999996</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="13">
         <v>0.37840000000000001</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="14">
         <v>0.87919999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="F102" s="18"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="16">
         <v>0.41370000000000001</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="16">
         <v>0.92479999999999996</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="16">
         <v>0.37540000000000001</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="17">
         <v>0.87549999999999994</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="F103" s="15">
+        <f>D103-D102</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104" s="16">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="16">
         <v>0.93610000000000004</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="16">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="17">
         <v>0.82640000000000002</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="F104" s="18"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="16">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="16">
         <v>0.93610000000000004</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="16">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="17">
         <v>0.82640000000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="F105" s="15">
+        <f>D105-D104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106" s="16">
         <v>0.22059999999999999</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="16">
         <v>0.93049999999999999</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="16">
         <v>0.1724</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="17">
         <v>0.75470000000000004</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="F106" s="18"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="16">
         <v>0.3448</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="16">
         <v>0.92</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="16">
         <v>0.30209999999999998</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="17">
         <v>0.83399999999999996</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="F107" s="15">
+        <f>D107-D106</f>
+        <v>0.12969999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="16">
         <v>0.39550000000000002</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="16">
         <v>0.92179999999999995</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="16">
         <v>0.35299999999999998</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="17">
         <v>0.8679</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="F108" s="18"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="16">
         <v>0.3448</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="16">
         <v>0.92</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="16">
         <v>0.30209999999999998</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="17">
         <v>0.83399999999999996</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="F109" s="15">
+        <f>D109-D108</f>
+        <v>-5.0900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110" s="16">
         <v>0.41499999999999998</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="16">
         <v>0.93289999999999995</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="16">
         <v>0.38290000000000002</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="17">
         <v>0.87549999999999994</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
+      <c r="F110" s="18"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111" s="19">
         <v>0.41599999999999998</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="19">
         <v>0.93059999999999998</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="19">
         <v>0.3821</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="20">
         <v>0.86419999999999997</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="15">
+        <f>D111-D110</f>
+        <v>-8.0000000000002292E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="13">
         <v>0.33929999999999999</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="13">
         <v>0.93579999999999997</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="13">
         <v>0.30159999999999998</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="14">
         <v>0.8528</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="F112" s="18"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="16">
         <v>0.33529999999999999</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="16">
         <v>0.93100000000000005</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="16">
         <v>0.2959</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="17">
         <v>0.8377</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+      <c r="F113" s="15">
+        <f>D113-D112</f>
+        <v>-5.6999999999999829E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114" s="16">
         <v>0.34839999999999999</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="16">
         <v>0.9304</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="16">
         <v>0.30959999999999999</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="17">
         <v>0.8377</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
+      <c r="F114" s="18"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B115" s="19">
         <v>0.36430000000000001</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="19">
         <v>0.93189999999999995</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="19">
         <v>0.32700000000000001</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E115" s="20">
         <v>0.84909999999999997</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="15">
+        <f>D115-D114</f>
+        <v>1.7400000000000027E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="18">
+        <f>SUM(F102:F115)</f>
+        <v>8.6699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="18"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="18"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="13">
         <v>0.311</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="13">
         <v>0.7278</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="13">
         <v>0.28189999999999998</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="14">
         <v>0.50419999999999998</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="F119" s="18"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120" s="16">
         <v>0.46839999999999998</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="16">
         <v>0.85229999999999995</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="16">
         <v>0.42209999999999998</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="17">
         <v>0.71879999999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="F120" s="18"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121" s="16">
         <v>0.46010000000000001</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="16">
         <v>0.83409999999999995</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="16">
         <v>0.42259999999999998</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="17">
         <v>0.69579999999999997</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+      <c r="F121" s="18"/>
+    </row>
+    <row r="122" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B122" s="16">
         <v>0.54059999999999997</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="16">
         <v>0.87660000000000005</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="16">
         <v>0.50339999999999996</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="17">
         <v>0.77290000000000003</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+      <c r="F122" s="18"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123" s="16">
         <v>0.51749999999999996</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="16">
         <v>0.83379999999999999</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="16">
         <v>0.48659999999999998</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="17">
         <v>0.7208</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="7" t="s">
+      <c r="F123" s="18"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="8">
+      <c r="B124" s="19">
         <v>0.47899999999999998</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="19">
         <v>0.80800000000000005</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="19">
         <v>0.42270000000000002</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E124" s="20">
         <v>0.67920000000000003</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="18"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="13">
         <v>0.57989999999999997</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="13">
         <v>0.85929999999999995</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="13">
         <v>0.53410000000000002</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="14">
         <v>0.76880000000000004</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="F125" s="18"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="16">
         <v>0.57899999999999996</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="16">
         <v>0.85929999999999995</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="16">
         <v>0.53400000000000003</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="17">
         <v>0.76880000000000004</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="F126" s="15">
+        <f>D126-D125</f>
+        <v>-9.9999999999988987E-5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127" s="16">
         <v>0.52690000000000003</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="16">
         <v>0.87909999999999999</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="16">
         <v>0.49059999999999998</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="17">
         <v>0.7833</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="F127" s="18"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="16">
         <v>0.52690000000000003</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="16">
         <v>0.87909999999999999</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="16">
         <v>0.49059999999999998</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="17">
         <v>0.7833</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="F128" s="15">
+        <f>D128-D127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="16">
         <v>0.47510000000000002</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="16">
         <v>0.83050000000000002</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="16">
         <v>0.43630000000000002</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="17">
         <v>0.69789999999999996</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="F129" s="18"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="16">
         <v>0.57850000000000001</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="16">
         <v>0.86629999999999996</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="16">
         <v>0.5423</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="17">
         <v>0.7792</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="F130" s="15">
+        <f>D130-D129</f>
+        <v>0.10599999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="16">
         <v>0.57950000000000002</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="16">
         <v>0.85199999999999998</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="16">
         <v>0.52959999999999996</v>
       </c>
-      <c r="E131" s="6">
+      <c r="E131" s="17">
         <v>0.75829999999999997</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+      <c r="F131" s="18"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B132" s="16">
         <v>0.57850000000000001</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="16">
         <v>0.86629999999999996</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="16">
         <v>0.5423</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="17">
         <v>0.7792</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="F132" s="15">
+        <f>D132-D131</f>
+        <v>1.2700000000000045E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="16">
         <v>0.57730000000000004</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="16">
         <v>0.85629999999999995</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="16">
         <v>0.52869999999999995</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="17">
         <v>0.76880000000000004</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="7" t="s">
+      <c r="F133" s="18"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134" s="19">
         <v>0.52780000000000005</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="19">
         <v>0.87509999999999999</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="19">
         <v>0.48780000000000001</v>
       </c>
-      <c r="E134" s="9">
+      <c r="E134" s="20">
         <v>0.77290000000000003</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="15">
+        <f>D134-D133</f>
+        <v>-4.0899999999999936E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="13">
         <v>0.61560000000000004</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="13">
         <v>0.85780000000000001</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="13">
         <v>0.57010000000000005</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="14">
         <v>0.77290000000000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+      <c r="F135" s="18"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136" s="16">
         <v>0.61319999999999997</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="16">
         <v>0.8548</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="16">
         <v>0.56730000000000003</v>
       </c>
-      <c r="E136" s="6">
+      <c r="E136" s="17">
         <v>0.76880000000000004</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="F136" s="15">
+        <f>D136-D135</f>
+        <v>-2.8000000000000247E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137" s="16">
         <v>0.57889999999999997</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="16">
         <v>0.87549999999999994</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="16">
         <v>0.53990000000000005</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E137" s="17">
         <v>0.7833</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="7" t="s">
+      <c r="F137" s="18"/>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B138" s="8">
+      <c r="B138" s="19">
         <v>0.56120000000000003</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="19">
         <v>0.87690000000000001</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D138" s="19">
         <v>0.52190000000000003</v>
       </c>
-      <c r="E138" s="9">
+      <c r="E138" s="20">
         <v>0.7792</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="15">
+        <f>D138-D137</f>
+        <v>-1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="18">
+        <f>SUM(F125:F138)</f>
+        <v>5.6900000000000062E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="18"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E141" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="18"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="13">
         <v>0.29260000000000003</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="13">
         <v>0.77669999999999995</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="13">
         <v>0.24410000000000001</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="14">
         <v>0.49180000000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="F142" s="18"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B143" s="16">
         <v>0.47260000000000002</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="16">
         <v>0.88280000000000003</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="16">
         <v>0.42</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E143" s="17">
         <v>0.72789999999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="F143" s="18"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B144" s="16">
         <v>0.433</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="16">
         <v>0.86809999999999998</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="16">
         <v>0.3765</v>
       </c>
-      <c r="E144" s="6">
+      <c r="E144" s="17">
         <v>0.72789999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="F144" s="18"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145" s="16">
         <v>0.43480000000000002</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="16">
         <v>0.88219999999999998</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="16">
         <v>0.38240000000000002</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="17">
         <v>0.70820000000000005</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="F145" s="18"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="16">
         <v>0.42080000000000001</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="16">
         <v>0.8599</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="16">
         <v>0.36759999999999998</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="17">
         <v>0.7016</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="7" t="s">
+      <c r="F146" s="18"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B147" s="8">
+      <c r="B147" s="19">
         <v>0.36430000000000001</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="19">
         <v>0.82620000000000005</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D147" s="19">
         <v>0.29389999999999999</v>
       </c>
-      <c r="E147" s="9">
+      <c r="E147" s="20">
         <v>0.623</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="18"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="13">
         <v>0.60070000000000001</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="13">
         <v>0.90149999999999997</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="13">
         <v>0.53810000000000002</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="14">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+      <c r="F148" s="18"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149" s="16">
         <v>0.59809999999999997</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="16">
         <v>0.90149999999999997</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="16">
         <v>0.53659999999999997</v>
       </c>
-      <c r="E149" s="6">
+      <c r="E149" s="17">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="F149" s="15">
+        <f>D149-D148</f>
+        <v>-1.5000000000000568E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B150" s="16">
         <v>0.49740000000000001</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="16">
         <v>0.87790000000000001</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="16">
         <v>0.42430000000000001</v>
       </c>
-      <c r="E150" s="6">
+      <c r="E150" s="17">
         <v>0.74099999999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="F150" s="18"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151" s="16">
         <v>0.49740000000000001</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="16">
         <v>0.87790000000000001</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="16">
         <v>0.42430000000000001</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151" s="17">
         <v>0.74099999999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="F151" s="15">
+        <f>D151-D150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="16">
         <v>0.44479999999999997</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="16">
         <v>0.87109999999999999</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="16">
         <v>0.38879999999999998</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="17">
         <v>0.73440000000000005</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="F152" s="18"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153" s="16">
         <v>0.5222</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="16">
         <v>0.9173</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="16">
         <v>0.46989999999999998</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="17">
         <v>0.80659999999999998</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="F153" s="15">
+        <f>D153-D152</f>
+        <v>8.1100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="16">
         <v>0.57050000000000001</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="16">
         <v>0.89680000000000004</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="16">
         <v>0.51449999999999996</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="17">
         <v>0.79339999999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+      <c r="F154" s="18"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155" s="16">
         <v>0.5222</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="16">
         <v>0.9173</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="16">
         <v>0.46989999999999998</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="17">
         <v>0.80659999999999998</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+      <c r="F155" s="15">
+        <f>D155-D154</f>
+        <v>-4.4599999999999973E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="16">
         <v>0.60119999999999996</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="16">
         <v>0.88190000000000002</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="16">
         <v>0.52210000000000001</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="17">
         <v>0.78359999999999996</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="7" t="s">
+      <c r="F156" s="18"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B157" s="8">
+      <c r="B157" s="19">
         <v>0.58289999999999997</v>
       </c>
-      <c r="C157" s="8">
+      <c r="C157" s="19">
         <v>0.88280000000000003</v>
       </c>
-      <c r="D157" s="8">
+      <c r="D157" s="19">
         <v>0.50339999999999996</v>
       </c>
-      <c r="E157" s="9">
+      <c r="E157" s="20">
         <v>0.77700000000000002</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="15">
+        <f>D157-D156</f>
+        <v>-1.870000000000005E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="13">
         <v>0.59360000000000002</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="13">
         <v>0.9032</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="13">
         <v>0.5373</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158" s="14">
         <v>0.78359999999999996</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
+      <c r="F158" s="18"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="16">
         <v>0.5998</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C159" s="16">
         <v>0.91379999999999995</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="16">
         <v>0.54779999999999995</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="17">
         <v>0.79339999999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="F159" s="15">
+        <f>D159-D158</f>
+        <v>1.0499999999999954E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="16">
         <v>0.58940000000000003</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160" s="16">
         <v>0.9153</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="16">
         <v>0.53210000000000002</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="17">
         <v>0.79669999999999996</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="7" t="s">
+      <c r="F160" s="18"/>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B161" s="8">
+      <c r="B161" s="19">
         <v>0.58840000000000003</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C161" s="19">
         <v>0.91410000000000002</v>
       </c>
-      <c r="D161" s="8">
+      <c r="D161" s="19">
         <v>0.52939999999999998</v>
       </c>
-      <c r="E161" s="9">
+      <c r="E161" s="20">
         <v>0.79339999999999999</v>
       </c>
+      <c r="F161" s="15">
+        <f>D161-D160</f>
+        <v>-2.7000000000000357E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="21"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="18">
+        <f>SUM(F148:F161)</f>
+        <v>2.4099999999999844E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="21"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="18"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="21"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="18">
+        <f>AVERAGE(F162,F139,F116,F93,F72,F49,F24)</f>
+        <v>7.1885714285714317E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D27:D28 D30 D33:D48">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D23">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D32">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3176,8 +3631,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D23">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="D27:D47">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3188,7 +3643,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D32">
+  <conditionalFormatting sqref="D52:D71">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:D92">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:D115">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119:D138">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D142:D161">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E23">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3200,7 +3715,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D47">
+  <conditionalFormatting sqref="E27:E48">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3212,67 +3727,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D71">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D92">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:D115">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119:D138">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D142:D161">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E23">
+  <conditionalFormatting sqref="E52:E71">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3284,7 +3739,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E48">
+  <conditionalFormatting sqref="E75:E92">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3296,7 +3751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E71">
+  <conditionalFormatting sqref="E96:E115">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3308,7 +3763,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:E92">
+  <conditionalFormatting sqref="E119:E138">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3320,7 +3775,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E115">
+  <conditionalFormatting sqref="E142:E161">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3332,7 +3787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119:E138">
+  <conditionalFormatting sqref="F1:F162">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3344,7 +3799,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E142:E161">
+  <conditionalFormatting sqref="F1:F164">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3357,5 +3812,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rez.xlsx
+++ b/rez.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aplikacije\parallel-doc-embeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD575EE-49CE-4682-A2ED-9D808FDBB2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49ED2D4-BDA8-4C6F-8BAE-27F940639A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" xr2:uid="{B8B4AE92-D4CE-402F-9CE7-E0A30A8665F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="60">
   <si>
     <t>deu&gt;&gt;</t>
   </si>
@@ -99,12 +100,6 @@
     <t>vnorm_b</t>
   </si>
   <si>
-    <t>weights_deu</t>
-  </si>
-  <si>
-    <t>weights_deu_b</t>
-  </si>
-  <si>
     <t>weights_eng</t>
   </si>
   <si>
@@ -160,6 +155,66 @@
   </si>
   <si>
     <t>srp&gt;&gt;</t>
+  </si>
+  <si>
+    <t>deu</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>hun</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>slv</t>
+  </si>
+  <si>
+    <t>srp</t>
+  </si>
+  <si>
+    <t>universal</t>
+  </si>
+  <si>
+    <t>deu_b</t>
+  </si>
+  <si>
+    <t>eng_b</t>
+  </si>
+  <si>
+    <t>fra_b</t>
+  </si>
+  <si>
+    <t>hun_b</t>
+  </si>
+  <si>
+    <t>por_b</t>
+  </si>
+  <si>
+    <t>slv_b</t>
+  </si>
+  <si>
+    <t>srp_b</t>
+  </si>
+  <si>
+    <t>universal_b</t>
+  </si>
+  <si>
+    <t>weights_hun</t>
+  </si>
+  <si>
+    <t>weights_hun_b</t>
+  </si>
+  <si>
+    <t>maksed2</t>
+  </si>
+  <si>
+    <t>masked3</t>
   </si>
 </sst>
 </file>
@@ -626,13 +681,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12FE24E-7961-459E-B918-F49D7B3E236D}">
   <dimension ref="A2:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158:E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="12"/>
   </cols>
   <sheetData>
@@ -678,7 +733,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="16">
         <v>0.4834</v>
@@ -771,16 +826,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="13">
-        <v>0.54510000000000003</v>
+        <v>0.52280000000000004</v>
       </c>
       <c r="C10" s="13">
-        <v>0.91169999999999995</v>
+        <v>0.91969999999999996</v>
       </c>
       <c r="D10" s="13">
-        <v>0.50070000000000003</v>
+        <v>0.48</v>
       </c>
       <c r="E10" s="14">
-        <v>0.92569999999999997</v>
+        <v>0.92030000000000001</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="11"/>
@@ -790,20 +845,24 @@
         <v>7</v>
       </c>
       <c r="B11" s="16">
-        <v>0.54369999999999996</v>
+        <v>0.52280000000000004</v>
       </c>
       <c r="C11" s="16">
-        <v>0.91020000000000001</v>
+        <v>0.91969999999999996</v>
       </c>
       <c r="D11" s="16">
-        <v>0.499</v>
+        <v>0.48</v>
       </c>
       <c r="E11" s="17">
-        <v>0.92479999999999996</v>
+        <v>0.92030000000000001</v>
       </c>
       <c r="F11" s="15">
         <f>D11-D10</f>
-        <v>-1.7000000000000348E-3</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <f>E11-E10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -811,119 +870,128 @@
         <v>12</v>
       </c>
       <c r="B12" s="16">
-        <v>0.51280000000000003</v>
+        <v>0.51439999999999997</v>
       </c>
       <c r="C12" s="16">
-        <v>0.90529999999999999</v>
+        <v>0.91290000000000004</v>
       </c>
       <c r="D12" s="16">
-        <v>0.45789999999999997</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="E12" s="17">
-        <v>0.92210000000000003</v>
+        <v>0.92569999999999997</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="16">
-        <v>0.51280000000000003</v>
+        <v>0.51439999999999997</v>
       </c>
       <c r="C13" s="16">
-        <v>0.90529999999999999</v>
+        <v>0.91290000000000004</v>
       </c>
       <c r="D13" s="16">
-        <v>0.45789999999999997</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="E13" s="17">
-        <v>0.92210000000000003</v>
+        <v>0.92569999999999997</v>
       </c>
       <c r="F13" s="15">
         <f>D13-D12</f>
         <v>0</v>
       </c>
+      <c r="G13" s="15">
+        <f>E13-E12</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="16">
-        <v>0.4199</v>
+        <v>0.43009999999999998</v>
       </c>
       <c r="C14" s="16">
-        <v>0.85980000000000001</v>
+        <v>0.85719999999999996</v>
       </c>
       <c r="D14" s="16">
-        <v>0.36230000000000001</v>
+        <v>0.37140000000000001</v>
       </c>
       <c r="E14" s="17">
-        <v>0.84240000000000004</v>
+        <v>0.84330000000000005</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="16">
-        <v>0.5091</v>
+        <v>0.33110000000000001</v>
       </c>
       <c r="C15" s="16">
-        <v>0.88270000000000004</v>
+        <v>0.78290000000000004</v>
       </c>
       <c r="D15" s="16">
-        <v>0.44740000000000002</v>
+        <v>0.25819999999999999</v>
       </c>
       <c r="E15" s="17">
-        <v>0.90669999999999995</v>
+        <v>0.71289999999999998</v>
       </c>
       <c r="F15" s="15">
         <f>D15-D14</f>
-        <v>8.5100000000000009E-2</v>
-      </c>
+        <v>-0.11320000000000002</v>
+      </c>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="16">
-        <v>0.53959999999999997</v>
+        <v>0.51659999999999995</v>
       </c>
       <c r="C16" s="16">
-        <v>0.91169999999999995</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="D16" s="16">
-        <v>0.4975</v>
+        <v>0.47410000000000002</v>
       </c>
       <c r="E16" s="17">
-        <v>0.92659999999999998</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="16">
-        <v>0.5091</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="C17" s="16">
-        <v>0.88270000000000004</v>
+        <v>0.87860000000000005</v>
       </c>
       <c r="D17" s="16">
-        <v>0.44740000000000002</v>
+        <v>0.45760000000000001</v>
       </c>
       <c r="E17" s="17">
-        <v>0.90669999999999995</v>
+        <v>0.9022</v>
       </c>
       <c r="F17" s="15">
         <f>D17-D16</f>
-        <v>-5.0099999999999978E-2</v>
+        <v>-1.6500000000000015E-2</v>
+      </c>
+      <c r="G17" s="15">
+        <f>E17-E16</f>
+        <v>-1.4499999999999957E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -931,44 +999,48 @@
         <v>19</v>
       </c>
       <c r="B18" s="16">
-        <v>0.58779999999999999</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="C18" s="16">
-        <v>0.91169999999999995</v>
+        <v>0.91920000000000002</v>
       </c>
       <c r="D18" s="16">
-        <v>0.53900000000000003</v>
+        <v>0.47939999999999999</v>
       </c>
       <c r="E18" s="17">
-        <v>0.93569999999999998</v>
+        <v>0.92030000000000001</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="19">
-        <v>0.57020000000000004</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="C19" s="19">
-        <v>0.91559999999999997</v>
+        <v>0.91920000000000002</v>
       </c>
       <c r="D19" s="19">
-        <v>0.52470000000000006</v>
+        <v>0.47939999999999999</v>
       </c>
       <c r="E19" s="20">
-        <v>0.9375</v>
+        <v>0.92030000000000001</v>
       </c>
       <c r="F19" s="15">
         <f>D19-D18</f>
-        <v>-1.4299999999999979E-2</v>
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <f>E19-E18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="13">
         <v>0.57620000000000005</v>
@@ -983,11 +1055,11 @@
         <v>0.94110000000000005</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="16">
         <v>0.56120000000000003</v>
@@ -1005,10 +1077,14 @@
         <f>D21-D20</f>
         <v>-1.319999999999999E-2</v>
       </c>
+      <c r="G21" s="15">
+        <f>E21-E20</f>
+        <v>8.9999999999990088E-4</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="16">
         <v>0.57620000000000005</v>
@@ -1023,11 +1099,11 @@
         <v>0.94930000000000003</v>
       </c>
       <c r="F22" s="18"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="19">
         <v>0.57569999999999999</v>
@@ -1043,6 +1119,10 @@
       </c>
       <c r="F23" s="15">
         <f>D23-D22</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <f>E23-E22</f>
         <v>0</v>
       </c>
     </row>
@@ -1053,12 +1133,16 @@
       <c r="E24" s="21"/>
       <c r="F24" s="18">
         <f>SUM(F10:F23)</f>
-        <v>5.8000000000000274E-3</v>
+        <v>-0.14290000000000003</v>
+      </c>
+      <c r="G24" s="18">
+        <f>SUM(G10:G23)</f>
+        <v>-1.3600000000000056E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -1122,7 +1206,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="16">
         <v>0.2525</v>
@@ -1192,913 +1276,989 @@
       </c>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="13">
-        <v>0.218</v>
+        <v>0.22409999999999999</v>
       </c>
       <c r="C33" s="13">
-        <v>0.93669999999999998</v>
+        <v>0.93879999999999997</v>
       </c>
       <c r="D33" s="13">
-        <v>0.19289999999999999</v>
+        <v>0.1981</v>
       </c>
       <c r="E33" s="14">
-        <v>0.79820000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="16">
-        <v>0.21390000000000001</v>
+        <v>0.2243</v>
       </c>
       <c r="C34" s="16">
-        <v>0.93400000000000005</v>
+        <v>0.93830000000000002</v>
       </c>
       <c r="D34" s="16">
-        <v>0.1913</v>
+        <v>0.1978</v>
       </c>
       <c r="E34" s="17">
-        <v>0.78600000000000003</v>
+        <v>0.79820000000000002</v>
       </c>
       <c r="F34" s="15">
         <f>D34-D33</f>
-        <v>-1.5999999999999903E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-2.9999999999999472E-4</v>
+      </c>
+      <c r="G34" s="15">
+        <f>E34-E33</f>
+        <v>-1.8000000000000238E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" s="16">
-        <v>0.15920000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="C35" s="16">
-        <v>0.91679999999999995</v>
+        <v>0.94940000000000002</v>
       </c>
       <c r="D35" s="16">
-        <v>0.13289999999999999</v>
+        <v>0.20469999999999999</v>
       </c>
       <c r="E35" s="17">
-        <v>0.64390000000000003</v>
+        <v>0.82979999999999998</v>
       </c>
       <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B36" s="16">
-        <v>0.14230000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="C36" s="16">
-        <v>0.91139999999999999</v>
+        <v>0.94940000000000002</v>
       </c>
       <c r="D36" s="16">
-        <v>0.1132</v>
+        <v>0.20469999999999999</v>
       </c>
       <c r="E36" s="17">
-        <v>0.57720000000000005</v>
+        <v>0.82979999999999998</v>
       </c>
       <c r="F36" s="15">
         <f>D36-D35</f>
-        <v>-1.9699999999999995E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <f>E36-E35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B37" s="16">
-        <v>0.22819999999999999</v>
+        <v>0.1573</v>
       </c>
       <c r="C37" s="16">
-        <v>0.94469999999999998</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="D37" s="16">
-        <v>0.19989999999999999</v>
+        <v>0.13289999999999999</v>
       </c>
       <c r="E37" s="17">
-        <v>0.81399999999999995</v>
+        <v>0.66490000000000005</v>
       </c>
       <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38" s="16">
-        <v>0.22819999999999999</v>
+        <v>0.13569999999999999</v>
       </c>
       <c r="C38" s="16">
-        <v>0.94469999999999998</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="D38" s="16">
-        <v>0.19989999999999999</v>
+        <v>0.1134</v>
       </c>
       <c r="E38" s="17">
-        <v>0.81399999999999995</v>
+        <v>0.55610000000000004</v>
       </c>
       <c r="F38" s="15">
         <f>D38-D37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.949999999999999E-2</v>
+      </c>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B39" s="16">
-        <v>0.20569999999999999</v>
+        <v>0.22720000000000001</v>
       </c>
       <c r="C39" s="16">
-        <v>0.92430000000000001</v>
+        <v>0.93779999999999997</v>
       </c>
       <c r="D39" s="16">
-        <v>0.17519999999999999</v>
+        <v>0.19689999999999999</v>
       </c>
       <c r="E39" s="17">
-        <v>0.74739999999999995</v>
+        <v>0.79469999999999996</v>
       </c>
       <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B40" s="16">
-        <v>0.20569999999999999</v>
+        <v>0.20219999999999999</v>
       </c>
       <c r="C40" s="16">
-        <v>0.92430000000000001</v>
+        <v>0.92759999999999998</v>
       </c>
       <c r="D40" s="16">
-        <v>0.17519999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="E40" s="17">
-        <v>0.74739999999999995</v>
+        <v>0.75439999999999996</v>
       </c>
       <c r="F40" s="15">
         <f>D40-D39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-2.3900000000000005E-2</v>
+      </c>
+      <c r="G40" s="15">
+        <f>E40-E39</f>
+        <v>-4.0300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B41" s="16">
-        <v>0.19</v>
+        <v>0.23669999999999999</v>
       </c>
       <c r="C41" s="16">
-        <v>0.90759999999999996</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="D41" s="16">
-        <v>0.14480000000000001</v>
+        <v>0.21029999999999999</v>
       </c>
       <c r="E41" s="17">
-        <v>0.63859999999999995</v>
+        <v>0.80530000000000002</v>
       </c>
       <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="16">
-        <v>0.20569999999999999</v>
-      </c>
-      <c r="C42" s="16">
-        <v>0.92430000000000001</v>
-      </c>
-      <c r="D42" s="16">
-        <v>0.17519999999999999</v>
-      </c>
-      <c r="E42" s="17">
-        <v>0.74739999999999995</v>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="19">
+        <v>0.23669999999999999</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0.80530000000000002</v>
       </c>
       <c r="F42" s="15">
         <f>D42-D41</f>
-        <v>3.0399999999999983E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="16">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="C43" s="16">
-        <v>0.93769999999999998</v>
-      </c>
-      <c r="D43" s="16">
-        <v>0.18890000000000001</v>
-      </c>
-      <c r="E43" s="17">
-        <v>0.79649999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="15">
+        <f>E42-E41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.83509999999999995</v>
       </c>
       <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="19">
-        <v>0.21329999999999999</v>
-      </c>
-      <c r="C44" s="19">
-        <v>0.93940000000000001</v>
-      </c>
-      <c r="D44" s="19">
-        <v>0.18940000000000001</v>
-      </c>
-      <c r="E44" s="20">
-        <v>0.80349999999999999</v>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="16">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0.83679999999999999</v>
       </c>
       <c r="F44" s="15">
         <f>D44-D43</f>
-        <v>5.0000000000000044E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="13">
-        <v>0.216</v>
-      </c>
-      <c r="C45" s="13">
-        <v>0.93759999999999999</v>
-      </c>
-      <c r="D45" s="13">
-        <v>0.1898</v>
-      </c>
-      <c r="E45" s="14">
-        <v>0.79469999999999996</v>
+        <v>1.21E-2</v>
+      </c>
+      <c r="G44" s="15">
+        <f>E44-E43</f>
+        <v>1.7000000000000348E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="16">
+        <v>0.26679999999999998</v>
+      </c>
+      <c r="C45" s="16">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="E45" s="17">
+        <v>0.84040000000000004</v>
       </c>
       <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="16">
-        <v>0.2228</v>
-      </c>
-      <c r="C46" s="16">
-        <v>0.93669999999999998</v>
-      </c>
-      <c r="D46" s="16">
-        <v>0.1956</v>
-      </c>
-      <c r="E46" s="17">
-        <v>0.79469999999999996</v>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="19">
+        <v>0.25690000000000002</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="E46" s="20">
+        <v>0.83330000000000004</v>
       </c>
       <c r="F46" s="15">
         <f>D46-D45</f>
-        <v>5.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+        <v>-9.5999999999999974E-3</v>
+      </c>
+      <c r="G46" s="15">
+        <f>E46-E45</f>
+        <v>-7.0999999999999952E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="18">
+        <f>SUM(F35:F46)</f>
+        <v>-4.0899999999999992E-2</v>
+      </c>
+      <c r="G47" s="18">
+        <f>SUM(G35:G46)</f>
+        <v>-4.5699999999999963E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="C51" s="16">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0.221</v>
+      </c>
+      <c r="E51" s="17">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="16">
-        <v>0.26679999999999998</v>
-      </c>
-      <c r="C47" s="16">
-        <v>0.94259999999999999</v>
-      </c>
-      <c r="D47" s="16">
-        <v>0.23960000000000001</v>
-      </c>
-      <c r="E47" s="17">
-        <v>0.84040000000000004</v>
-      </c>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="19">
-        <v>0.25690000000000002</v>
-      </c>
-      <c r="C48" s="19">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="D48" s="19">
-        <v>0.23</v>
-      </c>
-      <c r="E48" s="20">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="F48" s="15">
-        <f>D48-D47</f>
-        <v>-9.5999999999999974E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="18">
-        <f>SUM(F35:F48)</f>
-        <v>7.3999999999999899E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="13">
-        <v>0.18160000000000001</v>
-      </c>
-      <c r="C52" s="13">
-        <v>0.80720000000000003</v>
-      </c>
-      <c r="D52" s="13">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="E52" s="14">
-        <v>0.44440000000000002</v>
+      <c r="B52" s="16">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="C52" s="16">
+        <v>0.88070000000000004</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0.29270000000000002</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0.75609999999999999</v>
       </c>
       <c r="F52" s="18"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B53" s="16">
-        <v>0.28120000000000001</v>
+        <v>0.35010000000000002</v>
       </c>
       <c r="C53" s="16">
-        <v>0.81840000000000002</v>
+        <v>0.88260000000000005</v>
       </c>
       <c r="D53" s="16">
-        <v>0.221</v>
+        <v>0.28420000000000001</v>
       </c>
       <c r="E53" s="17">
-        <v>0.61250000000000004</v>
+        <v>0.75070000000000003</v>
       </c>
       <c r="F53" s="18"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B54" s="16">
-        <v>0.33350000000000002</v>
+        <v>0.30559999999999998</v>
       </c>
       <c r="C54" s="16">
-        <v>0.88070000000000004</v>
+        <v>0.87229999999999996</v>
       </c>
       <c r="D54" s="16">
-        <v>0.29270000000000002</v>
+        <v>0.25390000000000001</v>
       </c>
       <c r="E54" s="17">
-        <v>0.75609999999999999</v>
+        <v>0.7046</v>
       </c>
       <c r="F54" s="18"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="16">
-        <v>0.35010000000000002</v>
-      </c>
-      <c r="C55" s="16">
-        <v>0.88260000000000005</v>
-      </c>
-      <c r="D55" s="16">
-        <v>0.28420000000000001</v>
-      </c>
-      <c r="E55" s="17">
-        <v>0.75070000000000003</v>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="19">
+        <v>0.23169999999999999</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="D55" s="19">
+        <v>0.1862</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0.56100000000000005</v>
       </c>
       <c r="F55" s="18"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="16">
-        <v>0.30559999999999998</v>
-      </c>
-      <c r="C56" s="16">
-        <v>0.87229999999999996</v>
-      </c>
-      <c r="D56" s="16">
-        <v>0.25390000000000001</v>
-      </c>
-      <c r="E56" s="17">
-        <v>0.7046</v>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="13">
+        <v>0.374</v>
+      </c>
+      <c r="C56" s="13">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="D56" s="13">
+        <v>0.314</v>
+      </c>
+      <c r="E56" s="14">
+        <v>0.80759999999999998</v>
       </c>
       <c r="F56" s="18"/>
     </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="19">
-        <v>0.23169999999999999</v>
-      </c>
-      <c r="C57" s="19">
-        <v>0.82369999999999999</v>
-      </c>
-      <c r="D57" s="19">
-        <v>0.1862</v>
-      </c>
-      <c r="E57" s="20">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="13">
-        <v>0.4249</v>
-      </c>
-      <c r="C58" s="13">
-        <v>0.87760000000000005</v>
-      </c>
-      <c r="D58" s="13">
-        <v>0.39350000000000002</v>
-      </c>
-      <c r="E58" s="14">
-        <v>0.82110000000000005</v>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="16">
+        <v>0.3649</v>
+      </c>
+      <c r="C57" s="16">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="D57" s="16">
+        <v>0.307</v>
+      </c>
+      <c r="E57" s="17">
+        <v>0.81030000000000002</v>
+      </c>
+      <c r="F57" s="15">
+        <f>D57-D56</f>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="G57" s="15">
+        <f>E57-E56</f>
+        <v>2.7000000000000357E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="16">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C58" s="16">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="D58" s="16">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="E58" s="17">
+        <v>0.80489999999999995</v>
       </c>
       <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="18"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B59" s="16">
-        <v>0.42470000000000002</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="C59" s="16">
-        <v>0.87849999999999995</v>
+        <v>0.89529999999999998</v>
       </c>
       <c r="D59" s="16">
-        <v>0.39419999999999999</v>
+        <v>0.29380000000000001</v>
       </c>
       <c r="E59" s="17">
-        <v>0.82379999999999998</v>
+        <v>0.80489999999999995</v>
       </c>
       <c r="F59" s="15">
         <f>D59-D58</f>
-        <v>6.9999999999997842E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G59" s="15">
+        <f>E59-E58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B60" s="16">
-        <v>0.3664</v>
+        <v>0.30020000000000002</v>
       </c>
       <c r="C60" s="16">
-        <v>0.89470000000000005</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="D60" s="16">
-        <v>0.30170000000000002</v>
+        <v>0.2422</v>
       </c>
       <c r="E60" s="17">
-        <v>0.81299999999999994</v>
+        <v>0.6341</v>
       </c>
       <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B61" s="16">
-        <v>0.3664</v>
+        <v>0.18160000000000001</v>
       </c>
       <c r="C61" s="16">
-        <v>0.89470000000000005</v>
+        <v>0.80720000000000003</v>
       </c>
       <c r="D61" s="16">
-        <v>0.30170000000000002</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="E61" s="17">
-        <v>0.81299999999999994</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="F61" s="15">
         <f>D61-D60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-0.10319999999999999</v>
+      </c>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B62" s="16">
-        <v>0.27500000000000002</v>
+        <v>0.37880000000000003</v>
       </c>
       <c r="C62" s="16">
-        <v>0.82379999999999998</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="D62" s="16">
-        <v>0.24</v>
+        <v>0.31879999999999997</v>
       </c>
       <c r="E62" s="17">
-        <v>0.63139999999999996</v>
+        <v>0.80220000000000002</v>
       </c>
       <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B63" s="16">
-        <v>0.3503</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="C63" s="16">
-        <v>0.85880000000000001</v>
+        <v>0.87090000000000001</v>
       </c>
       <c r="D63" s="16">
-        <v>0.29599999999999999</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="E63" s="17">
-        <v>0.73980000000000001</v>
+        <v>0.74529999999999996</v>
       </c>
       <c r="F63" s="15">
         <f>D63-D62</f>
-        <v>5.5999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-3.0799999999999994E-2</v>
+      </c>
+      <c r="G63" s="15">
+        <f>E63-E62</f>
+        <v>-5.6900000000000062E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B64" s="16">
-        <v>0.42109999999999997</v>
+        <v>0.36420000000000002</v>
       </c>
       <c r="C64" s="16">
-        <v>0.86729999999999996</v>
+        <v>0.89759999999999995</v>
       </c>
       <c r="D64" s="16">
-        <v>0.38579999999999998</v>
+        <v>0.30570000000000003</v>
       </c>
       <c r="E64" s="17">
-        <v>0.80220000000000002</v>
+        <v>0.80759999999999998</v>
       </c>
       <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="16">
-        <v>0.3503</v>
-      </c>
-      <c r="C65" s="16">
-        <v>0.85880000000000001</v>
-      </c>
-      <c r="D65" s="16">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E65" s="17">
-        <v>0.73980000000000001</v>
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="19">
+        <v>0.36420000000000002</v>
+      </c>
+      <c r="C65" s="19">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="D65" s="19">
+        <v>0.30570000000000003</v>
+      </c>
+      <c r="E65" s="20">
+        <v>0.80759999999999998</v>
       </c>
       <c r="F65" s="15">
         <f>D65-D64</f>
-        <v>-8.9799999999999991E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" s="16">
-        <v>0.41289999999999999</v>
-      </c>
-      <c r="C66" s="16">
-        <v>0.88229999999999997</v>
-      </c>
-      <c r="D66" s="16">
-        <v>0.38269999999999998</v>
-      </c>
-      <c r="E66" s="17">
-        <v>0.8266</v>
+        <v>0</v>
+      </c>
+      <c r="G65" s="15">
+        <f>E65-E64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="13">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="C66" s="13">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="D66" s="13">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="E66" s="14">
+        <v>0.81299999999999994</v>
       </c>
       <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="19">
-        <v>0.42130000000000001</v>
-      </c>
-      <c r="C67" s="19">
-        <v>0.88870000000000005</v>
-      </c>
-      <c r="D67" s="19">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="E67" s="20">
-        <v>0.83199999999999996</v>
+      <c r="G66" s="18"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="16">
+        <v>0.372</v>
+      </c>
+      <c r="C67" s="16">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="D67" s="16">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="E67" s="17">
+        <v>0.81030000000000002</v>
       </c>
       <c r="F67" s="15">
         <f>D67-D66</f>
-        <v>6.3000000000000278E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="13">
-        <v>0.39150000000000001</v>
-      </c>
-      <c r="C68" s="13">
-        <v>0.88880000000000003</v>
-      </c>
-      <c r="D68" s="13">
-        <v>0.35289999999999999</v>
-      </c>
-      <c r="E68" s="14">
-        <v>0.81299999999999994</v>
+        <v>-2.1799999999999986E-2</v>
+      </c>
+      <c r="G67" s="15">
+        <f>E67-E66</f>
+        <v>-2.6999999999999247E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="16">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="C68" s="16">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="D68" s="16">
+        <v>0.39429999999999998</v>
+      </c>
+      <c r="E68" s="17">
+        <v>0.8347</v>
       </c>
       <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="16">
-        <v>0.372</v>
-      </c>
-      <c r="C69" s="16">
-        <v>0.89029999999999998</v>
-      </c>
-      <c r="D69" s="16">
-        <v>0.33110000000000001</v>
-      </c>
-      <c r="E69" s="17">
-        <v>0.81030000000000002</v>
+      <c r="G68" s="18"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="19">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="C69" s="19">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="D69" s="19">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="E69" s="20">
+        <v>0.83199999999999996</v>
       </c>
       <c r="F69" s="15">
         <f>D69-D68</f>
-        <v>-2.1799999999999986E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+        <v>-1.4899999999999969E-2</v>
+      </c>
+      <c r="G69" s="15">
+        <f>E69-E68</f>
+        <v>-2.7000000000000357E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="18">
+        <f>SUM(F56:F69)</f>
+        <v>-0.17769999999999994</v>
+      </c>
+      <c r="G70" s="18">
+        <f>SUM(G56:G69)</f>
+        <v>-5.9599999999999986E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="13">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="C73" s="13">
+        <v>0.879</v>
+      </c>
+      <c r="D73" s="13">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="E73" s="14">
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="16">
+        <v>0.3276</v>
+      </c>
+      <c r="C74" s="16">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="D74" s="16">
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="E74" s="17">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="16">
-        <v>0.45729999999999998</v>
-      </c>
-      <c r="C70" s="16">
-        <v>0.89080000000000004</v>
-      </c>
-      <c r="D70" s="16">
-        <v>0.39429999999999998</v>
-      </c>
-      <c r="E70" s="17">
-        <v>0.8347</v>
-      </c>
-      <c r="F70" s="18"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" s="19">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="C71" s="19">
-        <v>0.88949999999999996</v>
-      </c>
-      <c r="D71" s="19">
-        <v>0.37940000000000002</v>
-      </c>
-      <c r="E71" s="20">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="F71" s="15">
-        <f>D71-D70</f>
-        <v>-1.4899999999999969E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="18">
-        <f>SUM(F58:F71)</f>
-        <v>-6.3499999999999945E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="18"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="13">
-        <v>0.32469999999999999</v>
-      </c>
-      <c r="C75" s="13">
-        <v>0.879</v>
-      </c>
-      <c r="D75" s="13">
-        <v>0.29870000000000002</v>
-      </c>
-      <c r="E75" s="14">
-        <v>0.69910000000000005</v>
+      <c r="B75" s="16">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="C75" s="16">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="D75" s="16">
+        <v>0.64229999999999998</v>
+      </c>
+      <c r="E75" s="17">
+        <v>0.98119999999999996</v>
       </c>
       <c r="F75" s="18"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B76" s="16">
-        <v>0.3276</v>
+        <v>0.72460000000000002</v>
       </c>
       <c r="C76" s="16">
-        <v>0.92269999999999996</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="D76" s="16">
-        <v>0.29049999999999998</v>
+        <v>0.72189999999999999</v>
       </c>
       <c r="E76" s="17">
-        <v>0.80879999999999996</v>
+        <v>0.97809999999999997</v>
       </c>
       <c r="F76" s="18"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B77" s="16">
-        <v>0.64710000000000001</v>
+        <v>0.45279999999999998</v>
       </c>
       <c r="C77" s="16">
-        <v>0.99070000000000003</v>
+        <v>0.95530000000000004</v>
       </c>
       <c r="D77" s="16">
-        <v>0.64229999999999998</v>
+        <v>0.4289</v>
       </c>
       <c r="E77" s="17">
-        <v>0.98119999999999996</v>
+        <v>0.91849999999999998</v>
       </c>
       <c r="F77" s="18"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="16">
-        <v>0.72460000000000002</v>
-      </c>
-      <c r="C78" s="16">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="D78" s="16">
-        <v>0.72189999999999999</v>
-      </c>
-      <c r="E78" s="17">
-        <v>0.97809999999999997</v>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="19">
+        <v>0.42930000000000001</v>
+      </c>
+      <c r="C78" s="19">
+        <v>0.9244</v>
+      </c>
+      <c r="D78" s="19">
+        <v>0.38819999999999999</v>
+      </c>
+      <c r="E78" s="20">
+        <v>0.84640000000000004</v>
       </c>
       <c r="F78" s="18"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="16">
-        <v>0.45279999999999998</v>
-      </c>
-      <c r="C79" s="16">
-        <v>0.95530000000000004</v>
-      </c>
-      <c r="D79" s="16">
-        <v>0.4289</v>
-      </c>
-      <c r="E79" s="17">
-        <v>0.91849999999999998</v>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="13">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="C79" s="13">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="D79" s="13">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="E79" s="14">
+        <v>0.99060000000000004</v>
       </c>
       <c r="F79" s="18"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="19">
-        <v>0.42930000000000001</v>
-      </c>
-      <c r="C80" s="19">
-        <v>0.9244</v>
-      </c>
-      <c r="D80" s="19">
-        <v>0.38819999999999999</v>
-      </c>
-      <c r="E80" s="20">
-        <v>0.84640000000000004</v>
-      </c>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="13">
+      <c r="G79" s="18"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="16">
         <v>0.78569999999999995</v>
       </c>
-      <c r="C81" s="13">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="D81" s="13">
-        <v>0.78210000000000002</v>
-      </c>
-      <c r="E81" s="14">
+      <c r="C80" s="16">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="D80" s="16">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="E80" s="17">
         <v>0.99060000000000004</v>
       </c>
+      <c r="F80" s="15">
+        <f>D80-D79</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="15">
+        <f>E80-E79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="16">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="C81" s="16">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="D81" s="16">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="E81" s="17">
+        <v>0.99060000000000004</v>
+      </c>
       <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="18"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B82" s="16">
         <v>0.78569999999999995</v>
       </c>
       <c r="C82" s="16">
-        <v>0.99299999999999999</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="D82" s="16">
-        <v>0.78210000000000002</v>
+        <v>0.78339999999999999</v>
       </c>
       <c r="E82" s="17">
         <v>0.99060000000000004</v>
@@ -2107,166 +2267,187 @@
         <f>D82-D81</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="15">
+        <f>E82-E81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B83" s="16">
-        <v>0.78569999999999995</v>
+        <v>0.3201</v>
       </c>
       <c r="C83" s="16">
-        <v>0.99250000000000005</v>
+        <v>0.93020000000000003</v>
       </c>
       <c r="D83" s="16">
-        <v>0.78190000000000004</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="E83" s="17">
-        <v>0.98750000000000004</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="F83" s="18"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="18"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B84" s="16">
-        <v>0.78569999999999995</v>
+        <v>0.32469999999999999</v>
       </c>
       <c r="C84" s="16">
-        <v>0.99250000000000005</v>
+        <v>0.879</v>
       </c>
       <c r="D84" s="16">
-        <v>0.78190000000000004</v>
+        <v>0.29870000000000002</v>
       </c>
       <c r="E84" s="17">
-        <v>0.98750000000000004</v>
+        <v>0.69910000000000005</v>
       </c>
       <c r="F84" s="15">
         <f>D84-D83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2700000000000045E-2</v>
+      </c>
+      <c r="G84" s="15"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B85" s="16">
-        <v>0.32069999999999999</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="C85" s="16">
-        <v>0.93340000000000001</v>
+        <v>0.99119999999999997</v>
       </c>
       <c r="D85" s="16">
-        <v>0.2883</v>
+        <v>0.78110000000000002</v>
       </c>
       <c r="E85" s="17">
-        <v>0.82130000000000003</v>
+        <v>0.99060000000000004</v>
       </c>
       <c r="F85" s="18"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="18"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B86" s="16">
-        <v>0.72260000000000002</v>
+        <v>0.83309999999999995</v>
       </c>
       <c r="C86" s="16">
-        <v>0.97119999999999995</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="D86" s="16">
-        <v>0.71240000000000003</v>
+        <v>0.82689999999999997</v>
       </c>
       <c r="E86" s="17">
-        <v>0.96240000000000003</v>
+        <v>0.97489999999999999</v>
       </c>
       <c r="F86" s="15">
         <f>D86-D85</f>
-        <v>0.42410000000000003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.5799999999999952E-2</v>
+      </c>
+      <c r="G86" s="15">
+        <f>E86-E85</f>
+        <v>-1.5700000000000047E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B87" s="16">
-        <v>0.6875</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="C87" s="16">
-        <v>0.98470000000000002</v>
+        <v>0.99429999999999996</v>
       </c>
       <c r="D87" s="16">
-        <v>0.67930000000000001</v>
+        <v>0.84330000000000005</v>
       </c>
       <c r="E87" s="17">
-        <v>0.97809999999999997</v>
+        <v>0.99370000000000003</v>
       </c>
       <c r="F87" s="18"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B88" s="16">
-        <v>0.72260000000000002</v>
-      </c>
-      <c r="C88" s="16">
-        <v>0.97119999999999995</v>
-      </c>
-      <c r="D88" s="16">
-        <v>0.71240000000000003</v>
-      </c>
-      <c r="E88" s="17">
-        <v>0.96240000000000003</v>
+      <c r="G87" s="18"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="19">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="C88" s="19">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="D88" s="19">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="E88" s="20">
+        <v>0.99370000000000003</v>
       </c>
       <c r="F88" s="15">
         <f>D88-D87</f>
-        <v>3.3100000000000018E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G88" s="15">
+        <f>E88-E87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B89" s="16">
         <v>0.84619999999999995</v>
       </c>
       <c r="C89" s="16">
-        <v>0.99629999999999996</v>
+        <v>0.99519999999999997</v>
       </c>
       <c r="D89" s="16">
-        <v>0.84430000000000005</v>
+        <v>0.84370000000000001</v>
       </c>
       <c r="E89" s="17">
         <v>0.99370000000000003</v>
       </c>
-      <c r="F89" s="18"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" s="19">
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="16">
         <v>0.84619999999999995</v>
       </c>
-      <c r="C90" s="19">
-        <v>0.99629999999999996</v>
-      </c>
-      <c r="D90" s="19">
-        <v>0.84430000000000005</v>
-      </c>
-      <c r="E90" s="20">
+      <c r="C90" s="16">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="D90" s="16">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="E90" s="17">
         <v>0.99370000000000003</v>
       </c>
       <c r="F90" s="15">
-        <f>D90-D89</f>
+        <f t="shared" ref="F89:G90" si="0">D90-D89</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B91" s="13">
         <v>0.91669999999999996</v>
@@ -2281,10 +2462,11 @@
         <v>0.99690000000000001</v>
       </c>
       <c r="F91" s="18"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="18"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B92" s="19">
         <v>0.84619999999999995</v>
@@ -2302,20 +2484,28 @@
         <f>D92-D91</f>
         <v>-7.1399999999999908E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="15">
+        <f>E92-E91</f>
+        <v>-3.1999999999999806E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
       <c r="F93" s="18">
-        <f>SUM(F79:F92)</f>
-        <v>0.38580000000000014</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <f>SUM(F77:F92)</f>
+        <v>-1.2899999999999912E-2</v>
+      </c>
+      <c r="G93" s="18">
+        <f>SUM(G77:G92)</f>
+        <v>-1.8900000000000028E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -2323,7 +2513,7 @@
       <c r="E94" s="21"/>
       <c r="F94" s="18"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -2341,7 +2531,7 @@
       </c>
       <c r="F95" s="18"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -2359,9 +2549,9 @@
       </c>
       <c r="F96" s="18"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B97" s="16">
         <v>0.25509999999999999</v>
@@ -2377,7 +2567,7 @@
       </c>
       <c r="F97" s="18"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -2395,7 +2585,7 @@
       </c>
       <c r="F98" s="18"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
@@ -2413,7 +2603,7 @@
       </c>
       <c r="F99" s="18"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>10</v>
       </c>
@@ -2431,7 +2621,7 @@
       </c>
       <c r="F100" s="18"/>
     </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
@@ -2449,85 +2639,95 @@
       </c>
       <c r="F101" s="18"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B102" s="13">
-        <v>0.41370000000000001</v>
+        <v>0.39589999999999997</v>
       </c>
       <c r="C102" s="13">
-        <v>0.92879999999999996</v>
+        <v>0.92620000000000002</v>
       </c>
       <c r="D102" s="13">
-        <v>0.37840000000000001</v>
+        <v>0.35830000000000001</v>
       </c>
       <c r="E102" s="14">
-        <v>0.87919999999999998</v>
+        <v>0.86040000000000005</v>
       </c>
       <c r="F102" s="18"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="18"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B103" s="16">
-        <v>0.41370000000000001</v>
+        <v>0.3785</v>
       </c>
       <c r="C103" s="16">
-        <v>0.92479999999999996</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="D103" s="16">
-        <v>0.37540000000000001</v>
+        <v>0.3417</v>
       </c>
       <c r="E103" s="17">
-        <v>0.87549999999999994</v>
+        <v>0.85660000000000003</v>
       </c>
       <c r="F103" s="15">
         <f>D103-D102</f>
-        <v>-3.0000000000000027E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.6600000000000004E-2</v>
+      </c>
+      <c r="G103" s="15">
+        <f>E103-E102</f>
+        <v>-3.8000000000000256E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="16">
-        <v>0.32500000000000001</v>
+        <v>0.31240000000000001</v>
       </c>
       <c r="C104" s="16">
         <v>0.93610000000000004</v>
       </c>
       <c r="D104" s="16">
-        <v>0.29099999999999998</v>
+        <v>0.27779999999999999</v>
       </c>
       <c r="E104" s="17">
-        <v>0.82640000000000002</v>
+        <v>0.8226</v>
       </c>
       <c r="F104" s="18"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="18"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B105" s="16">
-        <v>0.32500000000000001</v>
+        <v>0.31240000000000001</v>
       </c>
       <c r="C105" s="16">
         <v>0.93610000000000004</v>
       </c>
       <c r="D105" s="16">
-        <v>0.29099999999999998</v>
+        <v>0.27779999999999999</v>
       </c>
       <c r="E105" s="17">
-        <v>0.82640000000000002</v>
+        <v>0.8226</v>
       </c>
       <c r="F105" s="15">
         <f>D105-D104</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="15">
+        <f>E105-E104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>14</v>
       </c>
@@ -2544,109 +2744,121 @@
         <v>0.75470000000000004</v>
       </c>
       <c r="F106" s="18"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="18"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B107" s="16">
-        <v>0.3448</v>
+        <v>0.1827</v>
       </c>
       <c r="C107" s="16">
-        <v>0.92</v>
+        <v>0.89810000000000001</v>
       </c>
       <c r="D107" s="16">
-        <v>0.30209999999999998</v>
+        <v>0.1152</v>
       </c>
       <c r="E107" s="17">
-        <v>0.83399999999999996</v>
+        <v>0.59250000000000003</v>
       </c>
       <c r="F107" s="15">
         <f>D107-D106</f>
-        <v>0.12969999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-5.7200000000000001E-2</v>
+      </c>
+      <c r="G107" s="15"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B108" s="16">
-        <v>0.39550000000000002</v>
+        <v>0.37880000000000003</v>
       </c>
       <c r="C108" s="16">
-        <v>0.92179999999999995</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="D108" s="16">
-        <v>0.35299999999999998</v>
+        <v>0.34039999999999998</v>
       </c>
       <c r="E108" s="17">
-        <v>0.8679</v>
+        <v>0.86040000000000005</v>
       </c>
       <c r="F108" s="18"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="18"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B109" s="16">
-        <v>0.3448</v>
+        <v>0.3614</v>
       </c>
       <c r="C109" s="16">
-        <v>0.92</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="D109" s="16">
-        <v>0.30209999999999998</v>
+        <v>0.31619999999999998</v>
       </c>
       <c r="E109" s="17">
-        <v>0.83399999999999996</v>
+        <v>0.84530000000000005</v>
       </c>
       <c r="F109" s="15">
         <f>D109-D108</f>
-        <v>-5.0900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-2.4199999999999999E-2</v>
+      </c>
+      <c r="G109" s="15">
+        <f>E109-E108</f>
+        <v>-1.5100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B110" s="16">
-        <v>0.41499999999999998</v>
+        <v>0.34810000000000002</v>
       </c>
       <c r="C110" s="16">
-        <v>0.93289999999999995</v>
+        <v>0.93589999999999995</v>
       </c>
       <c r="D110" s="16">
-        <v>0.38290000000000002</v>
+        <v>0.3155</v>
       </c>
       <c r="E110" s="17">
-        <v>0.87549999999999994</v>
+        <v>0.86040000000000005</v>
       </c>
       <c r="F110" s="18"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G110" s="18"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B111" s="19">
-        <v>0.41599999999999998</v>
+        <v>0.34810000000000002</v>
       </c>
       <c r="C111" s="19">
-        <v>0.93059999999999998</v>
+        <v>0.93589999999999995</v>
       </c>
       <c r="D111" s="19">
-        <v>0.3821</v>
+        <v>0.3155</v>
       </c>
       <c r="E111" s="20">
-        <v>0.86419999999999997</v>
+        <v>0.86040000000000005</v>
       </c>
       <c r="F111" s="15">
         <f>D111-D110</f>
-        <v>-8.0000000000002292E-4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G111" s="15">
+        <f>E111-E110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B112" s="13">
         <v>0.33929999999999999</v>
@@ -2661,10 +2873,11 @@
         <v>0.8528</v>
       </c>
       <c r="F112" s="18"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="18"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B113" s="16">
         <v>0.33529999999999999</v>
@@ -2682,10 +2895,14 @@
         <f>D113-D112</f>
         <v>-5.6999999999999829E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="15">
+        <f>E113-E112</f>
+        <v>-1.5100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B114" s="16">
         <v>0.34839999999999999</v>
@@ -2700,10 +2917,11 @@
         <v>0.8377</v>
       </c>
       <c r="F114" s="18"/>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G114" s="18"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B115" s="19">
         <v>0.36430000000000001</v>
@@ -2721,20 +2939,28 @@
         <f>D115-D114</f>
         <v>1.7400000000000027E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="15">
+        <f>E115-E114</f>
+        <v>1.1399999999999966E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
       <c r="F116" s="18">
         <f>SUM(F102:F115)</f>
-        <v>8.6699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-8.629999999999996E-2</v>
+      </c>
+      <c r="G116" s="18">
+        <f>SUM(G102:G115)</f>
+        <v>-2.2600000000000064E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -2742,7 +2968,7 @@
       <c r="E117" s="21"/>
       <c r="F117" s="18"/>
     </row>
-    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -2760,7 +2986,7 @@
       </c>
       <c r="F118" s="18"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>8</v>
       </c>
@@ -2778,9 +3004,9 @@
       </c>
       <c r="F119" s="18"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B120" s="16">
         <v>0.46839999999999998</v>
@@ -2796,7 +3022,7 @@
       </c>
       <c r="F120" s="18"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>18</v>
       </c>
@@ -2814,7 +3040,7 @@
       </c>
       <c r="F121" s="18"/>
     </row>
-    <row r="122" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>9</v>
       </c>
@@ -2832,7 +3058,7 @@
       </c>
       <c r="F122" s="18"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>10</v>
       </c>
@@ -2850,7 +3076,7 @@
       </c>
       <c r="F123" s="18"/>
     </row>
-    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>11</v>
       </c>
@@ -2868,85 +3094,94 @@
       </c>
       <c r="F124" s="18"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B125" s="13">
-        <v>0.57989999999999997</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="C125" s="13">
-        <v>0.85929999999999995</v>
+        <v>0.84440000000000004</v>
       </c>
       <c r="D125" s="13">
-        <v>0.53410000000000002</v>
+        <v>0.5615</v>
       </c>
       <c r="E125" s="14">
-        <v>0.76880000000000004</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="F125" s="18"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B126" s="16">
-        <v>0.57899999999999996</v>
+        <v>0.58140000000000003</v>
       </c>
       <c r="C126" s="16">
-        <v>0.85929999999999995</v>
+        <v>0.84960000000000002</v>
       </c>
       <c r="D126" s="16">
-        <v>0.53400000000000003</v>
+        <v>0.54269999999999996</v>
       </c>
       <c r="E126" s="17">
-        <v>0.76880000000000004</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="F126" s="15">
         <f>D126-D125</f>
-        <v>-9.9999999999988987E-5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.8800000000000039E-2</v>
+      </c>
+      <c r="G126" s="15">
+        <f>E126-E125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B127" s="16">
-        <v>0.52690000000000003</v>
+        <v>0.50980000000000003</v>
       </c>
       <c r="C127" s="16">
-        <v>0.87909999999999999</v>
+        <v>0.88959999999999995</v>
       </c>
       <c r="D127" s="16">
-        <v>0.49059999999999998</v>
+        <v>0.4819</v>
       </c>
       <c r="E127" s="17">
-        <v>0.7833</v>
+        <v>0.78539999999999999</v>
       </c>
       <c r="F127" s="18"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="18"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B128" s="16">
-        <v>0.52690000000000003</v>
+        <v>0.50980000000000003</v>
       </c>
       <c r="C128" s="16">
-        <v>0.87909999999999999</v>
+        <v>0.88959999999999995</v>
       </c>
       <c r="D128" s="16">
-        <v>0.49059999999999998</v>
+        <v>0.4819</v>
       </c>
       <c r="E128" s="17">
-        <v>0.7833</v>
+        <v>0.78539999999999999</v>
       </c>
       <c r="F128" s="15">
         <f>D128-D127</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="15">
+        <f>E128-E127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>14</v>
       </c>
@@ -2963,109 +3198,121 @@
         <v>0.69789999999999996</v>
       </c>
       <c r="F129" s="18"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="18"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B130" s="16">
-        <v>0.57850000000000001</v>
+        <v>0.311</v>
       </c>
       <c r="C130" s="16">
-        <v>0.86629999999999996</v>
+        <v>0.7278</v>
       </c>
       <c r="D130" s="16">
-        <v>0.5423</v>
+        <v>0.28189999999999998</v>
       </c>
       <c r="E130" s="17">
-        <v>0.7792</v>
+        <v>0.50419999999999998</v>
       </c>
       <c r="F130" s="15">
         <f>D130-D129</f>
-        <v>0.10599999999999998</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-0.15440000000000004</v>
+      </c>
+      <c r="G130" s="15"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B131" s="16">
-        <v>0.57950000000000002</v>
+        <v>0.59830000000000005</v>
       </c>
       <c r="C131" s="16">
-        <v>0.85199999999999998</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="D131" s="16">
-        <v>0.52959999999999996</v>
+        <v>0.56389999999999996</v>
       </c>
       <c r="E131" s="17">
-        <v>0.75829999999999997</v>
+        <v>0.76039999999999996</v>
       </c>
       <c r="F131" s="18"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="18"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B132" s="16">
-        <v>0.57850000000000001</v>
+        <v>0.61319999999999997</v>
       </c>
       <c r="C132" s="16">
-        <v>0.86629999999999996</v>
+        <v>0.86119999999999997</v>
       </c>
       <c r="D132" s="16">
-        <v>0.5423</v>
+        <v>0.5776</v>
       </c>
       <c r="E132" s="17">
-        <v>0.7792</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="F132" s="15">
         <f>D132-D131</f>
-        <v>1.2700000000000045E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.3700000000000045E-2</v>
+      </c>
+      <c r="G132" s="15">
+        <f>E132-E131</f>
+        <v>2.0800000000000041E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B133" s="16">
-        <v>0.57730000000000004</v>
+        <v>0.56059999999999999</v>
       </c>
       <c r="C133" s="16">
-        <v>0.85629999999999995</v>
+        <v>0.85329999999999995</v>
       </c>
       <c r="D133" s="16">
-        <v>0.52869999999999995</v>
+        <v>0.52339999999999998</v>
       </c>
       <c r="E133" s="17">
-        <v>0.76880000000000004</v>
+        <v>0.76039999999999996</v>
       </c>
       <c r="F133" s="18"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G133" s="18"/>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B134" s="19">
-        <v>0.52780000000000005</v>
+        <v>0.56059999999999999</v>
       </c>
       <c r="C134" s="19">
-        <v>0.87509999999999999</v>
+        <v>0.85329999999999995</v>
       </c>
       <c r="D134" s="19">
-        <v>0.48780000000000001</v>
+        <v>0.52339999999999998</v>
       </c>
       <c r="E134" s="20">
-        <v>0.77290000000000003</v>
+        <v>0.76039999999999996</v>
       </c>
       <c r="F134" s="15">
         <f>D134-D133</f>
-        <v>-4.0899999999999936E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G134" s="15">
+        <f>E134-E133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B135" s="13">
         <v>0.61560000000000004</v>
@@ -3080,10 +3327,11 @@
         <v>0.77290000000000003</v>
       </c>
       <c r="F135" s="18"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="18"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B136" s="16">
         <v>0.61319999999999997</v>
@@ -3101,10 +3349,14 @@
         <f>D136-D135</f>
         <v>-2.8000000000000247E-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="15">
+        <f>E136-E135</f>
+        <v>-4.0999999999999925E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B137" s="16">
         <v>0.57889999999999997</v>
@@ -3119,10 +3371,11 @@
         <v>0.7833</v>
       </c>
       <c r="F137" s="18"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G137" s="18"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B138" s="19">
         <v>0.56120000000000003</v>
@@ -3140,20 +3393,28 @@
         <f>D138-D137</f>
         <v>-1.8000000000000016E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="15">
+        <f>E138-E137</f>
+        <v>-4.0999999999999925E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>
       <c r="D139" s="21"/>
       <c r="E139" s="21"/>
       <c r="F139" s="18">
         <f>SUM(F125:F138)</f>
-        <v>5.6900000000000062E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-0.18030000000000007</v>
+      </c>
+      <c r="G139" s="18">
+        <f>SUM(G125:G138)</f>
+        <v>1.2600000000000056E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B140" s="21"/>
       <c r="C140" s="21"/>
@@ -3161,7 +3422,7 @@
       <c r="E140" s="21"/>
       <c r="F140" s="18"/>
     </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>1</v>
       </c>
@@ -3179,7 +3440,7 @@
       </c>
       <c r="F141" s="18"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
@@ -3197,9 +3458,9 @@
       </c>
       <c r="F142" s="18"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B143" s="16">
         <v>0.47260000000000002</v>
@@ -3215,7 +3476,7 @@
       </c>
       <c r="F143" s="18"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>18</v>
       </c>
@@ -3233,7 +3494,7 @@
       </c>
       <c r="F144" s="18"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>9</v>
       </c>
@@ -3251,7 +3512,7 @@
       </c>
       <c r="F145" s="18"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>10</v>
       </c>
@@ -3269,7 +3530,7 @@
       </c>
       <c r="F146" s="18"/>
     </row>
-    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>11</v>
       </c>
@@ -3287,85 +3548,94 @@
       </c>
       <c r="F147" s="18"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B148" s="13">
-        <v>0.60070000000000001</v>
+        <v>0.57850000000000001</v>
       </c>
       <c r="C148" s="13">
-        <v>0.90149999999999997</v>
+        <v>0.89459999999999995</v>
       </c>
       <c r="D148" s="13">
-        <v>0.53810000000000002</v>
+        <v>0.50839999999999996</v>
       </c>
       <c r="E148" s="14">
-        <v>0.8</v>
+        <v>0.78690000000000004</v>
       </c>
       <c r="F148" s="18"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B149" s="16">
-        <v>0.59809999999999997</v>
+        <v>0.5615</v>
       </c>
       <c r="C149" s="16">
-        <v>0.90149999999999997</v>
+        <v>0.89770000000000005</v>
       </c>
       <c r="D149" s="16">
-        <v>0.53659999999999997</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="E149" s="17">
-        <v>0.8</v>
+        <v>0.78690000000000004</v>
       </c>
       <c r="F149" s="15">
         <f>D149-D148</f>
-        <v>-1.5000000000000568E-3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.4999999999999958E-2</v>
+      </c>
+      <c r="G149" s="15">
+        <f>E149-E148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B150" s="16">
-        <v>0.49740000000000001</v>
+        <v>0.52259999999999995</v>
       </c>
       <c r="C150" s="16">
-        <v>0.87790000000000001</v>
+        <v>0.8871</v>
       </c>
       <c r="D150" s="16">
-        <v>0.42430000000000001</v>
+        <v>0.46760000000000002</v>
       </c>
       <c r="E150" s="17">
-        <v>0.74099999999999999</v>
+        <v>0.75409999999999999</v>
       </c>
       <c r="F150" s="18"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="18"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B151" s="16">
-        <v>0.49740000000000001</v>
+        <v>0.52259999999999995</v>
       </c>
       <c r="C151" s="16">
-        <v>0.87790000000000001</v>
+        <v>0.8871</v>
       </c>
       <c r="D151" s="16">
-        <v>0.42430000000000001</v>
+        <v>0.46760000000000002</v>
       </c>
       <c r="E151" s="17">
-        <v>0.74099999999999999</v>
+        <v>0.75409999999999999</v>
       </c>
       <c r="F151" s="15">
         <f>D151-D150</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="15">
+        <f>E151-E150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>14</v>
       </c>
@@ -3382,109 +3652,121 @@
         <v>0.73440000000000005</v>
       </c>
       <c r="F152" s="18"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="18"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B153" s="16">
-        <v>0.5222</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="C153" s="16">
-        <v>0.9173</v>
+        <v>0.77669999999999995</v>
       </c>
       <c r="D153" s="16">
-        <v>0.46989999999999998</v>
+        <v>0.24410000000000001</v>
       </c>
       <c r="E153" s="17">
-        <v>0.80659999999999998</v>
+        <v>0.49180000000000001</v>
       </c>
       <c r="F153" s="15">
         <f>D153-D152</f>
-        <v>8.1100000000000005E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-0.14469999999999997</v>
+      </c>
+      <c r="G153" s="15"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B154" s="16">
-        <v>0.57050000000000001</v>
+        <v>0.54869999999999997</v>
       </c>
       <c r="C154" s="16">
-        <v>0.89680000000000004</v>
+        <v>0.8861</v>
       </c>
       <c r="D154" s="16">
-        <v>0.51449999999999996</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="E154" s="17">
-        <v>0.79339999999999999</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="F154" s="18"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="18"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B155" s="16">
-        <v>0.5222</v>
+        <v>0.53620000000000001</v>
       </c>
       <c r="C155" s="16">
-        <v>0.9173</v>
+        <v>0.9032</v>
       </c>
       <c r="D155" s="16">
-        <v>0.46989999999999998</v>
+        <v>0.48470000000000002</v>
       </c>
       <c r="E155" s="17">
-        <v>0.80659999999999998</v>
+        <v>0.78690000000000004</v>
       </c>
       <c r="F155" s="15">
         <f>D155-D154</f>
-        <v>-4.4599999999999973E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.4000000000000123E-3</v>
+      </c>
+      <c r="G155" s="15">
+        <f>E155-E154</f>
+        <v>9.9000000000000199E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B156" s="16">
-        <v>0.60119999999999996</v>
+        <v>0.55969999999999998</v>
       </c>
       <c r="C156" s="16">
-        <v>0.88190000000000002</v>
+        <v>0.88839999999999997</v>
       </c>
       <c r="D156" s="16">
-        <v>0.52210000000000001</v>
+        <v>0.4839</v>
       </c>
       <c r="E156" s="17">
-        <v>0.78359999999999996</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="F156" s="18"/>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G156" s="18"/>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B157" s="19">
-        <v>0.58289999999999997</v>
+        <v>0.55969999999999998</v>
       </c>
       <c r="C157" s="19">
-        <v>0.88280000000000003</v>
+        <v>0.88839999999999997</v>
       </c>
       <c r="D157" s="19">
-        <v>0.50339999999999996</v>
+        <v>0.4839</v>
       </c>
       <c r="E157" s="20">
         <v>0.77700000000000002</v>
       </c>
       <c r="F157" s="15">
         <f>D157-D156</f>
-        <v>-1.870000000000005E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G157" s="15">
+        <f>E157-E156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B158" s="13">
         <v>0.59360000000000002</v>
@@ -3499,10 +3781,11 @@
         <v>0.78359999999999996</v>
       </c>
       <c r="F158" s="18"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="18"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B159" s="16">
         <v>0.5998</v>
@@ -3520,10 +3803,14 @@
         <f>D159-D158</f>
         <v>1.0499999999999954E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="15">
+        <f>E159-E158</f>
+        <v>9.8000000000000309E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B160" s="16">
         <v>0.58940000000000003</v>
@@ -3538,10 +3825,11 @@
         <v>0.79669999999999996</v>
       </c>
       <c r="F160" s="18"/>
-    </row>
-    <row r="161" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G160" s="18"/>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B161" s="19">
         <v>0.58840000000000003</v>
@@ -3559,35 +3847,47 @@
         <f>D161-D160</f>
         <v>-2.7000000000000357E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="15">
+        <f>E161-E160</f>
+        <v>-3.2999999999999696E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B162" s="21"/>
       <c r="C162" s="21"/>
       <c r="D162" s="21"/>
       <c r="E162" s="21"/>
       <c r="F162" s="18">
         <f>SUM(F148:F161)</f>
-        <v>2.4099999999999844E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-0.15049999999999999</v>
+      </c>
+      <c r="G162" s="18">
+        <f>SUM(G148:G161)</f>
+        <v>1.6400000000000081E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>
       <c r="D163" s="21"/>
       <c r="E163" s="21"/>
       <c r="F163" s="18"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B164" s="21"/>
       <c r="C164" s="21"/>
       <c r="D164" s="21"/>
       <c r="E164" s="21"/>
       <c r="F164" s="18">
-        <f>AVERAGE(F162,F139,F116,F93,F72,F49,F24)</f>
-        <v>7.1885714285714317E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F162,F139,F116,F93,F70,F47,F24)</f>
+        <v>-0.11307142857142856</v>
+      </c>
+      <c r="G164" s="18">
+        <f>AVERAGE(G162,G139,G116,G93,G70,G47,G24)</f>
+        <v>-1.8771428571428567E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B165" s="21"/>
       <c r="C165" s="21"/>
       <c r="D165" s="21"/>
@@ -3595,7 +3895,19 @@
       <c r="F165" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D27:D28 D30 D33:D48">
+  <conditionalFormatting sqref="D4:D23">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D32">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3607,8 +3919,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D23">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="D50:D69">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3619,7 +3931,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D32">
+  <conditionalFormatting sqref="D73:D92">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:D115">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119:D138">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D142:D161">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E23">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3631,79 +3991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D47">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D71">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D92">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:D115">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119:D138">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D142:D161">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E23">
+  <conditionalFormatting sqref="E50:E69">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3715,7 +4003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E48">
+  <conditionalFormatting sqref="E73:E92">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3727,7 +4015,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E71">
+  <conditionalFormatting sqref="E96:E115">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3739,7 +4027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:E92">
+  <conditionalFormatting sqref="E119:E138">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3751,7 +4039,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E115">
+  <conditionalFormatting sqref="E142:E161">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3763,8 +4051,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119:E138">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="D27:D28 D30 D33:D46">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3775,8 +4063,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E142:E161">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D27:D45">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3787,8 +4075,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F162">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E27:E46">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3799,8 +4087,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F164">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G11:G24 G34:G47 G57:G70 G102:G116 G126:G139 G149:G162 F1:F162 G79:G93">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G24 G34:G47 G57:G70 G102:G116 G126:G139 G149:G162 G164 F1:F164 G79:G93">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D46">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3814,4 +4126,395 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE0FF5-5AD7-4082-85AE-10368F424C96}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="A9:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>59.687225341796797</v>
+      </c>
+      <c r="C2">
+        <v>-58.606426239013601</v>
+      </c>
+      <c r="D2">
+        <v>38.011165618896399</v>
+      </c>
+      <c r="E2">
+        <v>52.103080749511697</v>
+      </c>
+      <c r="F2">
+        <v>106.03309631347599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>81.738136291503906</v>
+      </c>
+      <c r="C3">
+        <v>13.897118568420399</v>
+      </c>
+      <c r="D3">
+        <v>-11.5515537261962</v>
+      </c>
+      <c r="E3">
+        <v>18.626682281494102</v>
+      </c>
+      <c r="F3">
+        <v>51.390758514404297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>34.92085647583</v>
+      </c>
+      <c r="C4">
+        <v>11.3819990158081</v>
+      </c>
+      <c r="D4">
+        <v>-1.88560307025909</v>
+      </c>
+      <c r="E4">
+        <v>22.6693515777587</v>
+      </c>
+      <c r="F4">
+        <v>29.589708328246999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>22.6569709777832</v>
+      </c>
+      <c r="C5">
+        <v>19.663621902465799</v>
+      </c>
+      <c r="D5">
+        <v>-6.3207769393920898</v>
+      </c>
+      <c r="E5">
+        <v>8.8830413818359304</v>
+      </c>
+      <c r="F5">
+        <v>39.801891326904297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>40.627063751220703</v>
+      </c>
+      <c r="C6">
+        <v>26.0198249816894</v>
+      </c>
+      <c r="D6">
+        <v>21.0824165344238</v>
+      </c>
+      <c r="E6">
+        <v>6.5547490119934002</v>
+      </c>
+      <c r="F6">
+        <v>5.3419380187988201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>52.295852661132798</v>
+      </c>
+      <c r="C7">
+        <v>10.964647293090801</v>
+      </c>
+      <c r="D7">
+        <v>5.24999904632568</v>
+      </c>
+      <c r="E7">
+        <v>11.605881690979</v>
+      </c>
+      <c r="F7">
+        <v>32.924671173095703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>24.048423767089801</v>
+      </c>
+      <c r="C8">
+        <v>15.607962608337401</v>
+      </c>
+      <c r="D8">
+        <v>0.12025222927331899</v>
+      </c>
+      <c r="E8">
+        <v>17.3783264160156</v>
+      </c>
+      <c r="F8">
+        <v>28.511644363403299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>60.734024047851499</v>
+      </c>
+      <c r="C9">
+        <v>10.5970401763916</v>
+      </c>
+      <c r="D9">
+        <v>-2.09732794761657</v>
+      </c>
+      <c r="E9">
+        <v>23.935621261596602</v>
+      </c>
+      <c r="F9">
+        <v>42.011154174804602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>60.989871978759702</v>
+      </c>
+      <c r="C12">
+        <v>-58.685638427734297</v>
+      </c>
+      <c r="D12">
+        <v>41.409122467041001</v>
+      </c>
+      <c r="E12">
+        <v>52.826171875</v>
+      </c>
+      <c r="F12">
+        <v>102.079872131347</v>
+      </c>
+      <c r="G12">
+        <v>-6.3518900871276802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>82.609565734863196</v>
+      </c>
+      <c r="C13">
+        <v>16.124465942382798</v>
+      </c>
+      <c r="D13">
+        <v>-14.619711875915501</v>
+      </c>
+      <c r="E13">
+        <v>19.223085403442301</v>
+      </c>
+      <c r="F13">
+        <v>50.137744903564403</v>
+      </c>
+      <c r="G13">
+        <v>-4.9294919967651296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>39.1576538085937</v>
+      </c>
+      <c r="C14">
+        <v>9.4956331253051705</v>
+      </c>
+      <c r="D14">
+        <v>-5.8197951316833496</v>
+      </c>
+      <c r="E14">
+        <v>23.206188201904201</v>
+      </c>
+      <c r="F14">
+        <v>33.746826171875</v>
+      </c>
+      <c r="G14">
+        <v>-5.3729100227355904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>23.628564834594702</v>
+      </c>
+      <c r="C15">
+        <v>19.075105667114201</v>
+      </c>
+      <c r="D15">
+        <v>-6.0556263923645002</v>
+      </c>
+      <c r="E15">
+        <v>11.1422863006591</v>
+      </c>
+      <c r="F15">
+        <v>42.616748809814403</v>
+      </c>
+      <c r="G15">
+        <v>-6.7734618186950604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>42.231040954589801</v>
+      </c>
+      <c r="C16">
+        <v>26.559547424316399</v>
+      </c>
+      <c r="D16">
+        <v>21.869388580322202</v>
+      </c>
+      <c r="E16">
+        <v>4.2684001922607404</v>
+      </c>
+      <c r="F16">
+        <v>6.5926623344421298</v>
+      </c>
+      <c r="G16">
+        <v>-4.7462906837463299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>51.200366973876903</v>
+      </c>
+      <c r="C17">
+        <v>11.6164646148681</v>
+      </c>
+      <c r="D17">
+        <v>5.23890924453735</v>
+      </c>
+      <c r="E17">
+        <v>14.728685379028301</v>
+      </c>
+      <c r="F17">
+        <v>37.578495025634702</v>
+      </c>
+      <c r="G17">
+        <v>-5.1236000061035103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>22.60542678833</v>
+      </c>
+      <c r="C18">
+        <v>17.383863449096602</v>
+      </c>
+      <c r="D18">
+        <v>1.10776054859161</v>
+      </c>
+      <c r="E18">
+        <v>17.564771652221602</v>
+      </c>
+      <c r="F18">
+        <v>28.885679244995099</v>
+      </c>
+      <c r="G18">
+        <v>-4.0198116302490199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>63.714759826660099</v>
+      </c>
+      <c r="C19">
+        <v>8.9118375778198207</v>
+      </c>
+      <c r="D19">
+        <v>2.4544794559478702</v>
+      </c>
+      <c r="E19">
+        <v>24.011743545532202</v>
+      </c>
+      <c r="F19">
+        <v>40.266822814941399</v>
+      </c>
+      <c r="G19">
+        <v>-6.0329732894897399</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:G19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rez.xlsx
+++ b/rez.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aplikacije\parallel-doc-embeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aplikacije_mihailo\stilometrija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5F9452-9CCA-4A96-B627-6152AC242226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BFC6D3-E29B-49C2-8942-D94AA2A7F04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8B4AE92-D4CE-402F-9CE7-E0A30A8665F7}"/>
+    <workbookView xWindow="30000" yWindow="585" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B8B4AE92-D4CE-402F-9CE7-E0A30A8665F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,6 +302,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -445,6 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12FE24E-7961-459E-B918-F49D7B3E236D}">
   <dimension ref="A2:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -4722,8 +4726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE0FF5-5AD7-4082-85AE-10368F424C96}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="A2:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4750,296 +4754,296 @@
       <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="21">
         <v>0.33096417784690801</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="21">
         <v>-0.14706259965896601</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="21">
         <v>0.33025342226028398</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="21">
         <v>0.48584502935409501</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="21">
         <v>0.48835679888725197</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="21">
         <v>6.4648270606994601E-2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="21">
         <v>0.142275169491767</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="21">
         <v>0.30471986532211298</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="21">
         <v>0.35791182518005299</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="21">
         <v>7.6433934271335602E-2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="21">
         <v>0.21083749830722801</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="21">
         <v>0.354816764593124</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="21">
         <v>0.21914023160934401</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="21">
         <v>0.201383531093597</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="21">
         <v>4.4196620583534199E-2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="21">
         <v>0.53527963161468495</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="21">
         <v>0.68601405620574896</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="21">
         <v>0.378811925649642</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="21">
         <v>6.3486874103546101E-2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="21">
         <v>-0.12831278145313199</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="21">
         <v>0.47564777731895402</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="21">
         <v>7.2288393974304199E-2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="21">
         <v>0.15440456569194699</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="21">
         <v>0.29765921831130898</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="21">
         <v>0.22291065752506201</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="21">
         <v>0.15491573512554099</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="21">
         <v>0.22552852332591999</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="21">
         <v>0.39664506912231401</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="21">
         <v>0.45187640190124501</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="21">
         <v>6.0067467391490902E-2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="21">
         <v>0.14807434380054399</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="21">
         <v>0.33998182415962203</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="21">
         <v>0.47223582863807601</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="21">
         <v>7.3813647031784002E-2</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="21">
         <v>0.132479533553123</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="21">
         <v>0.32147100567817599</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="21">
         <v>0.40692710876464799</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="21">
         <v>2.8915246948599801E-2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="21">
         <v>0.210449233651161</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="21">
         <v>0.353708386421203</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="21">
         <v>0.49805065989494302</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="21">
         <v>8.6657613515853799E-2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="21">
         <v>0.16016976535320199</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="21">
         <v>0.25512203574180597</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="21">
         <v>0.510933697223663</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="21">
         <v>9.7799710929393699E-3</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="21">
         <v>0.17592112720012601</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="21">
         <v>0.30336517095565702</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="21">
         <v>0.418298810720443</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="21">
         <v>-2.3395398631691901E-2</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="21">
         <v>0.182521507143974</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="21">
         <v>0.42257508635520902</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="21">
         <v>0.48616570234298701</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="21">
         <v>7.2063589468598296E-3</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="21">
         <v>0.212303295731544</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="21">
         <v>0.29432466626167297</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="21">
         <v>0.50698661804199197</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="21">
         <v>9.5435403287410694E-2</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="21">
         <v>0.161182790994644</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="21">
         <v>0.23639528453350001</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="21">
         <v>0.38082167506217901</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="21">
         <v>-0.16948443651199299</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="21">
         <v>0.33856853842735202</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="21">
         <v>0.49010974168777399</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="21">
         <v>-4.0015581995248697E-2</v>
       </c>
     </row>
@@ -5047,19 +5051,19 @@
       <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="21">
         <v>0.55756890773773105</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="21">
         <v>2.1341564133763299E-2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="21">
         <v>7.5580999255180303E-2</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="21">
         <v>0.37339344620704601</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="21">
         <v>-2.78849638998508E-2</v>
       </c>
     </row>
@@ -5067,19 +5071,19 @@
       <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="21">
         <v>0.37253415584564198</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="21">
         <v>0.100581191480159</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="21">
         <v>0.24516396224498699</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="21">
         <v>0.33811503648757901</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="21">
         <v>-5.6394416838884298E-2</v>
       </c>
     </row>
@@ -5087,19 +5091,19 @@
       <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="21">
         <v>0.24280384182929901</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="21">
         <v>0.24130468070507</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="21">
         <v>8.6171969771385096E-2</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="21">
         <v>0.50803250074386597</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="21">
         <v>-7.8312963247299194E-2</v>
       </c>
     </row>
@@ -5107,19 +5111,19 @@
       <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="21">
         <v>0.77561604976653997</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="21">
         <v>0.31022426486015298</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="21">
         <v>7.8258380293846103E-2</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="21">
         <v>-0.11759345978498401</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="21">
         <v>-4.6505283564329099E-2</v>
       </c>
     </row>
@@ -5127,19 +5131,19 @@
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="21">
         <v>0.510930776596069</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="21">
         <v>6.7823916673660195E-2</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="21">
         <v>0.15106230974197299</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="21">
         <v>0.31931725144386203</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="21">
         <v>-4.9134299159049898E-2</v>
       </c>
     </row>
@@ -5147,19 +5151,19 @@
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="21">
         <v>0.208050176501274</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="21">
         <v>0.148760005831718</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="21">
         <v>0.225307211279869</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="21">
         <v>0.465918868780136</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="21">
         <v>-4.8036303371190997E-2</v>
       </c>
     </row>
@@ -5167,19 +5171,19 @@
       <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="21">
         <v>0.450052440166473</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="21">
         <v>5.4560143500566399E-2</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="21">
         <v>0.15451422333717299</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="21">
         <v>0.38370195031165999</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="21">
         <v>-4.2828794568777001E-2</v>
       </c>
     </row>
@@ -5187,19 +5191,19 @@
       <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="21">
         <v>0.53049874305725098</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="21">
         <v>0.10632412880659101</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="21">
         <v>0.14079058170318601</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="21">
         <v>0.26987919211387601</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="21">
         <v>-4.7492649406194597E-2</v>
       </c>
     </row>
@@ -5207,19 +5211,19 @@
       <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="21">
         <v>0.53208369016647294</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="21">
         <v>6.77628293633461E-2</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="21">
         <v>0.17601262032985601</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="21">
         <v>0.27186089754104598</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="21">
         <v>-4.7719944268465E-2</v>
       </c>
     </row>
@@ -5227,19 +5231,19 @@
       <c r="A28" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="21">
         <v>0.501894772052764</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="21">
         <v>7.8864619135856601E-2</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="21">
         <v>0.137695893645286</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="21">
         <v>0.32147237658500599</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="21">
         <v>-3.9927661418914698E-2</v>
       </c>
     </row>
@@ -5247,19 +5251,19 @@
       <c r="A29" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="21">
         <v>0.49523907899856501</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="21">
         <v>2.8192691504955202E-2</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="21">
         <v>0.17762903869152</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="21">
         <v>0.33967560529708801</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="21">
         <v>-4.07363325357437E-2</v>
       </c>
     </row>
@@ -5267,19 +5271,19 @@
       <c r="A30" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="21">
         <v>0.37875390052795399</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="21">
         <v>-1.9485631957650101E-2</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="21">
         <v>0.21721754968166301</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="21">
         <v>0.466601401567459</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="21">
         <v>-4.3087188154459E-2</v>
       </c>
     </row>
@@ -5287,19 +5291,19 @@
       <c r="A31" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="21">
         <v>0.40448048710822998</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="21">
         <v>4.5755825936794198E-2</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="21">
         <v>0.19895642995834301</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="21">
         <v>0.39209657907485901</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="21">
         <v>-4.1289363056421197E-2</v>
       </c>
     </row>
@@ -5307,19 +5311,19 @@
       <c r="A32" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="21">
         <v>0.51608401536941495</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="21">
         <v>5.1866505295038202E-2</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="21">
         <v>0.15028204023837999</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="21">
         <v>0.32554730772972101</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="21">
         <v>-4.3779883533716202E-2</v>
       </c>
     </row>
@@ -5381,5 +5385,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rez.xlsx
+++ b/rez.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aplikacije_mihailo\stilometrija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B503C2C6-C332-44C1-B302-ADCC94E9F9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B891D3-2BFE-45F2-96C2-581AFED53814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B8B4AE92-D4CE-402F-9CE7-E0A30A8665F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8B4AE92-D4CE-402F-9CE7-E0A30A8665F7}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="heatmaps" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="100">
   <si>
     <t>deu&gt;&gt;</t>
   </si>
@@ -334,6 +333,9 @@
   </si>
   <si>
     <t>Improvements over baseline</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -714,6 +716,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -723,6 +730,1262 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4766062158223766E-2"/>
+          <c:y val="5.4410080183276061E-2"/>
+          <c:w val="0.90523393784177619"/>
+          <c:h val="0.75426684802889377"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$T$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="31000">
+                  <a:srgbClr val="CCDFA7"/>
+                </a:gs>
+                <a:gs pos="76000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.0418244879246201E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-FDC5-4513-80B6-F5AF396402BA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="0" rIns="38100" bIns="182880" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$L$9:$L$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$L$9,results!$L$15,results!$L$17,results!$L$19,results!$L$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>product</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>l2-norm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>weights_transfer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>weights_universal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$T$9:$T$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$T$9,results!$T$15,results!$T$17,results!$T$19,results!$T$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.4785714285714285E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6771428571428589E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6371428571428562E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1114285714285722E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3771428571428548E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDC5-4513-80B6-F5AF396402BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="17"/>
+        <c:axId val="739476976"/>
+        <c:axId val="739473232"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$L$9:$L$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$L$9,results!$L$15,results!$L$17,results!$L$19,results!$L$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>product</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>l2-norm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>weights_transfer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>weights_universal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$M$9:$M$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$M$9,results!$M$15,results!$M$17,results!$M$19,results!$M$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.1999999999999815E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3799999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8800000000000019E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7199999999999973E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDC5-4513-80B6-F5AF396402BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$L$9:$L$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$L$9,results!$L$15,results!$L$17,results!$L$19,results!$L$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>product</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>l2-norm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>weights_transfer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>weights_universal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$N$9:$N$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$N$9,results!$N$15,results!$N$17,results!$N$19,results!$N$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.6300000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.84E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7000000000000071E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6999999999999846E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FDC5-4513-80B6-F5AF396402BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$L$9:$L$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$L$9,results!$L$15,results!$L$17,results!$L$19,results!$L$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>product</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>l2-norm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>weights_transfer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>weights_universal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$O$9:$O$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$O$9,results!$O$15,results!$O$17,results!$O$19,results!$O$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.2999999999999963E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.839999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5499999999999974E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9999999999999969E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FDC5-4513-80B6-F5AF396402BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$P$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$L$9:$L$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$L$9,results!$L$15,results!$L$17,results!$L$19,results!$L$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>product</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>l2-norm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>weights_transfer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>weights_universal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$P$9:$P$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$P$9,results!$P$15,results!$P$17,results!$P$19,results!$P$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12140000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7200000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11929999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FDC5-4513-80B6-F5AF396402BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>por</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$L$9:$L$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$L$9,results!$L$15,results!$L$17,results!$L$19,results!$L$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>product</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>l2-norm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>weights_transfer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>weights_universal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$Q$9:$Q$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$Q$9,results!$Q$15,results!$Q$17,results!$Q$19,results!$Q$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.4999999999999967E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0699999999999967E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6699999999999982E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2399999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3999999999999639E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FDC5-4513-80B6-F5AF396402BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$L$9:$L$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$L$9,results!$L$15,results!$L$17,results!$L$19,results!$L$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>product</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>l2-norm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>weights_transfer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>weights_universal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$R$9:$R$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$R$9,results!$R$15,results!$R$17,results!$R$19,results!$R$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2100000000000026E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4800000000000062E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2100000000000026E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7700000000000067E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6399999999999988E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FDC5-4513-80B6-F5AF396402BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>srp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$L$9:$L$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$L$9,results!$L$15,results!$L$17,results!$L$19,results!$L$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>product</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>l2-norm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>weights_transfer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>weights_universal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$S$9:$S$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$S$9,results!$S$15,results!$S$17,results!$S$19,results!$S$21)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11890000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11310000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12640000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FDC5-4513-80B6-F5AF396402BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="739476976"/>
+        <c:axId val="739473232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="739476976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="739473232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="739473232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="-3.0000000000000006E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="739476976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9209811162985153E-2"/>
+          <c:y val="0.85381917630825899"/>
+          <c:w val="0.89424198081434503"/>
+          <c:h val="8.9966961153885333E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE0010A-C111-4C97-9FAC-A591D0E50BEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1022,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12FE24E-7961-459E-B918-F49D7B3E236D}">
-  <dimension ref="A2:AB164"/>
+  <dimension ref="A2:AE164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,18 +2298,18 @@
     <col min="6" max="6" width="9.140625" style="78"/>
     <col min="10" max="11" width="7.5703125" customWidth="1"/>
     <col min="12" max="12" width="23.85546875" style="20" customWidth="1"/>
-    <col min="13" max="20" width="7.5703125" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="28" width="4" customWidth="1"/>
+    <col min="13" max="21" width="7.5703125" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" customWidth="1"/>
+    <col min="23" max="30" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +2329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +2351,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1110,7 +2373,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1132,7 +2395,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +2417,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1202,8 +2465,18 @@
       <c r="S8" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -1230,7 +2503,7 @@
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="17" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="M9" s="8">
         <f>J9</f>
@@ -1260,19 +2533,25 @@
         <f>J141</f>
         <v>0.11830000000000002</v>
       </c>
-      <c r="T9" s="97" t="s">
+      <c r="T9" s="8">
+        <f>AVERAGE(M9:S9)</f>
+        <v>5.4785714285714285E-2</v>
+      </c>
+      <c r="U9" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="U9" s="56"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V9" s="56"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +2584,7 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="17" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" ref="M10:M14" si="0">J10</f>
@@ -1335,17 +2614,23 @@
         <f t="shared" ref="S10:S14" si="6">J142</f>
         <v>0.12040000000000001</v>
       </c>
-      <c r="T10" s="97"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T10" s="8">
+        <f t="shared" ref="T10:T22" si="7">AVERAGE(M10:S10)</f>
+        <v>5.6685714285714291E-2</v>
+      </c>
+      <c r="U10" s="97"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1402,17 +2687,23 @@
         <f t="shared" si="6"/>
         <v>4.7600000000000031E-2</v>
       </c>
-      <c r="T11" s="97"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T11" s="8">
+        <f t="shared" si="7"/>
+        <v>6.8428571428571462E-3</v>
+      </c>
+      <c r="U11" s="97"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1475,17 +2766,23 @@
         <f t="shared" si="6"/>
         <v>4.7600000000000031E-2</v>
       </c>
-      <c r="T12" s="97"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T12" s="8">
+        <f t="shared" si="7"/>
+        <v>6.8428571428571462E-3</v>
+      </c>
+      <c r="U12" s="97"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1542,17 +2839,23 @@
         <f t="shared" si="6"/>
         <v>-3.1200000000000006E-2</v>
       </c>
-      <c r="T13" s="97"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T13" s="8">
+        <f t="shared" si="7"/>
+        <v>-0.12765714285714286</v>
+      </c>
+      <c r="U13" s="97"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1612,17 +2915,21 @@
         <f t="shared" si="6"/>
         <v>-0.17589999999999997</v>
       </c>
-      <c r="T14" s="97"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="16"/>
+      <c r="T14" s="8">
+        <f t="shared" si="7"/>
+        <v>-0.21044285714285715</v>
+      </c>
+      <c r="U14" s="97"/>
+      <c r="V14" s="17"/>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14" s="16"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
@@ -1649,47 +2956,51 @@
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="17" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="M15" s="7">
-        <f>J15</f>
+        <f t="shared" ref="M15:M22" si="8">J15</f>
         <v>-4.1999999999999815E-3</v>
       </c>
       <c r="N15" s="8">
-        <f>J37</f>
+        <f t="shared" ref="N15:N22" si="9">J37</f>
         <v>-1.84E-2</v>
       </c>
       <c r="O15" s="8">
-        <f>J59</f>
+        <f t="shared" ref="O15:O22" si="10">J59</f>
         <v>7.839999999999997E-2</v>
       </c>
       <c r="P15" s="8">
-        <f>J81</f>
+        <f t="shared" ref="P15:P22" si="11">J81</f>
         <v>5.7200000000000029E-2</v>
       </c>
       <c r="Q15" s="8">
-        <f>J103</f>
+        <f t="shared" ref="Q15:Q22" si="12">J103</f>
         <v>5.0699999999999967E-2</v>
       </c>
       <c r="R15" s="8">
-        <f>J125</f>
+        <f t="shared" ref="R15:R22" si="13">J125</f>
         <v>4.4800000000000062E-2</v>
       </c>
       <c r="S15" s="8">
-        <f>J147</f>
+        <f t="shared" ref="S15:S22" si="14">J147</f>
         <v>0.11890000000000006</v>
       </c>
-      <c r="T15" s="97"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="16"/>
+      <c r="T15" s="8">
+        <f t="shared" si="7"/>
+        <v>4.6771428571428589E-2</v>
+      </c>
+      <c r="U15" s="97"/>
+      <c r="V15" s="17"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15" s="16"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1722,47 +3033,51 @@
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="17" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
-        <f>J16</f>
+        <f t="shared" si="8"/>
         <v>-2.0600000000000007E-2</v>
       </c>
       <c r="N16" s="8">
-        <f>J38</f>
+        <f t="shared" si="9"/>
         <v>-4.9800000000000011E-2</v>
       </c>
       <c r="O16" s="8">
-        <f>J60</f>
+        <f t="shared" si="10"/>
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="P16" s="8">
-        <f>J82</f>
+        <f t="shared" si="11"/>
         <v>0.10350000000000004</v>
       </c>
       <c r="Q16" s="8">
-        <f>J104</f>
+        <f t="shared" si="12"/>
         <v>-1.040000000000002E-2</v>
       </c>
       <c r="R16" s="8">
-        <f>J126</f>
+        <f t="shared" si="13"/>
         <v>-7.8999999999999626E-3</v>
       </c>
       <c r="S16" s="8">
-        <f>J148</f>
+        <f t="shared" si="14"/>
         <v>2.5299999999999989E-2</v>
       </c>
-      <c r="T16" s="97"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="16"/>
+      <c r="T16" s="8">
+        <f t="shared" si="7"/>
+        <v>6.5857142857142902E-3</v>
+      </c>
+      <c r="U16" s="97"/>
+      <c r="V16" s="17"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" s="16"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1789,47 +3104,51 @@
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="17" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="M17" s="8">
-        <f>J17</f>
+        <f t="shared" si="8"/>
         <v>2.3799999999999988E-2</v>
       </c>
       <c r="N17" s="8">
-        <f>J39</f>
+        <f t="shared" si="9"/>
         <v>1.7000000000000071E-3</v>
       </c>
       <c r="O17" s="8">
-        <f>J61</f>
+        <f t="shared" si="10"/>
         <v>9.5499999999999974E-2</v>
       </c>
       <c r="P17" s="8">
-        <f>J83</f>
+        <f t="shared" si="11"/>
         <v>0.19379999999999997</v>
       </c>
       <c r="Q17" s="8">
-        <f>J105</f>
+        <f t="shared" si="12"/>
         <v>6.6699999999999982E-2</v>
       </c>
       <c r="R17" s="8">
-        <f>J127</f>
+        <f t="shared" si="13"/>
         <v>4.2100000000000026E-2</v>
       </c>
       <c r="S17" s="8">
-        <f>J149</f>
+        <f t="shared" si="14"/>
         <v>0.11100000000000004</v>
       </c>
-      <c r="T17" s="97"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="16"/>
+      <c r="T17" s="8">
+        <f t="shared" si="7"/>
+        <v>7.6371428571428562E-2</v>
+      </c>
+      <c r="U17" s="97"/>
+      <c r="V17" s="17"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC17" s="16"/>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -1865,44 +3184,48 @@
         <v>18</v>
       </c>
       <c r="M18" s="8">
-        <f>J18</f>
+        <f t="shared" si="8"/>
         <v>2.3799999999999988E-2</v>
       </c>
       <c r="N18" s="8">
-        <f>J40</f>
+        <f t="shared" si="9"/>
         <v>1.7000000000000071E-3</v>
       </c>
       <c r="O18" s="8">
-        <f>J62</f>
+        <f t="shared" si="10"/>
         <v>9.5499999999999974E-2</v>
       </c>
       <c r="P18" s="8">
-        <f>J84</f>
+        <f t="shared" si="11"/>
         <v>0.19379999999999997</v>
       </c>
       <c r="Q18" s="8">
-        <f>J106</f>
+        <f t="shared" si="12"/>
         <v>6.6699999999999982E-2</v>
       </c>
       <c r="R18" s="8">
-        <f>J128</f>
+        <f t="shared" si="13"/>
         <v>4.2100000000000026E-2</v>
       </c>
       <c r="S18" s="8">
-        <f>J150</f>
+        <f t="shared" si="14"/>
         <v>0.11100000000000004</v>
       </c>
-      <c r="T18" s="97"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="16"/>
+      <c r="T18" s="8">
+        <f t="shared" si="7"/>
+        <v>7.6371428571428562E-2</v>
+      </c>
+      <c r="U18" s="97"/>
+      <c r="V18" s="17"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
       <c r="AB18" s="16"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" s="16"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1932,44 +3255,48 @@
         <v>93</v>
       </c>
       <c r="M19" s="8">
-        <f>J19</f>
+        <f t="shared" si="8"/>
         <v>5.8800000000000019E-2</v>
       </c>
       <c r="N19" s="8">
-        <f>J41</f>
+        <f t="shared" si="9"/>
         <v>2.0400000000000001E-2</v>
       </c>
       <c r="O19" s="8">
-        <f>J63</f>
+        <f t="shared" si="10"/>
         <v>0.10159999999999997</v>
       </c>
       <c r="P19" s="8">
-        <f>J85</f>
+        <f t="shared" si="11"/>
         <v>0.19379999999999997</v>
       </c>
       <c r="Q19" s="8">
-        <f>J107</f>
+        <f t="shared" si="12"/>
         <v>4.2399999999999993E-2</v>
       </c>
       <c r="R19" s="8">
-        <f>J129</f>
+        <f t="shared" si="13"/>
         <v>3.7700000000000067E-2</v>
       </c>
       <c r="S19" s="8">
-        <f>J151</f>
+        <f t="shared" si="14"/>
         <v>0.11310000000000003</v>
       </c>
-      <c r="T19" s="97"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="16"/>
+      <c r="T19" s="8">
+        <f t="shared" si="7"/>
+        <v>8.1114285714285722E-2</v>
+      </c>
+      <c r="U19" s="97"/>
+      <c r="V19" s="17"/>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
       <c r="AA19" s="16"/>
       <c r="AB19" s="16"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19" s="16"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
@@ -2005,44 +3332,48 @@
         <v>94</v>
       </c>
       <c r="M20" s="8">
-        <f>J20</f>
+        <f t="shared" si="8"/>
         <v>7.0500000000000063E-2</v>
       </c>
       <c r="N20" s="8">
-        <f>J42</f>
+        <f t="shared" si="9"/>
         <v>1.3499999999999984E-2</v>
       </c>
       <c r="O20" s="8">
-        <f>J64</f>
+        <f t="shared" si="10"/>
         <v>7.8299999999999981E-2</v>
       </c>
       <c r="P20" s="8">
-        <f>J86</f>
+        <f t="shared" si="11"/>
         <v>0.19379999999999997</v>
       </c>
       <c r="Q20" s="8">
-        <f>J108</f>
+        <f t="shared" si="12"/>
         <v>2.8200000000000003E-2</v>
       </c>
       <c r="R20" s="8">
-        <f>J130</f>
+        <f t="shared" si="13"/>
         <v>-7.7999999999999736E-3</v>
       </c>
       <c r="S20" s="8">
-        <f>J152</f>
+        <f t="shared" si="14"/>
         <v>8.9800000000000046E-2</v>
       </c>
-      <c r="T20" s="97"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="16"/>
+      <c r="T20" s="8">
+        <f t="shared" si="7"/>
+        <v>6.6614285714285723E-2</v>
+      </c>
+      <c r="U20" s="97"/>
+      <c r="V20" s="17"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20" s="16"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>53</v>
       </c>
@@ -2072,44 +3403,48 @@
         <v>95</v>
       </c>
       <c r="M21" s="8">
-        <f>J21</f>
+        <f t="shared" si="8"/>
         <v>5.7199999999999973E-2</v>
       </c>
       <c r="N21" s="8">
-        <f>J43</f>
+        <f t="shared" si="9"/>
         <v>7.6999999999999846E-3</v>
       </c>
       <c r="O21" s="8">
-        <f>J65</f>
+        <f t="shared" si="10"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="P21" s="8">
-        <f>J87</f>
+        <f t="shared" si="11"/>
         <v>0.11929999999999996</v>
       </c>
       <c r="Q21" s="8">
-        <f>J109</f>
+        <f t="shared" si="12"/>
         <v>9.3999999999999639E-3</v>
       </c>
       <c r="R21" s="8">
-        <f>J131</f>
+        <f t="shared" si="13"/>
         <v>3.6399999999999988E-2</v>
       </c>
       <c r="S21" s="8">
-        <f>J153</f>
+        <f t="shared" si="14"/>
         <v>0.12640000000000001</v>
       </c>
-      <c r="T21" s="97"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="16"/>
+      <c r="T21" s="8">
+        <f t="shared" si="7"/>
+        <v>6.3771428571428548E-2</v>
+      </c>
+      <c r="U21" s="97"/>
+      <c r="V21" s="17"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC21" s="16"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>54</v>
       </c>
@@ -2145,44 +3480,48 @@
         <v>96</v>
       </c>
       <c r="M22" s="8">
-        <f>J22</f>
+        <f t="shared" si="8"/>
         <v>7.5600000000000056E-2</v>
       </c>
       <c r="N22" s="8">
-        <f>J44</f>
+        <f t="shared" si="9"/>
         <v>1.8999999999999989E-2</v>
       </c>
       <c r="O22" s="8">
-        <f>J66</f>
+        <f t="shared" si="10"/>
         <v>7.7199999999999991E-2</v>
       </c>
       <c r="P22" s="8">
-        <f>J88</f>
+        <f t="shared" si="11"/>
         <v>6.0699999999999976E-2</v>
       </c>
       <c r="Q22" s="8">
-        <f>J110</f>
+        <f t="shared" si="12"/>
         <v>-5.2000000000000379E-3</v>
       </c>
       <c r="R22" s="8">
-        <f>J132</f>
+        <f t="shared" si="13"/>
         <v>4.9600000000000088E-2</v>
       </c>
       <c r="S22" s="8">
-        <f>J154</f>
+        <f t="shared" si="14"/>
         <v>0.11249999999999999</v>
       </c>
-      <c r="T22" s="97"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="16"/>
+      <c r="T22" s="8">
+        <f t="shared" si="7"/>
+        <v>5.562857142857143E-2</v>
+      </c>
+      <c r="U22" s="97"/>
+      <c r="V22" s="17"/>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
       <c r="AA22" s="16"/>
       <c r="AB22" s="16"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" s="16"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="F23" s="15"/>
       <c r="G23" s="5">
         <f>SUM(G10:G22)</f>
@@ -2193,7 +3532,7 @@
         <v>2.2399999999999975E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2201,7 +3540,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2243,8 +3582,11 @@
       <c r="S25" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T25" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -2269,7 +3611,7 @@
         <v>7</v>
       </c>
       <c r="M26" s="57">
-        <f>E4</f>
+        <f t="shared" ref="M26:M44" si="15">E4</f>
         <v>0.25819999999999999</v>
       </c>
       <c r="N26" s="58">
@@ -2296,11 +3638,15 @@
         <f>E136</f>
         <v>0.24410000000000001</v>
       </c>
-      <c r="T26" s="96" t="s">
+      <c r="T26" s="8">
+        <f>AVERAGE(M26:S26)</f>
+        <v>0.20721428571428571</v>
+      </c>
+      <c r="U26" s="96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -2325,36 +3671,40 @@
         <v>21</v>
       </c>
       <c r="M27" s="60">
-        <f>E5</f>
+        <f t="shared" si="15"/>
         <v>0.42830000000000001</v>
       </c>
       <c r="N27" s="66">
-        <f t="shared" ref="N27:N36" si="7">E27</f>
+        <f t="shared" ref="N27:N36" si="16">E27</f>
         <v>0.2215</v>
       </c>
       <c r="O27" s="66">
-        <f t="shared" ref="O27:O36" si="8">E49</f>
+        <f t="shared" ref="O27:O36" si="17">E49</f>
         <v>0.29270000000000002</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ref="P27:P36" si="9">E71</f>
+        <f t="shared" ref="P27:P36" si="18">E71</f>
         <v>0.64229999999999998</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" ref="Q27:Q36" si="10">E93</f>
+        <f t="shared" ref="Q27:Q36" si="19">E93</f>
         <v>0.2112</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" ref="R27:R36" si="11">E115</f>
+        <f t="shared" ref="R27:R36" si="20">E115</f>
         <v>0.42209999999999998</v>
       </c>
       <c r="S27" s="67">
-        <f t="shared" ref="S27:S36" si="12">E137</f>
+        <f t="shared" ref="S27:S36" si="21">E137</f>
         <v>0.42</v>
       </c>
-      <c r="T27" s="96"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T27" s="8">
+        <f t="shared" ref="T27:T44" si="22">AVERAGE(M27:S27)</f>
+        <v>0.37687142857142858</v>
+      </c>
+      <c r="U27" s="96"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -2379,36 +3729,40 @@
         <v>16</v>
       </c>
       <c r="M28" s="60">
-        <f>E6</f>
+        <f t="shared" si="15"/>
         <v>0.3468</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.13300000000000001</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.221</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.29049999999999998</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.1709</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.42259999999999998</v>
       </c>
       <c r="S28" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3765</v>
       </c>
-      <c r="T28" s="96"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T28" s="8">
+        <f t="shared" si="22"/>
+        <v>0.28018571428571432</v>
+      </c>
+      <c r="U28" s="96"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -2433,36 +3787,40 @@
         <v>8</v>
       </c>
       <c r="M29" s="65">
-        <f>E7</f>
+        <f t="shared" si="15"/>
         <v>0.48149999999999998</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.217</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.28420000000000001</v>
       </c>
       <c r="P29" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.72189999999999999</v>
       </c>
       <c r="Q29" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.28260000000000002</v>
       </c>
       <c r="R29" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.50339999999999996</v>
       </c>
       <c r="S29" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.38240000000000002</v>
       </c>
-      <c r="T29" s="96"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T29" s="8">
+        <f t="shared" si="22"/>
+        <v>0.41042857142857148</v>
+      </c>
+      <c r="U29" s="96"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
@@ -2492,36 +3850,40 @@
         <v>9</v>
       </c>
       <c r="M30" s="62">
-        <f>E8</f>
+        <f t="shared" si="15"/>
         <v>0.2979</v>
       </c>
       <c r="N30" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.13289999999999999</v>
       </c>
       <c r="O30" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.25390000000000001</v>
       </c>
       <c r="P30" s="63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.4289</v>
       </c>
       <c r="Q30" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.20830000000000001</v>
       </c>
       <c r="R30" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.48659999999999998</v>
       </c>
       <c r="S30" s="64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.36759999999999998</v>
       </c>
-      <c r="T30" s="96"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T30" s="8">
+        <f t="shared" si="22"/>
+        <v>0.31087142857142858</v>
+      </c>
+      <c r="U30" s="96"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2551,36 +3913,40 @@
         <v>5</v>
       </c>
       <c r="M31" s="57">
-        <f>E9</f>
+        <f t="shared" si="15"/>
         <v>0.49149999999999999</v>
       </c>
       <c r="N31" s="58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.20519999999999999</v>
       </c>
       <c r="O31" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.37569999999999998</v>
       </c>
       <c r="P31" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.84330000000000005</v>
       </c>
       <c r="Q31" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.30759999999999998</v>
       </c>
       <c r="R31" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.54549999999999998</v>
       </c>
       <c r="S31" s="59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.5383</v>
       </c>
-      <c r="T31" s="96"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T31" s="8">
+        <f t="shared" si="22"/>
+        <v>0.47244285714285716</v>
+      </c>
+      <c r="U31" s="96"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -2616,36 +3982,40 @@
         <v>6</v>
       </c>
       <c r="M32" s="60">
-        <f>E10</f>
+        <f t="shared" si="15"/>
         <v>0.49149999999999999</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.21659999999999999</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.3755</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.84330000000000005</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.30759999999999998</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.54549999999999998</v>
       </c>
       <c r="S32" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.54039999999999999</v>
       </c>
-      <c r="T32" s="96"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T32" s="8">
+        <f t="shared" si="22"/>
+        <v>0.47434285714285712</v>
+      </c>
+      <c r="U32" s="96"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -2675,36 +4045,40 @@
         <v>10</v>
       </c>
       <c r="M33" s="60">
-        <f>E11</f>
+        <f t="shared" si="15"/>
         <v>0.46229999999999999</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.20469999999999999</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.29380000000000001</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.78339999999999999</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.27779999999999999</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.4819</v>
       </c>
       <c r="S33" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.46760000000000002</v>
       </c>
-      <c r="T33" s="96"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T33" s="8">
+        <f t="shared" si="22"/>
+        <v>0.42450000000000004</v>
+      </c>
+      <c r="U33" s="96"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -2740,36 +4114,40 @@
         <v>11</v>
       </c>
       <c r="M34" s="60">
-        <f>E12</f>
+        <f t="shared" si="15"/>
         <v>0.46229999999999999</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.20469999999999999</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.29380000000000001</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.78339999999999999</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.27779999999999999</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.4819</v>
       </c>
       <c r="S34" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.46760000000000002</v>
       </c>
-      <c r="T34" s="96"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T34" s="8">
+        <f t="shared" si="22"/>
+        <v>0.42450000000000004</v>
+      </c>
+      <c r="U34" s="96"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -2799,36 +4177,40 @@
         <v>12</v>
       </c>
       <c r="M35" s="60">
-        <f>E13</f>
+        <f t="shared" si="15"/>
         <v>0.37140000000000001</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.13289999999999999</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.2422</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.28599999999999998</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.1724</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.43630000000000002</v>
       </c>
       <c r="S35" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.38879999999999998</v>
       </c>
-      <c r="T35" s="96"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T35" s="8">
+        <f t="shared" si="22"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U35" s="96"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -2861,36 +4243,40 @@
         <v>13</v>
       </c>
       <c r="M36" s="60">
-        <f>E14</f>
+        <f t="shared" si="15"/>
         <v>0.25819999999999999</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.1134</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.13900000000000001</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.29870000000000002</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.1152</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.28189999999999998</v>
       </c>
       <c r="S36" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.24410000000000001</v>
       </c>
-      <c r="T36" s="96"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T36" s="8">
+        <f t="shared" si="22"/>
+        <v>0.20721428571428571</v>
+      </c>
+      <c r="U36" s="96"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -2920,36 +4306,40 @@
         <v>14</v>
       </c>
       <c r="M37" s="60">
-        <f>E15</f>
+        <f t="shared" si="15"/>
         <v>0.4773</v>
       </c>
       <c r="N37" s="6">
-        <f>E37</f>
+        <f t="shared" ref="N37:N44" si="23">E37</f>
         <v>0.2031</v>
       </c>
       <c r="O37" s="6">
-        <f>E59</f>
+        <f t="shared" ref="O37:O44" si="24">E59</f>
         <v>0.37109999999999999</v>
       </c>
       <c r="P37" s="6">
-        <f>E81</f>
+        <f t="shared" ref="P37:P44" si="25">E81</f>
         <v>0.77910000000000001</v>
       </c>
       <c r="Q37" s="6">
-        <f>E103</f>
+        <f t="shared" ref="Q37:Q44" si="26">E103</f>
         <v>0.33329999999999999</v>
       </c>
       <c r="R37" s="66">
-        <f>E125</f>
+        <f t="shared" ref="R37:R44" si="27">E125</f>
         <v>0.54820000000000002</v>
       </c>
       <c r="S37" s="61">
-        <f>E147</f>
+        <f t="shared" ref="S37:S44" si="28">E147</f>
         <v>0.53890000000000005</v>
       </c>
-      <c r="T37" s="96"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T37" s="8">
+        <f t="shared" si="22"/>
+        <v>0.46442857142857141</v>
+      </c>
+      <c r="U37" s="96"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -2985,36 +4375,40 @@
         <v>15</v>
       </c>
       <c r="M38" s="60">
-        <f>E16</f>
+        <f t="shared" si="15"/>
         <v>0.46089999999999998</v>
       </c>
       <c r="N38" s="6">
-        <f>E38</f>
+        <f t="shared" si="23"/>
         <v>0.17169999999999999</v>
       </c>
       <c r="O38" s="6">
-        <f>E60</f>
+        <f t="shared" si="24"/>
         <v>0.29870000000000002</v>
       </c>
       <c r="P38" s="6">
-        <f>E82</f>
+        <f t="shared" si="25"/>
         <v>0.82540000000000002</v>
       </c>
       <c r="Q38" s="6">
-        <f>E104</f>
+        <f t="shared" si="26"/>
         <v>0.2722</v>
       </c>
       <c r="R38" s="6">
-        <f>E126</f>
+        <f t="shared" si="27"/>
         <v>0.4955</v>
       </c>
       <c r="S38" s="61">
-        <f>E148</f>
+        <f t="shared" si="28"/>
         <v>0.44529999999999997</v>
       </c>
-      <c r="T38" s="96"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T38" s="8">
+        <f t="shared" si="22"/>
+        <v>0.42424285714285714</v>
+      </c>
+      <c r="U38" s="96"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>17</v>
       </c>
@@ -3044,36 +4438,40 @@
         <v>17</v>
       </c>
       <c r="M39" s="60">
-        <f>E17</f>
+        <f t="shared" si="15"/>
         <v>0.50529999999999997</v>
       </c>
       <c r="N39" s="6">
-        <f>E39</f>
+        <f t="shared" si="23"/>
         <v>0.22320000000000001</v>
       </c>
       <c r="O39" s="6">
-        <f>E61</f>
+        <f t="shared" si="24"/>
         <v>0.38819999999999999</v>
       </c>
       <c r="P39" s="66">
-        <f>E83</f>
+        <f t="shared" si="25"/>
         <v>0.91569999999999996</v>
       </c>
       <c r="Q39" s="66">
-        <f>E105</f>
+        <f t="shared" si="26"/>
         <v>0.3493</v>
       </c>
       <c r="R39" s="6">
-        <f>E127</f>
+        <f t="shared" si="27"/>
         <v>0.54549999999999998</v>
       </c>
       <c r="S39" s="61">
-        <f>E149</f>
+        <f t="shared" si="28"/>
         <v>0.53100000000000003</v>
       </c>
-      <c r="T39" s="96"/>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T39" s="8">
+        <f t="shared" si="22"/>
+        <v>0.49402857142857143</v>
+      </c>
+      <c r="U39" s="96"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>18</v>
       </c>
@@ -3109,36 +4507,40 @@
         <v>18</v>
       </c>
       <c r="M40" s="62">
-        <f>E18</f>
+        <f t="shared" si="15"/>
         <v>0.50529999999999997</v>
       </c>
       <c r="N40" s="63">
-        <f>E40</f>
+        <f t="shared" si="23"/>
         <v>0.22320000000000001</v>
       </c>
       <c r="O40" s="63">
-        <f>E62</f>
+        <f t="shared" si="24"/>
         <v>0.38819999999999999</v>
       </c>
       <c r="P40" s="70">
-        <f>E84</f>
+        <f t="shared" si="25"/>
         <v>0.91569999999999996</v>
       </c>
       <c r="Q40" s="70">
-        <f>E106</f>
+        <f t="shared" si="26"/>
         <v>0.3493</v>
       </c>
       <c r="R40" s="63">
-        <f>E128</f>
+        <f t="shared" si="27"/>
         <v>0.54549999999999998</v>
       </c>
       <c r="S40" s="64">
-        <f>E150</f>
+        <f t="shared" si="28"/>
         <v>0.53100000000000003</v>
       </c>
-      <c r="T40" s="96"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T40" s="8">
+        <f t="shared" si="22"/>
+        <v>0.49402857142857143</v>
+      </c>
+      <c r="U40" s="96"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>29</v>
       </c>
@@ -3168,36 +4570,40 @@
         <v>93</v>
       </c>
       <c r="M41" s="57">
-        <f>E19</f>
+        <f t="shared" si="15"/>
         <v>0.5403</v>
       </c>
       <c r="N41" s="69">
-        <f>E41</f>
+        <f t="shared" si="23"/>
         <v>0.2419</v>
       </c>
       <c r="O41" s="69">
-        <f>E63</f>
+        <f t="shared" si="24"/>
         <v>0.39429999999999998</v>
       </c>
       <c r="P41" s="69">
-        <f>E85</f>
+        <f t="shared" si="25"/>
         <v>0.91569999999999996</v>
       </c>
       <c r="Q41" s="58">
-        <f>E107</f>
+        <f t="shared" si="26"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="R41" s="58">
-        <f>E129</f>
+        <f t="shared" si="27"/>
         <v>0.54110000000000003</v>
       </c>
       <c r="S41" s="59">
-        <f>E151</f>
+        <f t="shared" si="28"/>
         <v>0.53310000000000002</v>
       </c>
-      <c r="T41" s="96"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T41" s="8">
+        <f t="shared" si="22"/>
+        <v>0.49877142857142864</v>
+      </c>
+      <c r="U41" s="96"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
@@ -3233,36 +4639,40 @@
         <v>94</v>
       </c>
       <c r="M42" s="60">
-        <f>E20</f>
+        <f t="shared" si="15"/>
         <v>0.55200000000000005</v>
       </c>
       <c r="N42" s="6">
-        <f>E42</f>
+        <f t="shared" si="23"/>
         <v>0.23499999999999999</v>
       </c>
       <c r="O42" s="6">
-        <f>E64</f>
+        <f t="shared" si="24"/>
         <v>0.371</v>
       </c>
       <c r="P42" s="66">
-        <f>E86</f>
+        <f t="shared" si="25"/>
         <v>0.91569999999999996</v>
       </c>
       <c r="Q42" s="6">
-        <f>E108</f>
+        <f t="shared" si="26"/>
         <v>0.31080000000000002</v>
       </c>
       <c r="R42" s="6">
-        <f>E130</f>
+        <f t="shared" si="27"/>
         <v>0.49559999999999998</v>
       </c>
       <c r="S42" s="61">
-        <f>E152</f>
+        <f t="shared" si="28"/>
         <v>0.50980000000000003</v>
       </c>
-      <c r="T42" s="96"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T42" s="8">
+        <f t="shared" si="22"/>
+        <v>0.48427142857142857</v>
+      </c>
+      <c r="U42" s="96"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>55</v>
       </c>
@@ -3292,36 +4702,40 @@
         <v>95</v>
       </c>
       <c r="M43" s="60">
-        <f>E21</f>
+        <f t="shared" si="15"/>
         <v>0.53869999999999996</v>
       </c>
       <c r="N43" s="6">
-        <f>E43</f>
+        <f t="shared" si="23"/>
         <v>0.22919999999999999</v>
       </c>
       <c r="O43" s="6">
-        <f>E65</f>
+        <f t="shared" si="24"/>
         <v>0.38269999999999998</v>
       </c>
       <c r="P43" s="6">
-        <f>E87</f>
+        <f t="shared" si="25"/>
         <v>0.84119999999999995</v>
       </c>
       <c r="Q43" s="6">
-        <f>E109</f>
+        <f t="shared" si="26"/>
         <v>0.29199999999999998</v>
       </c>
       <c r="R43" s="6">
-        <f>E131</f>
+        <f t="shared" si="27"/>
         <v>0.53979999999999995</v>
       </c>
       <c r="S43" s="67">
-        <f>E153</f>
+        <f t="shared" si="28"/>
         <v>0.5464</v>
       </c>
-      <c r="T43" s="96"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T43" s="8">
+        <f t="shared" si="22"/>
+        <v>0.48142857142857143</v>
+      </c>
+      <c r="U43" s="96"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>56</v>
       </c>
@@ -3357,36 +4771,40 @@
         <v>96</v>
       </c>
       <c r="M44" s="68">
-        <f>E22</f>
+        <f t="shared" si="15"/>
         <v>0.55710000000000004</v>
       </c>
       <c r="N44" s="63">
-        <f>E44</f>
+        <f t="shared" si="23"/>
         <v>0.24049999999999999</v>
       </c>
       <c r="O44" s="63">
-        <f>E66</f>
+        <f t="shared" si="24"/>
         <v>0.36990000000000001</v>
       </c>
       <c r="P44" s="63">
-        <f>E88</f>
+        <f t="shared" si="25"/>
         <v>0.78259999999999996</v>
       </c>
       <c r="Q44" s="63">
-        <f>E110</f>
+        <f t="shared" si="26"/>
         <v>0.27739999999999998</v>
       </c>
       <c r="R44" s="63">
-        <f>E132</f>
+        <f t="shared" si="27"/>
         <v>0.55300000000000005</v>
       </c>
       <c r="S44" s="64">
-        <f>E154</f>
+        <f t="shared" si="28"/>
         <v>0.53249999999999997</v>
       </c>
-      <c r="T44" s="96"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T44" s="8">
+        <f t="shared" si="22"/>
+        <v>0.47328571428571425</v>
+      </c>
+      <c r="U44" s="96"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F45" s="15"/>
       <c r="G45" s="5">
         <f>SUM(G32:G44)</f>
@@ -3397,7 +4815,7 @@
         <v>-1.6000000000000042E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -3405,7 +4823,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -3427,7 +4845,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -6497,11 +7915,11 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="T26:T44"/>
-    <mergeCell ref="T9:T22"/>
+    <mergeCell ref="U26:U44"/>
+    <mergeCell ref="U9:U22"/>
   </mergeCells>
   <conditionalFormatting sqref="D157:D161">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6513,7 +7931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157:E161">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6525,7 +7943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:G47 G68:G70 G112:G116 G134:G139 G156:G162 F1 G90:G93 F157:F162 G23:G24 G11:H11 G13:H13 G15:H15 G17:H17 G19:H19 G21:H21 H23 H157">
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6537,7 +7955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:G47 G68:G70 G112:G116 G134:G139 G156:G162 G164 F1 G90:G93 F157:F164 G23:G24 G11:H11 G13:H13 G15:H15 G17:H17 G19:H19 G21:H21 H23 H157">
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6549,6 +7967,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130:F147">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:F22">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:F44">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -6560,7 +8002,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F22">
+  <conditionalFormatting sqref="E48:F66">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -6572,7 +8014,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:F44">
+  <conditionalFormatting sqref="E70:F88">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -6584,7 +8026,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F66">
+  <conditionalFormatting sqref="E92:F110">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -6596,7 +8038,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:F88">
+  <conditionalFormatting sqref="E114:F132">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -6608,7 +8050,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92:F110">
+  <conditionalFormatting sqref="E136:F154">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -6620,19 +8062,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E114:F132">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136:F154">
+  <conditionalFormatting sqref="G33:H33 G35:H35 G37:H37 G39:H39 G41:H41 G43:H43 G45:H45">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -6645,6 +8075,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33 G35:H35 G37:H37 G39:H39 G41:H41 G43:H43 G45:H45">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55:H55 G57:H57 G59:H59 G61:H61 G63:H63 G65:H65 G67:H67">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -6656,7 +8098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33 G35:H35 G37:H37 G39:H39 G41:H41 G43:H43 G45:H45">
+  <conditionalFormatting sqref="G55:H55 G57:H57 G59:H59 G61:H61 G63:H63 G65:H65 G67:H67">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -6668,7 +8110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55:H55 G57:H57 G59:H59 G61:H61 G63:H63 G65:H65 G67:H67">
+  <conditionalFormatting sqref="G77:H77 G79:H79 G81:H81 G83:H83 G85:H85 G87:H87 G89:H89">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -6680,7 +8122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55:H55 G57:H57 G59:H59 G61:H61 G63:H63 G65:H65 G67:H67">
+  <conditionalFormatting sqref="G77:H77 G79:H79 G81:H81 G83:H83 G85:H85 G87:H87 G89:H89">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -6692,7 +8134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77:H77 G79:H79 G81:H81 G83:H83 G85:H85 G87:H87 G89:H89">
+  <conditionalFormatting sqref="G99:H99 G101:H101 G103:H103 G105:H105 G107:H107 G109:H109 G111:H111">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -6704,7 +8146,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77:H77 G79:H79 G81:H81 G83:H83 G85:H85 G87:H87 G89:H89">
+  <conditionalFormatting sqref="G99:H99 G101:H101 G103:H103 G105:H105 G107:H107 G109:H109 G111:H111">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -6716,7 +8158,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99:H99 G101:H101 G103:H103 G105:H105 G107:H107 G109:H109 G111:H111">
+  <conditionalFormatting sqref="G121:H121 G123:H123 G125:H125 G127:H127 G129:H129 G131:H131 G133:H133">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -6728,7 +8170,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99:H99 G101:H101 G103:H103 G105:H105 G107:H107 G109:H109 G111:H111">
+  <conditionalFormatting sqref="G121:H121 G123:H123 G125:H125 G127:H127 G129:H129 G131:H131 G133:H133">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -6740,7 +8182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G121:H121 G123:H123 G125:H125 G127:H127 G129:H129 G131:H131 G133:H133">
+  <conditionalFormatting sqref="G143:H143 G145:H145 G147:H147 G149:H149 G151:H151 G153:H153 G155:H155">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -6752,7 +8194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G121:H121 G123:H123 G125:H125 G127:H127 G129:H129 G131:H131 G133:H133">
+  <conditionalFormatting sqref="G143:H143 G145:H145 G147:H147 G149:H149 G151:H151 G153:H153 G155:H155">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -6764,19 +8206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G143:H143 G145:H145 G147:H147 G149:H149 G151:H151 G153:H153 G155:H155">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G143:H143 G145:H145 G147:H147 G149:H149 G151:H151 G153:H153 G155:H155">
+  <conditionalFormatting sqref="G1:H1048576">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -6788,20 +8218,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22:S22 S20 S16 O16:P16 O15:S15 S11:S12 O11:P12 O9:T9 N17:S19 N20:Q20 N21:S21 N22:P22 J9:K10 J17:K22 M17:M22 M9:M10 O10:S10">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="R22:S22 S20 S16 O16:P16 O15:S15 S11:S12 O11:P12 N17:S19 N20:Q20 N21:S21 N22:P22 J9:K10 J17:K22 M17:M22 M9:M10 O9:S10 U9">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6810,8 +8228,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R22:S22 S20 O15:S15 S16 O16:P16 O9:P12 Q9:T9 S11:S12 N17:S19 N20:Q20 N21:S21 N22:P22 J9:K10 J17:K22 M17:M22 M9:M10 Q10:S10">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="R22:S22 S20 O15:S15 S16 O16:P16 O9:P12 S11:S12 N17:S19 N20:Q20 N21:S21 N22:P22 J9:K10 J17:K22 M17:M22 M9:M10 Q9:S10 U9">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6820,8 +8238,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q21 R17:S19 R21:R22 S20:S22 S15:S16 O15:R15 O16:P16 O9:T9 S11:S12 O11:P12 J9:K10 J17:K22 M17:P22 M9:M10 O10:S10">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="Q17:Q21 R17:S19 R21:R22 S20:S22 S15:S16 O15:R15 O16:P16 S11:S12 O11:P12 J9:K10 J17:K22 M17:P22 M9:M10 O9:S10 U9">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6830,7 +8248,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V9:V10 V17:Y22 Z17:Z21 AA17:AB19 AA21:AA22 AB20:AB22 AB15:AB16 X15:AA15 X16:Y16 X9:AB10 AB11:AB12 X11:Y12">
+  <conditionalFormatting sqref="W17:Z22 AA17:AA21 AB17:AC19 AB21:AB22 AC20:AC22 AC15:AC16 Y15:AB15 Y16:Z16">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:P12 O15:P22 Q17:Q21 R21:S22 R17:S19 S20 S15:S16 Q15:R15 S11:S12 M17:N22 M9:M10 Q9:S10">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26:M44">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6840,7 +8278,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:P12 O15:P22 Q17:Q21 R21:S22 R17:S19 S20 S15:S16 Q15:R15 Q9:S10 S11:S12 M17:N22 M9:M10">
+  <conditionalFormatting sqref="N26:N44">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6850,7 +8288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26:M44">
+  <conditionalFormatting sqref="O26:O44">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6860,7 +8298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26:N44">
+  <conditionalFormatting sqref="P26:P44">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6870,7 +8308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O44">
+  <conditionalFormatting sqref="Q26:Q44">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6880,7 +8318,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P44">
+  <conditionalFormatting sqref="R26:R44">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6890,7 +8328,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q44">
+  <conditionalFormatting sqref="S26:S44">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6900,7 +8338,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26:R44">
+  <conditionalFormatting sqref="T9:T12 T15:T22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6910,7 +8348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S44">
+  <conditionalFormatting sqref="M9:M10 O9:P12 Q9:T10 S11:T12 O15:T15 O16:P16 S16:T22 Q17:R19 Q20:Q21 R21:R22 M17:P22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6922,6 +8360,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7596,7 +9035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F2FB72-73D1-4CC1-BBAF-7C4577DF1D64}">
   <dimension ref="B1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
@@ -8743,28 +10182,28 @@
       <c r="I30" s="88"/>
       <c r="J30" s="89"/>
       <c r="K30" s="29">
-        <f>D20-K20</f>
+        <f t="shared" ref="K30:M31" si="2">D20-K20</f>
         <v>0.11320000000000002</v>
       </c>
       <c r="L30" s="25">
-        <f>E20-L20</f>
+        <f t="shared" si="2"/>
         <v>1.949999999999999E-2</v>
       </c>
       <c r="M30" s="25">
-        <f>F20-M20</f>
+        <f t="shared" si="2"/>
         <v>0.10319999999999999</v>
       </c>
       <c r="N30" s="88"/>
       <c r="O30" s="25">
-        <f>H20-O20</f>
+        <f t="shared" ref="O30:Q31" si="3">H20-O20</f>
         <v>5.7200000000000001E-2</v>
       </c>
       <c r="P30" s="25">
-        <f>I20-P20</f>
+        <f t="shared" si="3"/>
         <v>0.15440000000000004</v>
       </c>
       <c r="Q30" s="30">
-        <f>J20-Q20</f>
+        <f t="shared" si="3"/>
         <v>0.14469999999999997</v>
       </c>
       <c r="R30" s="83"/>
@@ -8784,28 +10223,28 @@
       <c r="I31" s="88"/>
       <c r="J31" s="89"/>
       <c r="K31" s="29">
-        <f>D21-K21</f>
+        <f t="shared" si="2"/>
         <v>1.6400000000000026E-2</v>
       </c>
       <c r="L31" s="25">
-        <f>E21-L21</f>
+        <f t="shared" si="2"/>
         <v>3.1400000000000011E-2</v>
       </c>
       <c r="M31" s="25">
-        <f>F21-M21</f>
+        <f t="shared" si="2"/>
         <v>7.2399999999999964E-2</v>
       </c>
       <c r="N31" s="88"/>
       <c r="O31" s="25">
-        <f>H21-O21</f>
+        <f t="shared" si="3"/>
         <v>6.1099999999999988E-2</v>
       </c>
       <c r="P31" s="25">
-        <f>I21-P21</f>
+        <f t="shared" si="3"/>
         <v>5.2700000000000025E-2</v>
       </c>
       <c r="Q31" s="30">
-        <f>J21-Q21</f>
+        <f t="shared" si="3"/>
         <v>9.3600000000000072E-2</v>
       </c>
       <c r="R31" s="83"/>
@@ -8835,7 +10274,7 @@
         <v>93</v>
       </c>
       <c r="D33" s="29">
-        <f t="shared" ref="D33:D34" si="2">K23-D23</f>
+        <f t="shared" ref="D33:D34" si="4">K23-D23</f>
         <v>1.1700000000000044E-2</v>
       </c>
       <c r="E33" s="88"/>
@@ -8873,18 +10312,18 @@
         <v>95</v>
       </c>
       <c r="D34" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8400000000000083E-2</v>
       </c>
       <c r="E34" s="27">
-        <f t="shared" ref="E34" si="3">L24-E24</f>
+        <f t="shared" ref="E34" si="5">L24-E24</f>
         <v>1.1300000000000004E-2</v>
       </c>
       <c r="F34" s="90"/>
       <c r="G34" s="90"/>
       <c r="H34" s="90"/>
       <c r="I34" s="27">
-        <f t="shared" ref="I34" si="4">P24-I24</f>
+        <f t="shared" ref="I34" si="6">P24-I24</f>
         <v>1.3200000000000101E-2</v>
       </c>
       <c r="J34" s="91"/>

--- a/rez.xlsx
+++ b/rez.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aplikacije_mihailo\stilometrija\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aplikacije\parallel-doc-embeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B503C2C6-C332-44C1-B302-ADCC94E9F9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E20659B-8CC7-4AA7-A3B9-341BDBDC38E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B8B4AE92-D4CE-402F-9CE7-E0A30A8665F7}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{B8B4AE92-D4CE-402F-9CE7-E0A30A8665F7}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="heatmaps" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="102">
   <si>
     <t>deu&gt;&gt;</t>
   </si>
@@ -335,6 +334,15 @@
   <si>
     <t>Improvements over baseline</t>
   </si>
+  <si>
+    <t>better with mBERT</t>
+  </si>
+  <si>
+    <t>better without mBERT</t>
+  </si>
+  <si>
+    <t>improvement over baseline</t>
+  </si>
 </sst>
 </file>
 
@@ -345,7 +353,7 @@
     <numFmt numFmtId="165" formatCode=";;;"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +379,13 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -403,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -571,11 +586,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -687,16 +717,11 @@
     <xf numFmtId="165" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -708,6 +733,45 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,7 +1089,7 @@
   <dimension ref="A2:AB164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1324,7 @@
         <f>J141</f>
         <v>0.11830000000000002</v>
       </c>
-      <c r="T9" s="97" t="s">
+      <c r="T9" s="94" t="s">
         <v>98</v>
       </c>
       <c r="U9" s="56"/>
@@ -1335,7 +1399,7 @@
         <f t="shared" ref="S10:S14" si="6">J142</f>
         <v>0.12040000000000001</v>
       </c>
-      <c r="T10" s="97"/>
+      <c r="T10" s="94"/>
       <c r="U10" s="17"/>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
@@ -1402,7 +1466,7 @@
         <f t="shared" si="6"/>
         <v>4.7600000000000031E-2</v>
       </c>
-      <c r="T11" s="97"/>
+      <c r="T11" s="94"/>
       <c r="U11" s="17"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
@@ -1475,7 +1539,7 @@
         <f t="shared" si="6"/>
         <v>4.7600000000000031E-2</v>
       </c>
-      <c r="T12" s="97"/>
+      <c r="T12" s="94"/>
       <c r="U12" s="17"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
@@ -1542,7 +1606,7 @@
         <f t="shared" si="6"/>
         <v>-3.1200000000000006E-2</v>
       </c>
-      <c r="T13" s="97"/>
+      <c r="T13" s="94"/>
       <c r="U13" s="17"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
@@ -1612,7 +1676,7 @@
         <f t="shared" si="6"/>
         <v>-0.17589999999999997</v>
       </c>
-      <c r="T14" s="97"/>
+      <c r="T14" s="94"/>
       <c r="U14" s="17"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
@@ -1652,34 +1716,34 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <f>J15</f>
+        <f t="shared" ref="M15:M22" si="7">J15</f>
         <v>-4.1999999999999815E-3</v>
       </c>
       <c r="N15" s="8">
-        <f>J37</f>
+        <f t="shared" ref="N15:N22" si="8">J37</f>
         <v>-1.84E-2</v>
       </c>
       <c r="O15" s="8">
-        <f>J59</f>
+        <f t="shared" ref="O15:O22" si="9">J59</f>
         <v>7.839999999999997E-2</v>
       </c>
       <c r="P15" s="8">
-        <f>J81</f>
+        <f t="shared" ref="P15:P22" si="10">J81</f>
         <v>5.7200000000000029E-2</v>
       </c>
       <c r="Q15" s="8">
-        <f>J103</f>
+        <f t="shared" ref="Q15:Q22" si="11">J103</f>
         <v>5.0699999999999967E-2</v>
       </c>
       <c r="R15" s="8">
-        <f>J125</f>
+        <f t="shared" ref="R15:R22" si="12">J125</f>
         <v>4.4800000000000062E-2</v>
       </c>
       <c r="S15" s="8">
-        <f>J147</f>
+        <f t="shared" ref="S15:S22" si="13">J147</f>
         <v>0.11890000000000006</v>
       </c>
-      <c r="T15" s="97"/>
+      <c r="T15" s="94"/>
       <c r="U15" s="17"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
@@ -1725,34 +1789,34 @@
         <v>15</v>
       </c>
       <c r="M16" s="7">
-        <f>J16</f>
+        <f t="shared" si="7"/>
         <v>-2.0600000000000007E-2</v>
       </c>
       <c r="N16" s="8">
-        <f>J38</f>
+        <f t="shared" si="8"/>
         <v>-4.9800000000000011E-2</v>
       </c>
       <c r="O16" s="8">
-        <f>J60</f>
+        <f t="shared" si="9"/>
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="P16" s="8">
-        <f>J82</f>
+        <f t="shared" si="10"/>
         <v>0.10350000000000004</v>
       </c>
       <c r="Q16" s="8">
-        <f>J104</f>
+        <f t="shared" si="11"/>
         <v>-1.040000000000002E-2</v>
       </c>
       <c r="R16" s="8">
-        <f>J126</f>
+        <f t="shared" si="12"/>
         <v>-7.8999999999999626E-3</v>
       </c>
       <c r="S16" s="8">
-        <f>J148</f>
+        <f t="shared" si="13"/>
         <v>2.5299999999999989E-2</v>
       </c>
-      <c r="T16" s="97"/>
+      <c r="T16" s="94"/>
       <c r="U16" s="17"/>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
@@ -1792,34 +1856,34 @@
         <v>17</v>
       </c>
       <c r="M17" s="8">
-        <f>J17</f>
+        <f t="shared" si="7"/>
         <v>2.3799999999999988E-2</v>
       </c>
       <c r="N17" s="8">
-        <f>J39</f>
+        <f t="shared" si="8"/>
         <v>1.7000000000000071E-3</v>
       </c>
       <c r="O17" s="8">
-        <f>J61</f>
+        <f t="shared" si="9"/>
         <v>9.5499999999999974E-2</v>
       </c>
       <c r="P17" s="8">
-        <f>J83</f>
+        <f t="shared" si="10"/>
         <v>0.19379999999999997</v>
       </c>
       <c r="Q17" s="8">
-        <f>J105</f>
+        <f t="shared" si="11"/>
         <v>6.6699999999999982E-2</v>
       </c>
       <c r="R17" s="8">
-        <f>J127</f>
+        <f t="shared" si="12"/>
         <v>4.2100000000000026E-2</v>
       </c>
       <c r="S17" s="8">
-        <f>J149</f>
+        <f t="shared" si="13"/>
         <v>0.11100000000000004</v>
       </c>
-      <c r="T17" s="97"/>
+      <c r="T17" s="94"/>
       <c r="U17" s="17"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
@@ -1865,34 +1929,34 @@
         <v>18</v>
       </c>
       <c r="M18" s="8">
-        <f>J18</f>
+        <f t="shared" si="7"/>
         <v>2.3799999999999988E-2</v>
       </c>
       <c r="N18" s="8">
-        <f>J40</f>
+        <f t="shared" si="8"/>
         <v>1.7000000000000071E-3</v>
       </c>
       <c r="O18" s="8">
-        <f>J62</f>
+        <f t="shared" si="9"/>
         <v>9.5499999999999974E-2</v>
       </c>
       <c r="P18" s="8">
-        <f>J84</f>
+        <f t="shared" si="10"/>
         <v>0.19379999999999997</v>
       </c>
       <c r="Q18" s="8">
-        <f>J106</f>
+        <f t="shared" si="11"/>
         <v>6.6699999999999982E-2</v>
       </c>
       <c r="R18" s="8">
-        <f>J128</f>
+        <f t="shared" si="12"/>
         <v>4.2100000000000026E-2</v>
       </c>
       <c r="S18" s="8">
-        <f>J150</f>
+        <f t="shared" si="13"/>
         <v>0.11100000000000004</v>
       </c>
-      <c r="T18" s="97"/>
+      <c r="T18" s="94"/>
       <c r="U18" s="17"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
@@ -1932,34 +1996,34 @@
         <v>93</v>
       </c>
       <c r="M19" s="8">
-        <f>J19</f>
+        <f t="shared" si="7"/>
         <v>5.8800000000000019E-2</v>
       </c>
       <c r="N19" s="8">
-        <f>J41</f>
+        <f t="shared" si="8"/>
         <v>2.0400000000000001E-2</v>
       </c>
       <c r="O19" s="8">
-        <f>J63</f>
+        <f t="shared" si="9"/>
         <v>0.10159999999999997</v>
       </c>
       <c r="P19" s="8">
-        <f>J85</f>
+        <f t="shared" si="10"/>
         <v>0.19379999999999997</v>
       </c>
       <c r="Q19" s="8">
-        <f>J107</f>
+        <f t="shared" si="11"/>
         <v>4.2399999999999993E-2</v>
       </c>
       <c r="R19" s="8">
-        <f>J129</f>
+        <f t="shared" si="12"/>
         <v>3.7700000000000067E-2</v>
       </c>
       <c r="S19" s="8">
-        <f>J151</f>
+        <f t="shared" si="13"/>
         <v>0.11310000000000003</v>
       </c>
-      <c r="T19" s="97"/>
+      <c r="T19" s="94"/>
       <c r="U19" s="17"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
@@ -2005,34 +2069,34 @@
         <v>94</v>
       </c>
       <c r="M20" s="8">
-        <f>J20</f>
+        <f t="shared" si="7"/>
         <v>7.0500000000000063E-2</v>
       </c>
       <c r="N20" s="8">
-        <f>J42</f>
+        <f t="shared" si="8"/>
         <v>1.3499999999999984E-2</v>
       </c>
       <c r="O20" s="8">
-        <f>J64</f>
+        <f t="shared" si="9"/>
         <v>7.8299999999999981E-2</v>
       </c>
       <c r="P20" s="8">
-        <f>J86</f>
+        <f t="shared" si="10"/>
         <v>0.19379999999999997</v>
       </c>
       <c r="Q20" s="8">
-        <f>J108</f>
+        <f t="shared" si="11"/>
         <v>2.8200000000000003E-2</v>
       </c>
       <c r="R20" s="8">
-        <f>J130</f>
+        <f t="shared" si="12"/>
         <v>-7.7999999999999736E-3</v>
       </c>
       <c r="S20" s="8">
-        <f>J152</f>
+        <f t="shared" si="13"/>
         <v>8.9800000000000046E-2</v>
       </c>
-      <c r="T20" s="97"/>
+      <c r="T20" s="94"/>
       <c r="U20" s="17"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
@@ -2072,34 +2136,34 @@
         <v>95</v>
       </c>
       <c r="M21" s="8">
-        <f>J21</f>
+        <f t="shared" si="7"/>
         <v>5.7199999999999973E-2</v>
       </c>
       <c r="N21" s="8">
-        <f>J43</f>
+        <f t="shared" si="8"/>
         <v>7.6999999999999846E-3</v>
       </c>
       <c r="O21" s="8">
-        <f>J65</f>
+        <f t="shared" si="9"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="P21" s="8">
-        <f>J87</f>
+        <f t="shared" si="10"/>
         <v>0.11929999999999996</v>
       </c>
       <c r="Q21" s="8">
-        <f>J109</f>
+        <f t="shared" si="11"/>
         <v>9.3999999999999639E-3</v>
       </c>
       <c r="R21" s="8">
-        <f>J131</f>
+        <f t="shared" si="12"/>
         <v>3.6399999999999988E-2</v>
       </c>
       <c r="S21" s="8">
-        <f>J153</f>
+        <f t="shared" si="13"/>
         <v>0.12640000000000001</v>
       </c>
-      <c r="T21" s="97"/>
+      <c r="T21" s="94"/>
       <c r="U21" s="17"/>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
@@ -2145,34 +2209,34 @@
         <v>96</v>
       </c>
       <c r="M22" s="8">
-        <f>J22</f>
+        <f t="shared" si="7"/>
         <v>7.5600000000000056E-2</v>
       </c>
       <c r="N22" s="8">
-        <f>J44</f>
+        <f t="shared" si="8"/>
         <v>1.8999999999999989E-2</v>
       </c>
       <c r="O22" s="8">
-        <f>J66</f>
+        <f t="shared" si="9"/>
         <v>7.7199999999999991E-2</v>
       </c>
       <c r="P22" s="8">
-        <f>J88</f>
+        <f t="shared" si="10"/>
         <v>6.0699999999999976E-2</v>
       </c>
       <c r="Q22" s="8">
-        <f>J110</f>
+        <f t="shared" si="11"/>
         <v>-5.2000000000000379E-3</v>
       </c>
       <c r="R22" s="8">
-        <f>J132</f>
+        <f t="shared" si="12"/>
         <v>4.9600000000000088E-2</v>
       </c>
       <c r="S22" s="8">
-        <f>J154</f>
+        <f t="shared" si="13"/>
         <v>0.11249999999999999</v>
       </c>
-      <c r="T22" s="97"/>
+      <c r="T22" s="94"/>
       <c r="U22" s="17"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
@@ -2269,7 +2333,7 @@
         <v>7</v>
       </c>
       <c r="M26" s="57">
-        <f>E4</f>
+        <f t="shared" ref="M26:M44" si="14">E4</f>
         <v>0.25819999999999999</v>
       </c>
       <c r="N26" s="58">
@@ -2296,7 +2360,7 @@
         <f>E136</f>
         <v>0.24410000000000001</v>
       </c>
-      <c r="T26" s="96" t="s">
+      <c r="T26" s="93" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2325,34 +2389,34 @@
         <v>21</v>
       </c>
       <c r="M27" s="60">
-        <f>E5</f>
+        <f t="shared" si="14"/>
         <v>0.42830000000000001</v>
       </c>
       <c r="N27" s="66">
-        <f t="shared" ref="N27:N36" si="7">E27</f>
+        <f t="shared" ref="N27:N36" si="15">E27</f>
         <v>0.2215</v>
       </c>
       <c r="O27" s="66">
-        <f t="shared" ref="O27:O36" si="8">E49</f>
+        <f t="shared" ref="O27:O36" si="16">E49</f>
         <v>0.29270000000000002</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ref="P27:P36" si="9">E71</f>
+        <f t="shared" ref="P27:P36" si="17">E71</f>
         <v>0.64229999999999998</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" ref="Q27:Q36" si="10">E93</f>
+        <f t="shared" ref="Q27:Q36" si="18">E93</f>
         <v>0.2112</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" ref="R27:R36" si="11">E115</f>
+        <f t="shared" ref="R27:R36" si="19">E115</f>
         <v>0.42209999999999998</v>
       </c>
       <c r="S27" s="67">
-        <f t="shared" ref="S27:S36" si="12">E137</f>
+        <f t="shared" ref="S27:S36" si="20">E137</f>
         <v>0.42</v>
       </c>
-      <c r="T27" s="96"/>
+      <c r="T27" s="93"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -2379,34 +2443,34 @@
         <v>16</v>
       </c>
       <c r="M28" s="60">
-        <f>E6</f>
+        <f t="shared" si="14"/>
         <v>0.3468</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.13300000000000001</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.221</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.29049999999999998</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.1709</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.42259999999999998</v>
       </c>
       <c r="S28" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.3765</v>
       </c>
-      <c r="T28" s="96"/>
+      <c r="T28" s="93"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -2433,34 +2497,34 @@
         <v>8</v>
       </c>
       <c r="M29" s="65">
-        <f>E7</f>
+        <f t="shared" si="14"/>
         <v>0.48149999999999998</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.217</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.28420000000000001</v>
       </c>
       <c r="P29" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.72189999999999999</v>
       </c>
       <c r="Q29" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.28260000000000002</v>
       </c>
       <c r="R29" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.50339999999999996</v>
       </c>
       <c r="S29" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.38240000000000002</v>
       </c>
-      <c r="T29" s="96"/>
+      <c r="T29" s="93"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -2492,34 +2556,34 @@
         <v>9</v>
       </c>
       <c r="M30" s="62">
-        <f>E8</f>
+        <f t="shared" si="14"/>
         <v>0.2979</v>
       </c>
       <c r="N30" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.13289999999999999</v>
       </c>
       <c r="O30" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.25390000000000001</v>
       </c>
       <c r="P30" s="63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.4289</v>
       </c>
       <c r="Q30" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.20830000000000001</v>
       </c>
       <c r="R30" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.48659999999999998</v>
       </c>
       <c r="S30" s="64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.36759999999999998</v>
       </c>
-      <c r="T30" s="96"/>
+      <c r="T30" s="93"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2551,34 +2615,34 @@
         <v>5</v>
       </c>
       <c r="M31" s="57">
-        <f>E9</f>
+        <f t="shared" si="14"/>
         <v>0.49149999999999999</v>
       </c>
       <c r="N31" s="58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.20519999999999999</v>
       </c>
       <c r="O31" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.37569999999999998</v>
       </c>
       <c r="P31" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.84330000000000005</v>
       </c>
       <c r="Q31" s="58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.30759999999999998</v>
       </c>
       <c r="R31" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.54549999999999998</v>
       </c>
       <c r="S31" s="59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.5383</v>
       </c>
-      <c r="T31" s="96"/>
+      <c r="T31" s="93"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -2616,34 +2680,34 @@
         <v>6</v>
       </c>
       <c r="M32" s="60">
-        <f>E10</f>
+        <f t="shared" si="14"/>
         <v>0.49149999999999999</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.21659999999999999</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.3755</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.84330000000000005</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.30759999999999998</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.54549999999999998</v>
       </c>
       <c r="S32" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.54039999999999999</v>
       </c>
-      <c r="T32" s="96"/>
+      <c r="T32" s="93"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -2675,34 +2739,34 @@
         <v>10</v>
       </c>
       <c r="M33" s="60">
-        <f>E11</f>
+        <f t="shared" si="14"/>
         <v>0.46229999999999999</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.20469999999999999</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.29380000000000001</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.78339999999999999</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.27779999999999999</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.4819</v>
       </c>
       <c r="S33" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.46760000000000002</v>
       </c>
-      <c r="T33" s="96"/>
+      <c r="T33" s="93"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -2740,34 +2804,34 @@
         <v>11</v>
       </c>
       <c r="M34" s="60">
-        <f>E12</f>
+        <f t="shared" si="14"/>
         <v>0.46229999999999999</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.20469999999999999</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.29380000000000001</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.78339999999999999</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.27779999999999999</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.4819</v>
       </c>
       <c r="S34" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.46760000000000002</v>
       </c>
-      <c r="T34" s="96"/>
+      <c r="T34" s="93"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -2799,34 +2863,34 @@
         <v>12</v>
       </c>
       <c r="M35" s="60">
-        <f>E13</f>
+        <f t="shared" si="14"/>
         <v>0.37140000000000001</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.13289999999999999</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.2422</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.28599999999999998</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.1724</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.43630000000000002</v>
       </c>
       <c r="S35" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.38879999999999998</v>
       </c>
-      <c r="T35" s="96"/>
+      <c r="T35" s="93"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -2861,34 +2925,34 @@
         <v>13</v>
       </c>
       <c r="M36" s="60">
-        <f>E14</f>
+        <f t="shared" si="14"/>
         <v>0.25819999999999999</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.1134</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.13900000000000001</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.29870000000000002</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.1152</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.28189999999999998</v>
       </c>
       <c r="S36" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.24410000000000001</v>
       </c>
-      <c r="T36" s="96"/>
+      <c r="T36" s="93"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2920,34 +2984,34 @@
         <v>14</v>
       </c>
       <c r="M37" s="60">
-        <f>E15</f>
+        <f t="shared" si="14"/>
         <v>0.4773</v>
       </c>
       <c r="N37" s="6">
-        <f>E37</f>
+        <f t="shared" ref="N37:N44" si="21">E37</f>
         <v>0.2031</v>
       </c>
       <c r="O37" s="6">
-        <f>E59</f>
+        <f t="shared" ref="O37:O44" si="22">E59</f>
         <v>0.37109999999999999</v>
       </c>
       <c r="P37" s="6">
-        <f>E81</f>
+        <f t="shared" ref="P37:P44" si="23">E81</f>
         <v>0.77910000000000001</v>
       </c>
       <c r="Q37" s="6">
-        <f>E103</f>
+        <f t="shared" ref="Q37:Q44" si="24">E103</f>
         <v>0.33329999999999999</v>
       </c>
       <c r="R37" s="66">
-        <f>E125</f>
+        <f t="shared" ref="R37:R44" si="25">E125</f>
         <v>0.54820000000000002</v>
       </c>
       <c r="S37" s="61">
-        <f>E147</f>
+        <f t="shared" ref="S37:S44" si="26">E147</f>
         <v>0.53890000000000005</v>
       </c>
-      <c r="T37" s="96"/>
+      <c r="T37" s="93"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -2985,34 +3049,34 @@
         <v>15</v>
       </c>
       <c r="M38" s="60">
-        <f>E16</f>
+        <f t="shared" si="14"/>
         <v>0.46089999999999998</v>
       </c>
       <c r="N38" s="6">
-        <f>E38</f>
+        <f t="shared" si="21"/>
         <v>0.17169999999999999</v>
       </c>
       <c r="O38" s="6">
-        <f>E60</f>
+        <f t="shared" si="22"/>
         <v>0.29870000000000002</v>
       </c>
       <c r="P38" s="6">
-        <f>E82</f>
+        <f t="shared" si="23"/>
         <v>0.82540000000000002</v>
       </c>
       <c r="Q38" s="6">
-        <f>E104</f>
+        <f t="shared" si="24"/>
         <v>0.2722</v>
       </c>
       <c r="R38" s="6">
-        <f>E126</f>
+        <f t="shared" si="25"/>
         <v>0.4955</v>
       </c>
       <c r="S38" s="61">
-        <f>E148</f>
+        <f t="shared" si="26"/>
         <v>0.44529999999999997</v>
       </c>
-      <c r="T38" s="96"/>
+      <c r="T38" s="93"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -3044,34 +3108,34 @@
         <v>17</v>
       </c>
       <c r="M39" s="60">
-        <f>E17</f>
+        <f t="shared" si="14"/>
         <v>0.50529999999999997</v>
       </c>
       <c r="N39" s="6">
-        <f>E39</f>
+        <f t="shared" si="21"/>
         <v>0.22320000000000001</v>
       </c>
       <c r="O39" s="6">
-        <f>E61</f>
+        <f t="shared" si="22"/>
         <v>0.38819999999999999</v>
       </c>
       <c r="P39" s="66">
-        <f>E83</f>
+        <f t="shared" si="23"/>
         <v>0.91569999999999996</v>
       </c>
       <c r="Q39" s="66">
-        <f>E105</f>
+        <f t="shared" si="24"/>
         <v>0.3493</v>
       </c>
       <c r="R39" s="6">
-        <f>E127</f>
+        <f t="shared" si="25"/>
         <v>0.54549999999999998</v>
       </c>
       <c r="S39" s="61">
-        <f>E149</f>
+        <f t="shared" si="26"/>
         <v>0.53100000000000003</v>
       </c>
-      <c r="T39" s="96"/>
+      <c r="T39" s="93"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
@@ -3109,34 +3173,34 @@
         <v>18</v>
       </c>
       <c r="M40" s="62">
-        <f>E18</f>
+        <f t="shared" si="14"/>
         <v>0.50529999999999997</v>
       </c>
       <c r="N40" s="63">
-        <f>E40</f>
+        <f t="shared" si="21"/>
         <v>0.22320000000000001</v>
       </c>
       <c r="O40" s="63">
-        <f>E62</f>
+        <f t="shared" si="22"/>
         <v>0.38819999999999999</v>
       </c>
       <c r="P40" s="70">
-        <f>E84</f>
+        <f t="shared" si="23"/>
         <v>0.91569999999999996</v>
       </c>
       <c r="Q40" s="70">
-        <f>E106</f>
+        <f t="shared" si="24"/>
         <v>0.3493</v>
       </c>
       <c r="R40" s="63">
-        <f>E128</f>
+        <f t="shared" si="25"/>
         <v>0.54549999999999998</v>
       </c>
       <c r="S40" s="64">
-        <f>E150</f>
+        <f t="shared" si="26"/>
         <v>0.53100000000000003</v>
       </c>
-      <c r="T40" s="96"/>
+      <c r="T40" s="93"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
@@ -3168,34 +3232,34 @@
         <v>93</v>
       </c>
       <c r="M41" s="57">
-        <f>E19</f>
+        <f t="shared" si="14"/>
         <v>0.5403</v>
       </c>
       <c r="N41" s="69">
-        <f>E41</f>
+        <f t="shared" si="21"/>
         <v>0.2419</v>
       </c>
       <c r="O41" s="69">
-        <f>E63</f>
+        <f t="shared" si="22"/>
         <v>0.39429999999999998</v>
       </c>
       <c r="P41" s="69">
-        <f>E85</f>
+        <f t="shared" si="23"/>
         <v>0.91569999999999996</v>
       </c>
       <c r="Q41" s="58">
-        <f>E107</f>
+        <f t="shared" si="24"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="R41" s="58">
-        <f>E129</f>
+        <f t="shared" si="25"/>
         <v>0.54110000000000003</v>
       </c>
       <c r="S41" s="59">
-        <f>E151</f>
+        <f t="shared" si="26"/>
         <v>0.53310000000000002</v>
       </c>
-      <c r="T41" s="96"/>
+      <c r="T41" s="93"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -3233,34 +3297,34 @@
         <v>94</v>
       </c>
       <c r="M42" s="60">
-        <f>E20</f>
+        <f t="shared" si="14"/>
         <v>0.55200000000000005</v>
       </c>
       <c r="N42" s="6">
-        <f>E42</f>
+        <f t="shared" si="21"/>
         <v>0.23499999999999999</v>
       </c>
       <c r="O42" s="6">
-        <f>E64</f>
+        <f t="shared" si="22"/>
         <v>0.371</v>
       </c>
       <c r="P42" s="66">
-        <f>E86</f>
+        <f t="shared" si="23"/>
         <v>0.91569999999999996</v>
       </c>
       <c r="Q42" s="6">
-        <f>E108</f>
+        <f t="shared" si="24"/>
         <v>0.31080000000000002</v>
       </c>
       <c r="R42" s="6">
-        <f>E130</f>
+        <f t="shared" si="25"/>
         <v>0.49559999999999998</v>
       </c>
       <c r="S42" s="61">
-        <f>E152</f>
+        <f t="shared" si="26"/>
         <v>0.50980000000000003</v>
       </c>
-      <c r="T42" s="96"/>
+      <c r="T42" s="93"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
@@ -3292,34 +3356,34 @@
         <v>95</v>
       </c>
       <c r="M43" s="60">
-        <f>E21</f>
+        <f t="shared" si="14"/>
         <v>0.53869999999999996</v>
       </c>
       <c r="N43" s="6">
-        <f>E43</f>
+        <f t="shared" si="21"/>
         <v>0.22919999999999999</v>
       </c>
       <c r="O43" s="6">
-        <f>E65</f>
+        <f t="shared" si="22"/>
         <v>0.38269999999999998</v>
       </c>
       <c r="P43" s="6">
-        <f>E87</f>
+        <f t="shared" si="23"/>
         <v>0.84119999999999995</v>
       </c>
       <c r="Q43" s="6">
-        <f>E109</f>
+        <f t="shared" si="24"/>
         <v>0.29199999999999998</v>
       </c>
       <c r="R43" s="6">
-        <f>E131</f>
+        <f t="shared" si="25"/>
         <v>0.53979999999999995</v>
       </c>
       <c r="S43" s="67">
-        <f>E153</f>
+        <f t="shared" si="26"/>
         <v>0.5464</v>
       </c>
-      <c r="T43" s="96"/>
+      <c r="T43" s="93"/>
     </row>
     <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
@@ -3357,34 +3421,34 @@
         <v>96</v>
       </c>
       <c r="M44" s="68">
-        <f>E22</f>
+        <f t="shared" si="14"/>
         <v>0.55710000000000004</v>
       </c>
       <c r="N44" s="63">
-        <f>E44</f>
+        <f t="shared" si="21"/>
         <v>0.24049999999999999</v>
       </c>
       <c r="O44" s="63">
-        <f>E66</f>
+        <f t="shared" si="22"/>
         <v>0.36990000000000001</v>
       </c>
       <c r="P44" s="63">
-        <f>E88</f>
+        <f t="shared" si="23"/>
         <v>0.78259999999999996</v>
       </c>
       <c r="Q44" s="63">
-        <f>E110</f>
+        <f t="shared" si="24"/>
         <v>0.27739999999999998</v>
       </c>
       <c r="R44" s="63">
-        <f>E132</f>
+        <f t="shared" si="25"/>
         <v>0.55300000000000005</v>
       </c>
       <c r="S44" s="64">
-        <f>E154</f>
+        <f t="shared" si="26"/>
         <v>0.53249999999999997</v>
       </c>
-      <c r="T44" s="96"/>
+      <c r="T44" s="93"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F45" s="15"/>
@@ -7594,10 +7658,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F2FB72-73D1-4CC1-BBAF-7C4577DF1D64}">
-  <dimension ref="B1:V45"/>
+  <dimension ref="B1:AG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7607,148 +7671,132 @@
     <col min="4" max="11" width="7.140625" style="32" customWidth="1"/>
     <col min="12" max="17" width="7.140625" style="31" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" style="79" customWidth="1"/>
-    <col min="19" max="26" width="4" customWidth="1"/>
-    <col min="27" max="41" width="5.7109375" customWidth="1"/>
+    <col min="19" max="24" width="4" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" customWidth="1"/>
+    <col min="26" max="32" width="16.5703125" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" customWidth="1"/>
+    <col min="34" max="41" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="82"/>
+    <row r="1" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="48"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-    </row>
-    <row r="2" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="83"/>
-      <c r="C2" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="22">
-        <f>results!M9</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="E2" s="85">
-        <f>results!N9</f>
-        <v>-1.6300000000000009E-2</v>
-      </c>
-      <c r="F2" s="23">
-        <f>results!O9</f>
-        <v>8.2999999999999963E-2</v>
-      </c>
-      <c r="G2" s="23">
-        <f>results!P9</f>
-        <v>0.12140000000000006</v>
-      </c>
-      <c r="H2" s="23">
-        <f>results!Q9</f>
-        <v>2.4999999999999967E-2</v>
-      </c>
-      <c r="I2" s="23">
-        <f>results!R9</f>
-        <v>4.2100000000000026E-2</v>
-      </c>
-      <c r="J2" s="24">
-        <f>results!S9</f>
-        <v>0.11830000000000002</v>
-      </c>
-      <c r="K2" s="88"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="82"/>
       <c r="L2" s="48"/>
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
       <c r="O2" s="48"/>
       <c r="P2" s="48"/>
       <c r="Q2" s="48"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="18"/>
-    </row>
-    <row r="3" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="83"/>
       <c r="C3" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="26">
-        <f>results!M10</f>
+        <v>87</v>
+      </c>
+      <c r="D3" s="22">
+        <f>results!M9</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="E3" s="90">
-        <f>results!N10</f>
-        <v>-4.9000000000000155E-3</v>
-      </c>
-      <c r="F3" s="27">
-        <f>results!O10</f>
-        <v>8.2799999999999985E-2</v>
-      </c>
-      <c r="G3" s="27">
-        <f>results!P10</f>
+      <c r="E3" s="85">
+        <f>results!N9</f>
+        <v>-1.6300000000000009E-2</v>
+      </c>
+      <c r="F3" s="23">
+        <f>results!O9</f>
+        <v>8.2999999999999963E-2</v>
+      </c>
+      <c r="G3" s="23">
+        <f>results!P9</f>
         <v>0.12140000000000006</v>
       </c>
-      <c r="H3" s="27">
-        <f>results!Q10</f>
+      <c r="H3" s="23">
+        <f>results!Q9</f>
         <v>2.4999999999999967E-2</v>
       </c>
-      <c r="I3" s="27">
-        <f>results!R10</f>
+      <c r="I3" s="23">
+        <f>results!R9</f>
         <v>4.2100000000000026E-2</v>
       </c>
-      <c r="J3" s="28">
-        <f>results!S10</f>
-        <v>0.12040000000000001</v>
-      </c>
-      <c r="K3" s="88"/>
+      <c r="J3" s="24">
+        <f>results!S9</f>
+        <v>0.11830000000000002</v>
+      </c>
+      <c r="K3" s="87"/>
       <c r="L3" s="48"/>
       <c r="M3" s="48"/>
       <c r="N3" s="48"/>
       <c r="O3" s="48"/>
       <c r="P3" s="48"/>
       <c r="Q3" s="48"/>
-      <c r="U3" s="19"/>
+      <c r="U3" s="17"/>
       <c r="V3" s="18"/>
-    </row>
-    <row r="4" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X3" s="97"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="97"/>
+    </row>
+    <row r="4" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="83"/>
       <c r="C4" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="84">
-        <f>results!M11</f>
-        <v>-1.9199999999999995E-2</v>
-      </c>
-      <c r="E4" s="85">
-        <f>results!N11</f>
-        <v>-1.6800000000000009E-2</v>
-      </c>
-      <c r="F4" s="23">
-        <f>results!O11</f>
-        <v>1.0999999999999899E-3</v>
-      </c>
-      <c r="G4" s="23">
-        <f>results!P11</f>
-        <v>6.1499999999999999E-2</v>
-      </c>
-      <c r="H4" s="85">
-        <f>results!Q11</f>
-        <v>-4.8000000000000265E-3</v>
-      </c>
-      <c r="I4" s="85">
-        <f>results!R11</f>
-        <v>-2.1499999999999964E-2</v>
-      </c>
-      <c r="J4" s="24">
-        <f>results!S11</f>
-        <v>4.7600000000000031E-2</v>
-      </c>
-      <c r="K4" s="88"/>
+        <v>88</v>
+      </c>
+      <c r="D4" s="26">
+        <f>results!M10</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="E4" s="88">
+        <f>results!N10</f>
+        <v>-4.9000000000000155E-3</v>
+      </c>
+      <c r="F4" s="27">
+        <f>results!O10</f>
+        <v>8.2799999999999985E-2</v>
+      </c>
+      <c r="G4" s="27">
+        <f>results!P10</f>
+        <v>0.12140000000000006</v>
+      </c>
+      <c r="H4" s="27">
+        <f>results!Q10</f>
+        <v>2.4999999999999967E-2</v>
+      </c>
+      <c r="I4" s="27">
+        <f>results!R10</f>
+        <v>4.2100000000000026E-2</v>
+      </c>
+      <c r="J4" s="28">
+        <f>results!S10</f>
+        <v>0.12040000000000001</v>
+      </c>
+      <c r="K4" s="87"/>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
@@ -7757,41 +7805,74 @@
       <c r="Q4" s="48"/>
       <c r="U4" s="19"/>
       <c r="V4" s="18"/>
-    </row>
-    <row r="5" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X4" s="97"/>
+      <c r="Y4" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" s="102">
+        <f>K20-D20</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="102">
+        <f t="shared" ref="AA4:AF4" si="0">L20-E20</f>
+        <v>1.1399999999999993E-2</v>
+      </c>
+      <c r="AB4" s="102">
+        <f t="shared" si="0"/>
+        <v>-1.9999999999997797E-4</v>
+      </c>
+      <c r="AC4" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="102">
+        <f t="shared" si="0"/>
+        <v>2.0999999999999908E-3</v>
+      </c>
+      <c r="AG4" s="97"/>
+    </row>
+    <row r="5" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="83"/>
       <c r="C5" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="92">
-        <f>results!M12</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="84">
+        <f>results!M11</f>
         <v>-1.9199999999999995E-2</v>
       </c>
-      <c r="E5" s="90">
-        <f>results!N12</f>
+      <c r="E5" s="85">
+        <f>results!N11</f>
         <v>-1.6800000000000009E-2</v>
       </c>
-      <c r="F5" s="27">
-        <f>results!O12</f>
+      <c r="F5" s="23">
+        <f>results!O11</f>
         <v>1.0999999999999899E-3</v>
       </c>
-      <c r="G5" s="27">
-        <f>results!P12</f>
+      <c r="G5" s="23">
+        <f>results!P11</f>
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="H5" s="90">
-        <f>results!Q12</f>
+      <c r="H5" s="85">
+        <f>results!Q11</f>
         <v>-4.8000000000000265E-3</v>
       </c>
-      <c r="I5" s="90">
-        <f>results!R12</f>
+      <c r="I5" s="85">
+        <f>results!R11</f>
         <v>-2.1499999999999964E-2</v>
       </c>
-      <c r="J5" s="28">
-        <f>results!S12</f>
+      <c r="J5" s="24">
+        <f>results!S11</f>
         <v>4.7600000000000031E-2</v>
       </c>
-      <c r="K5" s="88"/>
+      <c r="K5" s="87"/>
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
@@ -7800,41 +7881,74 @@
       <c r="Q5" s="48"/>
       <c r="U5" s="19"/>
       <c r="V5" s="18"/>
-    </row>
-    <row r="6" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X5" s="97"/>
+      <c r="Y5" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="102">
+        <f t="shared" ref="Z5:Z10" si="1">K21-D21</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="102">
+        <f t="shared" ref="AA5:AA10" si="2">L21-E21</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="102">
+        <f t="shared" ref="AB5:AB10" si="3">M21-F21</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="102">
+        <f t="shared" ref="AC5:AC10" si="4">N21-G21</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="102">
+        <f t="shared" ref="AD5:AD10" si="5">O21-H21</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="102">
+        <f t="shared" ref="AE5:AE10" si="6">P21-I21</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="102">
+        <f t="shared" ref="AF5:AF10" si="7">Q21-J21</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="97"/>
+    </row>
+    <row r="6" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="83"/>
       <c r="C6" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="84">
-        <f>results!M13</f>
-        <v>-0.11009999999999998</v>
-      </c>
-      <c r="E6" s="85">
-        <f>results!N13</f>
-        <v>-8.8600000000000012E-2</v>
-      </c>
-      <c r="F6" s="85">
-        <f>results!O13</f>
-        <v>-5.0500000000000017E-2</v>
-      </c>
-      <c r="G6" s="85">
-        <f>results!P13</f>
-        <v>-0.43590000000000001</v>
-      </c>
-      <c r="H6" s="85">
-        <f>results!Q13</f>
-        <v>-0.11020000000000002</v>
-      </c>
-      <c r="I6" s="85">
-        <f>results!R13</f>
-        <v>-6.7099999999999937E-2</v>
-      </c>
-      <c r="J6" s="86">
-        <f>results!S13</f>
-        <v>-3.1200000000000006E-2</v>
-      </c>
-      <c r="K6" s="88"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="90">
+        <f>results!M12</f>
+        <v>-1.9199999999999995E-2</v>
+      </c>
+      <c r="E6" s="88">
+        <f>results!N12</f>
+        <v>-1.6800000000000009E-2</v>
+      </c>
+      <c r="F6" s="27">
+        <f>results!O12</f>
+        <v>1.0999999999999899E-3</v>
+      </c>
+      <c r="G6" s="27">
+        <f>results!P12</f>
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="H6" s="88">
+        <f>results!Q12</f>
+        <v>-4.8000000000000265E-3</v>
+      </c>
+      <c r="I6" s="88">
+        <f>results!R12</f>
+        <v>-2.1499999999999964E-2</v>
+      </c>
+      <c r="J6" s="28">
+        <f>results!S12</f>
+        <v>4.7600000000000031E-2</v>
+      </c>
+      <c r="K6" s="87"/>
       <c r="L6" s="48"/>
       <c r="M6" s="48"/>
       <c r="N6" s="48"/>
@@ -7843,41 +7957,74 @@
       <c r="Q6" s="48"/>
       <c r="U6" s="19"/>
       <c r="V6" s="18"/>
-    </row>
-    <row r="7" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X6" s="97"/>
+      <c r="Y6" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="102">
+        <f t="shared" si="1"/>
+        <v>-0.11320000000000002</v>
+      </c>
+      <c r="AA6" s="102">
+        <f t="shared" si="2"/>
+        <v>-1.949999999999999E-2</v>
+      </c>
+      <c r="AB6" s="102">
+        <f t="shared" si="3"/>
+        <v>-0.10319999999999999</v>
+      </c>
+      <c r="AC6" s="102">
+        <f t="shared" si="4"/>
+        <v>1.2700000000000045E-2</v>
+      </c>
+      <c r="AD6" s="102">
+        <f t="shared" si="5"/>
+        <v>-5.7200000000000001E-2</v>
+      </c>
+      <c r="AE6" s="102">
+        <f t="shared" si="6"/>
+        <v>-0.15440000000000004</v>
+      </c>
+      <c r="AF6" s="102">
+        <f t="shared" si="7"/>
+        <v>-0.14469999999999997</v>
+      </c>
+      <c r="AG6" s="97"/>
+    </row>
+    <row r="7" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="83"/>
       <c r="C7" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="92">
-        <f>results!M14</f>
-        <v>-0.2233</v>
-      </c>
-      <c r="E7" s="90">
-        <f>results!N14</f>
-        <v>-0.1081</v>
-      </c>
-      <c r="F7" s="90">
-        <f>results!O14</f>
-        <v>-0.1537</v>
-      </c>
-      <c r="G7" s="90">
-        <f>results!P14</f>
-        <v>-0.42319999999999997</v>
-      </c>
-      <c r="H7" s="90">
-        <f>results!Q14</f>
-        <v>-0.16740000000000002</v>
-      </c>
-      <c r="I7" s="90">
-        <f>results!R14</f>
-        <v>-0.22149999999999997</v>
-      </c>
-      <c r="J7" s="91">
-        <f>results!S14</f>
-        <v>-0.17589999999999997</v>
-      </c>
-      <c r="K7" s="88"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="84">
+        <f>results!M13</f>
+        <v>-0.11009999999999998</v>
+      </c>
+      <c r="E7" s="85">
+        <f>results!N13</f>
+        <v>-8.8600000000000012E-2</v>
+      </c>
+      <c r="F7" s="85">
+        <f>results!O13</f>
+        <v>-5.0500000000000017E-2</v>
+      </c>
+      <c r="G7" s="85">
+        <f>results!P13</f>
+        <v>-0.43590000000000001</v>
+      </c>
+      <c r="H7" s="85">
+        <f>results!Q13</f>
+        <v>-0.11020000000000002</v>
+      </c>
+      <c r="I7" s="85">
+        <f>results!R13</f>
+        <v>-6.7099999999999937E-2</v>
+      </c>
+      <c r="J7" s="86">
+        <f>results!S13</f>
+        <v>-3.1200000000000006E-2</v>
+      </c>
+      <c r="K7" s="87"/>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
       <c r="N7" s="48"/>
@@ -7886,41 +8033,74 @@
       <c r="Q7" s="48"/>
       <c r="U7" s="19"/>
       <c r="V7" s="18"/>
-    </row>
-    <row r="8" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X7" s="97"/>
+      <c r="Y7" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z7" s="102">
+        <f t="shared" si="1"/>
+        <v>-1.6400000000000026E-2</v>
+      </c>
+      <c r="AA7" s="102">
+        <f t="shared" si="2"/>
+        <v>-3.1400000000000011E-2</v>
+      </c>
+      <c r="AB7" s="102">
+        <f t="shared" si="3"/>
+        <v>-7.2399999999999964E-2</v>
+      </c>
+      <c r="AC7" s="102">
+        <f t="shared" si="4"/>
+        <v>4.6300000000000008E-2</v>
+      </c>
+      <c r="AD7" s="102">
+        <f t="shared" si="5"/>
+        <v>-6.1099999999999988E-2</v>
+      </c>
+      <c r="AE7" s="102">
+        <f t="shared" si="6"/>
+        <v>-5.2700000000000025E-2</v>
+      </c>
+      <c r="AF7" s="102">
+        <f t="shared" si="7"/>
+        <v>-9.3600000000000072E-2</v>
+      </c>
+      <c r="AG7" s="97"/>
+    </row>
+    <row r="8" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="83"/>
       <c r="C8" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="84">
-        <f>results!M15</f>
-        <v>-4.1999999999999815E-3</v>
-      </c>
-      <c r="E8" s="85">
-        <f>results!N15</f>
-        <v>-1.84E-2</v>
-      </c>
-      <c r="F8" s="23">
-        <f>results!O15</f>
-        <v>7.839999999999997E-2</v>
-      </c>
-      <c r="G8" s="23">
-        <f>results!P15</f>
-        <v>5.7200000000000029E-2</v>
-      </c>
-      <c r="H8" s="23">
-        <f>results!Q15</f>
-        <v>5.0699999999999967E-2</v>
-      </c>
-      <c r="I8" s="23">
-        <f>results!R15</f>
-        <v>4.4800000000000062E-2</v>
-      </c>
-      <c r="J8" s="24">
-        <f>results!S15</f>
-        <v>0.11890000000000006</v>
-      </c>
-      <c r="K8" s="88"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="90">
+        <f>results!M14</f>
+        <v>-0.2233</v>
+      </c>
+      <c r="E8" s="88">
+        <f>results!N14</f>
+        <v>-0.1081</v>
+      </c>
+      <c r="F8" s="88">
+        <f>results!O14</f>
+        <v>-0.1537</v>
+      </c>
+      <c r="G8" s="88">
+        <f>results!P14</f>
+        <v>-0.42319999999999997</v>
+      </c>
+      <c r="H8" s="88">
+        <f>results!Q14</f>
+        <v>-0.16740000000000002</v>
+      </c>
+      <c r="I8" s="88">
+        <f>results!R14</f>
+        <v>-0.22149999999999997</v>
+      </c>
+      <c r="J8" s="89">
+        <f>results!S14</f>
+        <v>-0.17589999999999997</v>
+      </c>
+      <c r="K8" s="87"/>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
       <c r="N8" s="48"/>
@@ -7929,41 +8109,74 @@
       <c r="Q8" s="48"/>
       <c r="U8" s="19"/>
       <c r="V8" s="18"/>
-    </row>
-    <row r="9" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X8" s="97"/>
+      <c r="Y8" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z8" s="102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="102">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="97"/>
+    </row>
+    <row r="9" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="83"/>
       <c r="C9" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="92">
-        <f>results!M16</f>
-        <v>-2.0600000000000007E-2</v>
-      </c>
-      <c r="E9" s="90">
-        <f>results!N16</f>
-        <v>-4.9800000000000011E-2</v>
-      </c>
-      <c r="F9" s="27">
-        <f>results!O16</f>
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="G9" s="27">
-        <f>results!P16</f>
-        <v>0.10350000000000004</v>
-      </c>
-      <c r="H9" s="90">
-        <f>results!Q16</f>
-        <v>-1.040000000000002E-2</v>
-      </c>
-      <c r="I9" s="90">
-        <f>results!R16</f>
-        <v>-7.8999999999999626E-3</v>
-      </c>
-      <c r="J9" s="28">
-        <f>results!S16</f>
-        <v>2.5299999999999989E-2</v>
-      </c>
-      <c r="K9" s="88"/>
+        <v>89</v>
+      </c>
+      <c r="D9" s="84">
+        <f>results!M15</f>
+        <v>-4.1999999999999815E-3</v>
+      </c>
+      <c r="E9" s="85">
+        <f>results!N15</f>
+        <v>-1.84E-2</v>
+      </c>
+      <c r="F9" s="23">
+        <f>results!O15</f>
+        <v>7.839999999999997E-2</v>
+      </c>
+      <c r="G9" s="23">
+        <f>results!P15</f>
+        <v>5.7200000000000029E-2</v>
+      </c>
+      <c r="H9" s="23">
+        <f>results!Q15</f>
+        <v>5.0699999999999967E-2</v>
+      </c>
+      <c r="I9" s="23">
+        <f>results!R15</f>
+        <v>4.4800000000000062E-2</v>
+      </c>
+      <c r="J9" s="24">
+        <f>results!S15</f>
+        <v>0.11890000000000006</v>
+      </c>
+      <c r="K9" s="87"/>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
       <c r="N9" s="48"/>
@@ -7972,164 +8185,266 @@
       <c r="Q9" s="48"/>
       <c r="U9" s="19"/>
       <c r="V9" s="18"/>
-    </row>
-    <row r="10" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X9" s="97"/>
+      <c r="Y9" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z9" s="102">
+        <f t="shared" si="1"/>
+        <v>1.1700000000000044E-2</v>
+      </c>
+      <c r="AA9" s="102">
+        <f t="shared" si="2"/>
+        <v>-6.9000000000000172E-3</v>
+      </c>
+      <c r="AB9" s="102">
+        <f t="shared" si="3"/>
+        <v>-2.3299999999999987E-2</v>
+      </c>
+      <c r="AC9" s="102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="102">
+        <f t="shared" si="5"/>
+        <v>-1.419999999999999E-2</v>
+      </c>
+      <c r="AE9" s="102">
+        <f t="shared" si="6"/>
+        <v>-4.550000000000004E-2</v>
+      </c>
+      <c r="AF9" s="102">
+        <f t="shared" si="7"/>
+        <v>-2.3299999999999987E-2</v>
+      </c>
+      <c r="AG9" s="97"/>
+    </row>
+    <row r="10" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="83"/>
       <c r="C10" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="22">
-        <f>results!M17</f>
-        <v>2.3799999999999988E-2</v>
-      </c>
-      <c r="E10" s="23">
-        <f>results!N17</f>
-        <v>1.7000000000000071E-3</v>
-      </c>
-      <c r="F10" s="23">
-        <f>results!O17</f>
-        <v>9.5499999999999974E-2</v>
-      </c>
-      <c r="G10" s="23">
-        <f>results!P17</f>
-        <v>0.19379999999999997</v>
-      </c>
-      <c r="H10" s="23">
-        <f>results!Q17</f>
-        <v>6.6699999999999982E-2</v>
-      </c>
-      <c r="I10" s="23">
-        <f>results!R17</f>
-        <v>4.2100000000000026E-2</v>
-      </c>
-      <c r="J10" s="24">
-        <f>results!S17</f>
-        <v>0.11100000000000004</v>
-      </c>
-      <c r="K10" s="88"/>
+        <v>90</v>
+      </c>
+      <c r="D10" s="90">
+        <f>results!M16</f>
+        <v>-2.0600000000000007E-2</v>
+      </c>
+      <c r="E10" s="88">
+        <f>results!N16</f>
+        <v>-4.9800000000000011E-2</v>
+      </c>
+      <c r="F10" s="27">
+        <f>results!O16</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="G10" s="27">
+        <f>results!P16</f>
+        <v>0.10350000000000004</v>
+      </c>
+      <c r="H10" s="88">
+        <f>results!Q16</f>
+        <v>-1.040000000000002E-2</v>
+      </c>
+      <c r="I10" s="88">
+        <f>results!R16</f>
+        <v>-7.8999999999999626E-3</v>
+      </c>
+      <c r="J10" s="28">
+        <f>results!S16</f>
+        <v>2.5299999999999989E-2</v>
+      </c>
+      <c r="K10" s="87"/>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
       <c r="N10" s="48"/>
       <c r="O10" s="48"/>
       <c r="P10" s="48"/>
       <c r="Q10" s="48"/>
-    </row>
-    <row r="11" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U10" s="19"/>
+      <c r="V10" s="18"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z10" s="102">
+        <f t="shared" si="1"/>
+        <v>1.8400000000000083E-2</v>
+      </c>
+      <c r="AA10" s="102">
+        <f t="shared" si="2"/>
+        <v>1.1300000000000004E-2</v>
+      </c>
+      <c r="AB10" s="102">
+        <f t="shared" si="3"/>
+        <v>-1.2799999999999978E-2</v>
+      </c>
+      <c r="AC10" s="102">
+        <f t="shared" si="4"/>
+        <v>-5.8599999999999985E-2</v>
+      </c>
+      <c r="AD10" s="102">
+        <f t="shared" si="5"/>
+        <v>-1.4600000000000002E-2</v>
+      </c>
+      <c r="AE10" s="102">
+        <f t="shared" si="6"/>
+        <v>1.3200000000000101E-2</v>
+      </c>
+      <c r="AF10" s="102">
+        <f t="shared" si="7"/>
+        <v>-1.3900000000000023E-2</v>
+      </c>
+      <c r="AG10" s="97"/>
+    </row>
+    <row r="11" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="83"/>
       <c r="C11" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="26">
-        <f>results!M18</f>
+        <v>91</v>
+      </c>
+      <c r="D11" s="22">
+        <f>results!M17</f>
         <v>2.3799999999999988E-2</v>
       </c>
-      <c r="E11" s="27">
-        <f>results!N18</f>
+      <c r="E11" s="23">
+        <f>results!N17</f>
         <v>1.7000000000000071E-3</v>
       </c>
-      <c r="F11" s="27">
-        <f>results!O18</f>
+      <c r="F11" s="23">
+        <f>results!O17</f>
         <v>9.5499999999999974E-2</v>
       </c>
-      <c r="G11" s="27">
-        <f>results!P18</f>
+      <c r="G11" s="23">
+        <f>results!P17</f>
         <v>0.19379999999999997</v>
       </c>
-      <c r="H11" s="27">
-        <f>results!Q18</f>
+      <c r="H11" s="23">
+        <f>results!Q17</f>
         <v>6.6699999999999982E-2</v>
       </c>
-      <c r="I11" s="27">
-        <f>results!R18</f>
+      <c r="I11" s="23">
+        <f>results!R17</f>
         <v>4.2100000000000026E-2</v>
       </c>
-      <c r="J11" s="28">
-        <f>results!S18</f>
+      <c r="J11" s="24">
+        <f>results!S17</f>
         <v>0.11100000000000004</v>
       </c>
-      <c r="K11" s="88"/>
+      <c r="K11" s="87"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
       <c r="N11" s="48"/>
       <c r="O11" s="48"/>
       <c r="P11" s="48"/>
       <c r="Q11" s="48"/>
-    </row>
-    <row r="12" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X11" s="97"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA11" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB11" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC11" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD11" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE11" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF11" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG11" s="97"/>
+    </row>
+    <row r="12" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="83"/>
       <c r="C12" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="22">
-        <f>results!M19</f>
-        <v>5.8800000000000019E-2</v>
-      </c>
-      <c r="E12" s="23">
-        <f>results!N19</f>
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="F12" s="23">
-        <f>results!O19</f>
-        <v>0.10159999999999997</v>
-      </c>
-      <c r="G12" s="23">
-        <f>results!P19</f>
+        <v>92</v>
+      </c>
+      <c r="D12" s="26">
+        <f>results!M18</f>
+        <v>2.3799999999999988E-2</v>
+      </c>
+      <c r="E12" s="27">
+        <f>results!N18</f>
+        <v>1.7000000000000071E-3</v>
+      </c>
+      <c r="F12" s="27">
+        <f>results!O18</f>
+        <v>9.5499999999999974E-2</v>
+      </c>
+      <c r="G12" s="27">
+        <f>results!P18</f>
         <v>0.19379999999999997</v>
       </c>
-      <c r="H12" s="23">
-        <f>results!Q19</f>
-        <v>4.2399999999999993E-2</v>
-      </c>
-      <c r="I12" s="23">
-        <f>results!R19</f>
-        <v>3.7700000000000067E-2</v>
-      </c>
-      <c r="J12" s="24">
-        <f>results!S19</f>
-        <v>0.11310000000000003</v>
-      </c>
-      <c r="K12" s="88"/>
+      <c r="H12" s="27">
+        <f>results!Q18</f>
+        <v>6.6699999999999982E-2</v>
+      </c>
+      <c r="I12" s="27">
+        <f>results!R18</f>
+        <v>4.2100000000000026E-2</v>
+      </c>
+      <c r="J12" s="28">
+        <f>results!S18</f>
+        <v>0.11100000000000004</v>
+      </c>
+      <c r="K12" s="87"/>
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
       <c r="N12" s="48"/>
       <c r="O12" s="48"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
-    </row>
-    <row r="13" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="97"/>
+    </row>
+    <row r="13" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="83"/>
       <c r="C13" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="29">
-        <f>results!M20</f>
-        <v>7.0500000000000063E-2</v>
-      </c>
-      <c r="E13" s="25">
-        <f>results!N20</f>
-        <v>1.3499999999999984E-2</v>
-      </c>
-      <c r="F13" s="25">
-        <f>results!O20</f>
-        <v>7.8299999999999981E-2</v>
-      </c>
-      <c r="G13" s="25">
-        <f>results!P20</f>
+        <v>93</v>
+      </c>
+      <c r="D13" s="22">
+        <f>results!M19</f>
+        <v>5.8800000000000019E-2</v>
+      </c>
+      <c r="E13" s="23">
+        <f>results!N19</f>
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="F13" s="23">
+        <f>results!O19</f>
+        <v>0.10159999999999997</v>
+      </c>
+      <c r="G13" s="23">
+        <f>results!P19</f>
         <v>0.19379999999999997</v>
       </c>
-      <c r="H13" s="25">
-        <f>results!Q20</f>
-        <v>2.8200000000000003E-2</v>
-      </c>
-      <c r="I13" s="88">
-        <f>results!R20</f>
-        <v>-7.7999999999999736E-3</v>
-      </c>
-      <c r="J13" s="30">
-        <f>results!S20</f>
-        <v>8.9800000000000046E-2</v>
-      </c>
-      <c r="K13" s="88"/>
+      <c r="H13" s="23">
+        <f>results!Q19</f>
+        <v>4.2399999999999993E-2</v>
+      </c>
+      <c r="I13" s="23">
+        <f>results!R19</f>
+        <v>3.7700000000000067E-2</v>
+      </c>
+      <c r="J13" s="24">
+        <f>results!S19</f>
+        <v>0.11310000000000003</v>
+      </c>
+      <c r="K13" s="87"/>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
@@ -8137,40 +8452,40 @@
       <c r="P13" s="48"/>
       <c r="Q13" s="48"/>
     </row>
-    <row r="14" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="83"/>
       <c r="C14" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="29">
-        <f>results!M21</f>
-        <v>5.7199999999999973E-2</v>
+        <f>results!M20</f>
+        <v>7.0500000000000063E-2</v>
       </c>
       <c r="E14" s="25">
-        <f>results!N21</f>
-        <v>7.6999999999999846E-3</v>
+        <f>results!N20</f>
+        <v>1.3499999999999984E-2</v>
       </c>
       <c r="F14" s="25">
-        <f>results!O21</f>
-        <v>8.9999999999999969E-2</v>
+        <f>results!O20</f>
+        <v>7.8299999999999981E-2</v>
       </c>
       <c r="G14" s="25">
-        <f>results!P21</f>
-        <v>0.11929999999999996</v>
+        <f>results!P20</f>
+        <v>0.19379999999999997</v>
       </c>
       <c r="H14" s="25">
-        <f>results!Q21</f>
-        <v>9.3999999999999639E-3</v>
-      </c>
-      <c r="I14" s="25">
-        <f>results!R21</f>
-        <v>3.6399999999999988E-2</v>
+        <f>results!Q20</f>
+        <v>2.8200000000000003E-2</v>
+      </c>
+      <c r="I14" s="87">
+        <f>results!R20</f>
+        <v>-7.7999999999999736E-3</v>
       </c>
       <c r="J14" s="30">
-        <f>results!S21</f>
-        <v>0.12640000000000001</v>
-      </c>
-      <c r="K14" s="88"/>
+        <f>results!S20</f>
+        <v>8.9800000000000046E-2</v>
+      </c>
+      <c r="K14" s="87"/>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
@@ -8178,40 +8493,40 @@
       <c r="P14" s="48"/>
       <c r="Q14" s="48"/>
     </row>
-    <row r="15" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="83"/>
       <c r="C15" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="26">
-        <f>results!M22</f>
-        <v>7.5600000000000056E-2</v>
-      </c>
-      <c r="E15" s="27">
-        <f>results!N22</f>
-        <v>1.8999999999999989E-2</v>
-      </c>
-      <c r="F15" s="27">
-        <f>results!O22</f>
-        <v>7.7199999999999991E-2</v>
-      </c>
-      <c r="G15" s="27">
-        <f>results!P22</f>
-        <v>6.0699999999999976E-2</v>
-      </c>
-      <c r="H15" s="90">
-        <f>results!Q22</f>
-        <v>-5.2000000000000379E-3</v>
-      </c>
-      <c r="I15" s="27">
-        <f>results!R22</f>
-        <v>4.9600000000000088E-2</v>
-      </c>
-      <c r="J15" s="28">
-        <f>results!S22</f>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="K15" s="88"/>
+        <v>95</v>
+      </c>
+      <c r="D15" s="29">
+        <f>results!M21</f>
+        <v>5.7199999999999973E-2</v>
+      </c>
+      <c r="E15" s="25">
+        <f>results!N21</f>
+        <v>7.6999999999999846E-3</v>
+      </c>
+      <c r="F15" s="25">
+        <f>results!O21</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="G15" s="25">
+        <f>results!P21</f>
+        <v>0.11929999999999996</v>
+      </c>
+      <c r="H15" s="25">
+        <f>results!Q21</f>
+        <v>9.3999999999999639E-3</v>
+      </c>
+      <c r="I15" s="25">
+        <f>results!R21</f>
+        <v>3.6399999999999988E-2</v>
+      </c>
+      <c r="J15" s="30">
+        <f>results!S21</f>
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="K15" s="87"/>
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
@@ -8219,1140 +8534,1433 @@
       <c r="P15" s="48"/>
       <c r="Q15" s="48"/>
     </row>
-    <row r="16" spans="2:22" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="93" t="s">
+    <row r="16" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="83"/>
+      <c r="C16" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="26">
+        <f>results!M22</f>
+        <v>7.5600000000000056E-2</v>
+      </c>
+      <c r="E16" s="27">
+        <f>results!N22</f>
+        <v>1.8999999999999989E-2</v>
+      </c>
+      <c r="F16" s="27">
+        <f>results!O22</f>
+        <v>7.7199999999999991E-2</v>
+      </c>
+      <c r="G16" s="27">
+        <f>results!P22</f>
+        <v>6.0699999999999976E-2</v>
+      </c>
+      <c r="H16" s="88">
+        <f>results!Q22</f>
+        <v>-5.2000000000000379E-3</v>
+      </c>
+      <c r="I16" s="27">
+        <f>results!R22</f>
+        <v>4.9600000000000088E-2</v>
+      </c>
+      <c r="J16" s="28">
+        <f>results!S22</f>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="K16" s="87"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" spans="2:18" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E17" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="93" t="s">
+      <c r="F17" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="93" t="s">
+      <c r="G17" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="93" t="s">
+      <c r="H17" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="93" t="s">
+      <c r="I17" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="93" t="s">
+      <c r="J17" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="80"/>
-    </row>
-    <row r="17" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-    </row>
-    <row r="18" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="33">
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="E18" s="43">
-        <v>-1.6300000000000009E-2</v>
-      </c>
-      <c r="F18" s="34">
-        <v>8.2999999999999963E-2</v>
-      </c>
-      <c r="G18" s="34">
-        <v>0.12140000000000006</v>
-      </c>
-      <c r="H18" s="34">
-        <v>2.4999999999999967E-2</v>
-      </c>
-      <c r="I18" s="34">
-        <v>4.2100000000000026E-2</v>
-      </c>
-      <c r="J18" s="35">
-        <v>0.11830000000000002</v>
-      </c>
-      <c r="K18" s="33">
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="L18" s="43">
-        <v>-4.9000000000000155E-3</v>
-      </c>
-      <c r="M18" s="34">
-        <v>8.2799999999999985E-2</v>
-      </c>
-      <c r="N18" s="34">
-        <v>0.12140000000000006</v>
-      </c>
-      <c r="O18" s="34">
-        <v>2.4999999999999967E-2</v>
-      </c>
-      <c r="P18" s="34">
-        <v>4.2100000000000026E-2</v>
-      </c>
-      <c r="Q18" s="35">
-        <v>0.12040000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="54">
-        <v>-1.9199999999999995E-2</v>
-      </c>
-      <c r="E19" s="45">
-        <v>-1.6800000000000009E-2</v>
-      </c>
-      <c r="F19" s="36">
-        <v>1.0999999999999899E-3</v>
-      </c>
-      <c r="G19" s="36">
-        <v>6.1499999999999999E-2</v>
-      </c>
-      <c r="H19" s="45">
-        <v>-4.8000000000000265E-3</v>
-      </c>
-      <c r="I19" s="45">
-        <v>-2.1499999999999964E-2</v>
-      </c>
-      <c r="J19" s="41">
-        <v>4.7600000000000031E-2</v>
-      </c>
-      <c r="K19" s="54">
-        <v>-1.9199999999999995E-2</v>
-      </c>
-      <c r="L19" s="45">
-        <v>-1.6800000000000009E-2</v>
-      </c>
-      <c r="M19" s="36">
-        <v>1.0999999999999899E-3</v>
-      </c>
-      <c r="N19" s="36">
-        <v>6.1499999999999999E-2</v>
-      </c>
-      <c r="O19" s="45">
-        <v>-4.8000000000000265E-3</v>
-      </c>
-      <c r="P19" s="45">
-        <v>-2.1499999999999964E-2</v>
-      </c>
-      <c r="Q19" s="41">
-        <v>4.7600000000000031E-2</v>
-      </c>
+      <c r="K17" s="91"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="80"/>
+    </row>
+    <row r="18" spans="2:18" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="80"/>
+    </row>
+    <row r="19" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
     </row>
     <row r="20" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="54">
-        <v>-0.11009999999999998</v>
-      </c>
-      <c r="E20" s="45">
-        <v>-8.8600000000000012E-2</v>
-      </c>
-      <c r="F20" s="45">
-        <v>-5.0500000000000017E-2</v>
-      </c>
-      <c r="G20" s="45">
-        <v>-0.43590000000000001</v>
-      </c>
-      <c r="H20" s="45">
-        <v>-0.11020000000000002</v>
-      </c>
-      <c r="I20" s="45">
-        <v>-6.7099999999999937E-2</v>
-      </c>
-      <c r="J20" s="55">
-        <v>-3.1200000000000006E-2</v>
-      </c>
-      <c r="K20" s="54">
-        <v>-0.2233</v>
-      </c>
-      <c r="L20" s="45">
-        <v>-0.1081</v>
-      </c>
-      <c r="M20" s="45">
-        <v>-0.1537</v>
-      </c>
-      <c r="N20" s="45">
-        <v>-0.42319999999999997</v>
-      </c>
-      <c r="O20" s="45">
-        <v>-0.16740000000000002</v>
-      </c>
-      <c r="P20" s="45">
-        <v>-0.22149999999999997</v>
-      </c>
-      <c r="Q20" s="55">
-        <v>-0.17589999999999997</v>
+        <v>87</v>
+      </c>
+      <c r="D20" s="33">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="E20" s="43">
+        <v>-1.6300000000000009E-2</v>
+      </c>
+      <c r="F20" s="34">
+        <v>8.2999999999999963E-2</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0.12140000000000006</v>
+      </c>
+      <c r="H20" s="34">
+        <v>2.4999999999999967E-2</v>
+      </c>
+      <c r="I20" s="34">
+        <v>4.2100000000000026E-2</v>
+      </c>
+      <c r="J20" s="35">
+        <v>0.11830000000000002</v>
+      </c>
+      <c r="K20" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="L20" s="43">
+        <v>-4.9000000000000155E-3</v>
+      </c>
+      <c r="M20" s="34">
+        <v>8.2799999999999985E-2</v>
+      </c>
+      <c r="N20" s="34">
+        <v>0.12140000000000006</v>
+      </c>
+      <c r="O20" s="34">
+        <v>2.4999999999999967E-2</v>
+      </c>
+      <c r="P20" s="34">
+        <v>4.2100000000000026E-2</v>
+      </c>
+      <c r="Q20" s="35">
+        <v>0.12040000000000001</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="46" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D21" s="54">
-        <v>-4.1999999999999815E-3</v>
+        <v>-1.9199999999999995E-2</v>
       </c>
       <c r="E21" s="45">
-        <v>-1.84E-2</v>
+        <v>-1.6800000000000009E-2</v>
       </c>
       <c r="F21" s="36">
-        <v>7.839999999999997E-2</v>
+        <v>1.0999999999999899E-3</v>
       </c>
       <c r="G21" s="36">
-        <v>5.7200000000000029E-2</v>
-      </c>
-      <c r="H21" s="36">
-        <v>5.0699999999999967E-2</v>
-      </c>
-      <c r="I21" s="36">
-        <v>4.4800000000000062E-2</v>
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="H21" s="45">
+        <v>-4.8000000000000265E-3</v>
+      </c>
+      <c r="I21" s="45">
+        <v>-2.1499999999999964E-2</v>
       </c>
       <c r="J21" s="41">
-        <v>0.11890000000000006</v>
+        <v>4.7600000000000031E-2</v>
       </c>
       <c r="K21" s="54">
-        <v>-2.0600000000000007E-2</v>
+        <v>-1.9199999999999995E-2</v>
       </c>
       <c r="L21" s="45">
-        <v>-4.9800000000000011E-2</v>
+        <v>-1.6800000000000009E-2</v>
       </c>
       <c r="M21" s="36">
-        <v>6.0000000000000053E-3</v>
+        <v>1.0999999999999899E-3</v>
       </c>
       <c r="N21" s="36">
-        <v>0.10350000000000004</v>
+        <v>6.1499999999999999E-2</v>
       </c>
       <c r="O21" s="45">
-        <v>-1.040000000000002E-2</v>
+        <v>-4.8000000000000265E-3</v>
       </c>
       <c r="P21" s="45">
-        <v>-7.8999999999999626E-3</v>
+        <v>-2.1499999999999964E-2</v>
       </c>
       <c r="Q21" s="41">
-        <v>2.5299999999999989E-2</v>
+        <v>4.7600000000000031E-2</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="40">
-        <v>2.3799999999999988E-2</v>
-      </c>
-      <c r="E22" s="36">
-        <v>1.7000000000000071E-3</v>
-      </c>
-      <c r="F22" s="36">
-        <v>9.5499999999999974E-2</v>
-      </c>
-      <c r="G22" s="36">
-        <v>0.19379999999999997</v>
-      </c>
-      <c r="H22" s="36">
-        <v>6.6699999999999982E-2</v>
-      </c>
-      <c r="I22" s="36">
-        <v>4.2100000000000026E-2</v>
-      </c>
-      <c r="J22" s="41">
-        <v>0.11100000000000004</v>
-      </c>
-      <c r="K22" s="40">
-        <v>2.3799999999999988E-2</v>
-      </c>
-      <c r="L22" s="36">
-        <v>1.7000000000000071E-3</v>
-      </c>
-      <c r="M22" s="36">
-        <v>9.5499999999999974E-2</v>
-      </c>
-      <c r="N22" s="36">
-        <v>0.19379999999999997</v>
-      </c>
-      <c r="O22" s="36">
-        <v>6.6699999999999982E-2</v>
-      </c>
-      <c r="P22" s="36">
-        <v>4.2100000000000026E-2</v>
-      </c>
-      <c r="Q22" s="41">
-        <v>0.11100000000000004</v>
+        <v>12</v>
+      </c>
+      <c r="D22" s="54">
+        <v>-0.11009999999999998</v>
+      </c>
+      <c r="E22" s="45">
+        <v>-8.8600000000000012E-2</v>
+      </c>
+      <c r="F22" s="45">
+        <v>-5.0500000000000017E-2</v>
+      </c>
+      <c r="G22" s="45">
+        <v>-0.43590000000000001</v>
+      </c>
+      <c r="H22" s="45">
+        <v>-0.11020000000000002</v>
+      </c>
+      <c r="I22" s="45">
+        <v>-6.7099999999999937E-2</v>
+      </c>
+      <c r="J22" s="55">
+        <v>-3.1200000000000006E-2</v>
+      </c>
+      <c r="K22" s="54">
+        <v>-0.2233</v>
+      </c>
+      <c r="L22" s="45">
+        <v>-0.1081</v>
+      </c>
+      <c r="M22" s="45">
+        <v>-0.1537</v>
+      </c>
+      <c r="N22" s="45">
+        <v>-0.42319999999999997</v>
+      </c>
+      <c r="O22" s="45">
+        <v>-0.16740000000000002</v>
+      </c>
+      <c r="P22" s="45">
+        <v>-0.22149999999999997</v>
+      </c>
+      <c r="Q22" s="55">
+        <v>-0.17589999999999997</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="40">
-        <v>5.8800000000000019E-2</v>
-      </c>
-      <c r="E23" s="36">
-        <v>2.0400000000000001E-2</v>
+        <v>89</v>
+      </c>
+      <c r="D23" s="54">
+        <v>-4.1999999999999815E-3</v>
+      </c>
+      <c r="E23" s="45">
+        <v>-1.84E-2</v>
       </c>
       <c r="F23" s="36">
-        <v>0.10159999999999997</v>
+        <v>7.839999999999997E-2</v>
       </c>
       <c r="G23" s="36">
-        <v>0.19379999999999997</v>
+        <v>5.7200000000000029E-2</v>
       </c>
       <c r="H23" s="36">
-        <v>4.2399999999999993E-2</v>
+        <v>5.0699999999999967E-2</v>
       </c>
       <c r="I23" s="36">
-        <v>3.7700000000000067E-2</v>
+        <v>4.4800000000000062E-2</v>
       </c>
       <c r="J23" s="41">
-        <v>0.11310000000000003</v>
-      </c>
-      <c r="K23" s="40">
-        <v>7.0500000000000063E-2</v>
-      </c>
-      <c r="L23" s="36">
-        <v>1.3499999999999984E-2</v>
+        <v>0.11890000000000006</v>
+      </c>
+      <c r="K23" s="54">
+        <v>-2.0600000000000007E-2</v>
+      </c>
+      <c r="L23" s="45">
+        <v>-4.9800000000000011E-2</v>
       </c>
       <c r="M23" s="36">
-        <v>7.8299999999999981E-2</v>
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="N23" s="36">
-        <v>0.19379999999999997</v>
-      </c>
-      <c r="O23" s="36">
-        <v>2.8200000000000003E-2</v>
+        <v>0.10350000000000004</v>
+      </c>
+      <c r="O23" s="45">
+        <v>-1.040000000000002E-2</v>
       </c>
       <c r="P23" s="45">
-        <v>-7.7999999999999736E-3</v>
+        <v>-7.8999999999999626E-3</v>
       </c>
       <c r="Q23" s="41">
-        <v>8.9800000000000046E-2</v>
+        <v>2.5299999999999989E-2</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="40">
+        <v>2.3799999999999988E-2</v>
+      </c>
+      <c r="E24" s="36">
+        <v>1.7000000000000071E-3</v>
+      </c>
+      <c r="F24" s="36">
+        <v>9.5499999999999974E-2</v>
+      </c>
+      <c r="G24" s="36">
+        <v>0.19379999999999997</v>
+      </c>
+      <c r="H24" s="36">
+        <v>6.6699999999999982E-2</v>
+      </c>
+      <c r="I24" s="36">
+        <v>4.2100000000000026E-2</v>
+      </c>
+      <c r="J24" s="41">
+        <v>0.11100000000000004</v>
+      </c>
+      <c r="K24" s="40">
+        <v>2.3799999999999988E-2</v>
+      </c>
+      <c r="L24" s="36">
+        <v>1.7000000000000071E-3</v>
+      </c>
+      <c r="M24" s="36">
+        <v>9.5499999999999974E-2</v>
+      </c>
+      <c r="N24" s="36">
+        <v>0.19379999999999997</v>
+      </c>
+      <c r="O24" s="36">
+        <v>6.6699999999999982E-2</v>
+      </c>
+      <c r="P24" s="36">
+        <v>4.2100000000000026E-2</v>
+      </c>
+      <c r="Q24" s="41">
+        <v>0.11100000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="40">
+        <v>5.8800000000000019E-2</v>
+      </c>
+      <c r="E25" s="36">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="F25" s="36">
+        <v>0.10159999999999997</v>
+      </c>
+      <c r="G25" s="36">
+        <v>0.19379999999999997</v>
+      </c>
+      <c r="H25" s="36">
+        <v>4.2399999999999993E-2</v>
+      </c>
+      <c r="I25" s="36">
+        <v>3.7700000000000067E-2</v>
+      </c>
+      <c r="J25" s="41">
+        <v>0.11310000000000003</v>
+      </c>
+      <c r="K25" s="40">
+        <v>7.0500000000000063E-2</v>
+      </c>
+      <c r="L25" s="36">
+        <v>1.3499999999999984E-2</v>
+      </c>
+      <c r="M25" s="36">
+        <v>7.8299999999999981E-2</v>
+      </c>
+      <c r="N25" s="36">
+        <v>0.19379999999999997</v>
+      </c>
+      <c r="O25" s="36">
+        <v>2.8200000000000003E-2</v>
+      </c>
+      <c r="P25" s="45">
+        <v>-7.7999999999999736E-3</v>
+      </c>
+      <c r="Q25" s="41">
+        <v>8.9800000000000046E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D26" s="37">
         <v>5.7199999999999973E-2</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E26" s="38">
         <v>7.6999999999999846E-3</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F26" s="38">
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G26" s="38">
         <v>0.11929999999999996</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H26" s="38">
         <v>9.3999999999999639E-3</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I26" s="38">
         <v>3.6399999999999988E-2</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J26" s="39">
         <v>0.12640000000000001</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K26" s="37">
         <v>7.5600000000000056E-2</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L26" s="38">
         <v>1.8999999999999989E-2</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M26" s="38">
         <v>7.7199999999999991E-2</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N26" s="38">
         <v>6.0699999999999976E-2</v>
       </c>
-      <c r="O24" s="44">
+      <c r="O26" s="44">
         <v>-5.2000000000000379E-3</v>
       </c>
-      <c r="P24" s="38">
+      <c r="P26" s="38">
         <v>4.9600000000000088E-2</v>
       </c>
-      <c r="Q24" s="39">
+      <c r="Q26" s="39">
         <v>0.11249999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="46"/>
-      <c r="D25" s="49" t="s">
+    <row r="27" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="46"/>
+      <c r="D27" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E27" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F27" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G27" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H27" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="49" t="s">
+      <c r="I27" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="49" t="s">
+      <c r="J27" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="49" t="s">
+      <c r="K27" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="49" t="s">
+      <c r="L27" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="49" t="s">
+      <c r="M27" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="N25" s="49" t="s">
+      <c r="N27" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="O25" s="49" t="s">
+      <c r="O27" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="49" t="s">
+      <c r="P27" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="49" t="s">
+      <c r="Q27" s="49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="48"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-    </row>
-    <row r="27" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-    </row>
-    <row r="28" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="23">
-        <f t="shared" ref="E28:J28" si="0">L18-E18</f>
-        <v>1.1399999999999993E-2</v>
-      </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="24">
-        <f t="shared" si="0"/>
-        <v>2.0999999999999908E-3</v>
-      </c>
-      <c r="K28" s="84"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="23">
-        <f>F18-M18</f>
-        <v>1.9999999999997797E-4</v>
-      </c>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="83"/>
-    </row>
-    <row r="29" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="83"/>
+    <row r="28" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="48"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+    </row>
+    <row r="29" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="48"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
     </row>
     <row r="30" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="25">
-        <f t="shared" ref="G30:G31" si="1">N20-G20</f>
-        <v>1.2700000000000045E-2</v>
-      </c>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="29">
-        <f>D20-K20</f>
-        <v>0.11320000000000002</v>
-      </c>
-      <c r="L30" s="25">
-        <f>E20-L20</f>
-        <v>1.949999999999999E-2</v>
-      </c>
-      <c r="M30" s="25">
-        <f>F20-M20</f>
-        <v>0.10319999999999999</v>
-      </c>
-      <c r="N30" s="88"/>
-      <c r="O30" s="25">
-        <f>H20-O20</f>
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="P30" s="25">
-        <f>I20-P20</f>
-        <v>0.15440000000000004</v>
-      </c>
-      <c r="Q30" s="30">
-        <f>J20-Q20</f>
-        <v>0.14469999999999997</v>
-      </c>
+      <c r="C30" s="81"/>
+      <c r="D30" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
       <c r="R30" s="83"/>
     </row>
     <row r="31" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="25">
-        <f t="shared" si="1"/>
-        <v>4.6300000000000008E-2</v>
-      </c>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="29">
-        <f>D21-K21</f>
-        <v>1.6400000000000026E-2</v>
-      </c>
-      <c r="L31" s="25">
-        <f>E21-L21</f>
-        <v>3.1400000000000011E-2</v>
-      </c>
-      <c r="M31" s="25">
-        <f>F21-M21</f>
-        <v>7.2399999999999964E-2</v>
-      </c>
-      <c r="N31" s="88"/>
-      <c r="O31" s="25">
-        <f>H21-O21</f>
-        <v>6.1099999999999988E-2</v>
-      </c>
-      <c r="P31" s="25">
-        <f>I21-P21</f>
-        <v>5.2700000000000025E-2</v>
-      </c>
-      <c r="Q31" s="30">
-        <f>J21-Q21</f>
-        <v>9.3600000000000072E-2</v>
+        <v>87</v>
+      </c>
+      <c r="D31" s="110">
+        <f>K20-D20</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="111">
+        <f t="shared" ref="E31:J31" si="8">L20-E20</f>
+        <v>1.1399999999999993E-2</v>
+      </c>
+      <c r="F31" s="111">
+        <f t="shared" si="8"/>
+        <v>-1.9999999999997797E-4</v>
+      </c>
+      <c r="G31" s="111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="111">
+        <f t="shared" si="8"/>
+        <v>2.0999999999999908E-3</v>
+      </c>
+      <c r="K31" s="110">
+        <f>-D31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="111">
+        <f t="shared" ref="L31:Q31" si="9">-E31</f>
+        <v>-1.1399999999999993E-2</v>
+      </c>
+      <c r="M31" s="111">
+        <f t="shared" si="9"/>
+        <v>1.9999999999997797E-4</v>
+      </c>
+      <c r="N31" s="111">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="111">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="111">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="112">
+        <f t="shared" si="9"/>
+        <v>-2.0999999999999908E-3</v>
       </c>
       <c r="R31" s="83"/>
     </row>
     <row r="32" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C32" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="89"/>
+        <v>10</v>
+      </c>
+      <c r="D32" s="107">
+        <f t="shared" ref="D32:D37" si="10">K21-D21</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="105">
+        <f t="shared" ref="E32:E37" si="11">L21-E21</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="105">
+        <f t="shared" ref="F32:F37" si="12">M21-F21</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="105">
+        <f t="shared" ref="G32:G37" si="13">N21-G21</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="105">
+        <f t="shared" ref="H32:H37" si="14">O21-H21</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="105">
+        <f t="shared" ref="I32:I37" si="15">P21-I21</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="105">
+        <f t="shared" ref="J32:J37" si="16">Q21-J21</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="107">
+        <f t="shared" ref="K32:K37" si="17">-D32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="105">
+        <f t="shared" ref="L32:L37" si="18">-E32</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="105">
+        <f t="shared" ref="M32:M37" si="19">-F32</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="105">
+        <f t="shared" ref="N32:N37" si="20">-G32</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="105">
+        <f t="shared" ref="O32:O37" si="21">-H32</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="105">
+        <f t="shared" ref="P32:P37" si="22">-I32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="109">
+        <f t="shared" ref="Q32:Q37" si="23">-J32</f>
+        <v>0</v>
+      </c>
       <c r="R32" s="83"/>
     </row>
     <row r="33" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="29">
-        <f t="shared" ref="D33:D34" si="2">K23-D23</f>
-        <v>1.1700000000000044E-2</v>
-      </c>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="25">
-        <f>E23-L23</f>
-        <v>6.9000000000000172E-3</v>
-      </c>
-      <c r="M33" s="25">
-        <f>F23-M23</f>
-        <v>2.3299999999999987E-2</v>
-      </c>
-      <c r="N33" s="88"/>
-      <c r="O33" s="25">
-        <f>H23-O23</f>
-        <v>1.419999999999999E-2</v>
-      </c>
-      <c r="P33" s="25">
-        <f>I23-P23</f>
-        <v>4.550000000000004E-2</v>
-      </c>
-      <c r="Q33" s="30">
-        <f>J23-Q23</f>
-        <v>2.3299999999999987E-2</v>
+        <v>12</v>
+      </c>
+      <c r="D33" s="107">
+        <f t="shared" si="10"/>
+        <v>-0.11320000000000002</v>
+      </c>
+      <c r="E33" s="105">
+        <f t="shared" si="11"/>
+        <v>-1.949999999999999E-2</v>
+      </c>
+      <c r="F33" s="105">
+        <f t="shared" si="12"/>
+        <v>-0.10319999999999999</v>
+      </c>
+      <c r="G33" s="105">
+        <f t="shared" si="13"/>
+        <v>1.2700000000000045E-2</v>
+      </c>
+      <c r="H33" s="105">
+        <f t="shared" si="14"/>
+        <v>-5.7200000000000001E-2</v>
+      </c>
+      <c r="I33" s="105">
+        <f t="shared" si="15"/>
+        <v>-0.15440000000000004</v>
+      </c>
+      <c r="J33" s="105">
+        <f t="shared" si="16"/>
+        <v>-0.14469999999999997</v>
+      </c>
+      <c r="K33" s="107">
+        <f t="shared" si="17"/>
+        <v>0.11320000000000002</v>
+      </c>
+      <c r="L33" s="105">
+        <f t="shared" si="18"/>
+        <v>1.949999999999999E-2</v>
+      </c>
+      <c r="M33" s="105">
+        <f t="shared" si="19"/>
+        <v>0.10319999999999999</v>
+      </c>
+      <c r="N33" s="105">
+        <f t="shared" si="20"/>
+        <v>-1.2700000000000045E-2</v>
+      </c>
+      <c r="O33" s="105">
+        <f t="shared" si="21"/>
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="P33" s="105">
+        <f t="shared" si="22"/>
+        <v>0.15440000000000004</v>
+      </c>
+      <c r="Q33" s="109">
+        <f t="shared" si="23"/>
+        <v>0.14469999999999997</v>
       </c>
       <c r="R33" s="83"/>
     </row>
     <row r="34" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="107">
+        <f t="shared" si="10"/>
+        <v>-1.6400000000000026E-2</v>
+      </c>
+      <c r="E34" s="105">
+        <f t="shared" si="11"/>
+        <v>-3.1400000000000011E-2</v>
+      </c>
+      <c r="F34" s="105">
+        <f t="shared" si="12"/>
+        <v>-7.2399999999999964E-2</v>
+      </c>
+      <c r="G34" s="105">
+        <f t="shared" si="13"/>
+        <v>4.6300000000000008E-2</v>
+      </c>
+      <c r="H34" s="105">
+        <f t="shared" si="14"/>
+        <v>-6.1099999999999988E-2</v>
+      </c>
+      <c r="I34" s="105">
+        <f t="shared" si="15"/>
+        <v>-5.2700000000000025E-2</v>
+      </c>
+      <c r="J34" s="105">
+        <f t="shared" si="16"/>
+        <v>-9.3600000000000072E-2</v>
+      </c>
+      <c r="K34" s="107">
+        <f t="shared" si="17"/>
+        <v>1.6400000000000026E-2</v>
+      </c>
+      <c r="L34" s="105">
+        <f t="shared" si="18"/>
+        <v>3.1400000000000011E-2</v>
+      </c>
+      <c r="M34" s="105">
+        <f t="shared" si="19"/>
+        <v>7.2399999999999964E-2</v>
+      </c>
+      <c r="N34" s="105">
+        <f t="shared" si="20"/>
+        <v>-4.6300000000000008E-2</v>
+      </c>
+      <c r="O34" s="105">
+        <f t="shared" si="21"/>
+        <v>6.1099999999999988E-2</v>
+      </c>
+      <c r="P34" s="105">
+        <f t="shared" si="22"/>
+        <v>5.2700000000000025E-2</v>
+      </c>
+      <c r="Q34" s="109">
+        <f t="shared" si="23"/>
+        <v>9.3600000000000072E-2</v>
+      </c>
+      <c r="R34" s="83"/>
+    </row>
+    <row r="35" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="107">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="105">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="105">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="105">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="105">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="105">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="105">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="107">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="105">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="105">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="105">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="105">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="105">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="109">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="83"/>
+    </row>
+    <row r="36" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="107">
+        <f t="shared" si="10"/>
+        <v>1.1700000000000044E-2</v>
+      </c>
+      <c r="E36" s="105">
+        <f t="shared" si="11"/>
+        <v>-6.9000000000000172E-3</v>
+      </c>
+      <c r="F36" s="105">
+        <f t="shared" si="12"/>
+        <v>-2.3299999999999987E-2</v>
+      </c>
+      <c r="G36" s="105">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="105">
+        <f t="shared" si="14"/>
+        <v>-1.419999999999999E-2</v>
+      </c>
+      <c r="I36" s="105">
+        <f t="shared" si="15"/>
+        <v>-4.550000000000004E-2</v>
+      </c>
+      <c r="J36" s="105">
+        <f t="shared" si="16"/>
+        <v>-2.3299999999999987E-2</v>
+      </c>
+      <c r="K36" s="107">
+        <f t="shared" si="17"/>
+        <v>-1.1700000000000044E-2</v>
+      </c>
+      <c r="L36" s="105">
+        <f t="shared" si="18"/>
+        <v>6.9000000000000172E-3</v>
+      </c>
+      <c r="M36" s="105">
+        <f t="shared" si="19"/>
+        <v>2.3299999999999987E-2</v>
+      </c>
+      <c r="N36" s="105">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="105">
+        <f t="shared" si="21"/>
+        <v>1.419999999999999E-2</v>
+      </c>
+      <c r="P36" s="105">
+        <f t="shared" si="22"/>
+        <v>4.550000000000004E-2</v>
+      </c>
+      <c r="Q36" s="109">
+        <f t="shared" si="23"/>
+        <v>2.3299999999999987E-2</v>
+      </c>
+      <c r="R36" s="83"/>
+    </row>
+    <row r="37" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="26">
-        <f t="shared" si="2"/>
+      <c r="D37" s="113">
+        <f t="shared" si="10"/>
         <v>1.8400000000000083E-2</v>
       </c>
-      <c r="E34" s="27">
-        <f t="shared" ref="E34" si="3">L24-E24</f>
+      <c r="E37" s="114">
+        <f t="shared" si="11"/>
         <v>1.1300000000000004E-2</v>
       </c>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="27">
-        <f t="shared" ref="I34" si="4">P24-I24</f>
+      <c r="F37" s="114">
+        <f t="shared" si="12"/>
+        <v>-1.2799999999999978E-2</v>
+      </c>
+      <c r="G37" s="114">
+        <f t="shared" si="13"/>
+        <v>-5.8599999999999985E-2</v>
+      </c>
+      <c r="H37" s="114">
+        <f t="shared" si="14"/>
+        <v>-1.4600000000000002E-2</v>
+      </c>
+      <c r="I37" s="114">
+        <f t="shared" si="15"/>
         <v>1.3200000000000101E-2</v>
       </c>
-      <c r="J34" s="91"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="27">
-        <f>F24-M24</f>
+      <c r="J37" s="114">
+        <f t="shared" si="16"/>
+        <v>-1.3900000000000023E-2</v>
+      </c>
+      <c r="K37" s="113">
+        <f t="shared" si="17"/>
+        <v>-1.8400000000000083E-2</v>
+      </c>
+      <c r="L37" s="114">
+        <f t="shared" si="18"/>
+        <v>-1.1300000000000004E-2</v>
+      </c>
+      <c r="M37" s="114">
+        <f t="shared" si="19"/>
         <v>1.2799999999999978E-2</v>
       </c>
-      <c r="N34" s="27">
-        <f>G24-N24</f>
+      <c r="N37" s="114">
+        <f t="shared" si="20"/>
         <v>5.8599999999999985E-2</v>
       </c>
-      <c r="O34" s="27">
-        <f>H24-O24</f>
+      <c r="O37" s="114">
+        <f t="shared" si="21"/>
         <v>1.4600000000000002E-2</v>
       </c>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="28">
-        <f>J24-Q24</f>
+      <c r="P37" s="114">
+        <f t="shared" si="22"/>
+        <v>-1.3200000000000101E-2</v>
+      </c>
+      <c r="Q37" s="115">
+        <f t="shared" si="23"/>
         <v>1.3900000000000023E-2</v>
       </c>
-      <c r="R34" s="83"/>
-    </row>
-    <row r="35" spans="3:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="83"/>
-      <c r="D35" s="93" t="s">
+      <c r="R37" s="83"/>
+    </row>
+    <row r="38" spans="3:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="83"/>
+      <c r="D38" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="93" t="s">
+      <c r="E38" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="93" t="s">
+      <c r="F38" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="93" t="s">
+      <c r="G38" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="93" t="s">
+      <c r="H38" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="93" t="s">
+      <c r="I38" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="J35" s="93" t="s">
+      <c r="J38" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="94" t="s">
+      <c r="K38" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="L35" s="93" t="s">
+      <c r="L38" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="M35" s="93" t="s">
+      <c r="M38" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="N35" s="93" t="s">
+      <c r="N38" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="O35" s="93" t="s">
+      <c r="O38" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="P35" s="93" t="s">
+      <c r="P38" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="Q35" s="93" t="s">
+      <c r="Q38" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="R35" s="83"/>
-    </row>
-    <row r="36" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="83"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="83"/>
-    </row>
-    <row r="37" spans="3:18" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="48"/>
-      <c r="D37" s="53" t="s">
+      <c r="R38" s="83"/>
+    </row>
+    <row r="39" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="83"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+    </row>
+    <row r="40" spans="3:18" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="48"/>
+      <c r="D40" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E40" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F40" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="53" t="s">
+      <c r="G40" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="53" t="s">
+      <c r="H40" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="53" t="s">
+      <c r="I40" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="53" t="s">
+      <c r="J40" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="K37" s="53" t="s">
+      <c r="K40" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="L37" s="53" t="s">
+      <c r="L40" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="M37" s="53" t="s">
+      <c r="M40" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="N37" s="53" t="s">
+      <c r="N40" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="53" t="s">
+      <c r="O40" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="P37" s="53" t="s">
+      <c r="P40" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="Q37" s="53" t="s">
+      <c r="Q40" s="53" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="42">
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="E38" s="42">
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="F38" s="51">
-        <v>-1.9199999999999995E-2</v>
-      </c>
-      <c r="G38" s="51">
-        <v>-1.9199999999999995E-2</v>
-      </c>
-      <c r="H38" s="51">
-        <v>-0.11009999999999998</v>
-      </c>
-      <c r="I38" s="51">
-        <v>-0.2233</v>
-      </c>
-      <c r="J38" s="51">
-        <v>-4.1999999999999815E-3</v>
-      </c>
-      <c r="K38" s="51">
-        <v>-2.0600000000000007E-2</v>
-      </c>
-      <c r="L38" s="42">
-        <v>2.3799999999999988E-2</v>
-      </c>
-      <c r="M38" s="42">
-        <v>2.3799999999999988E-2</v>
-      </c>
-      <c r="N38" s="42">
-        <v>5.8800000000000019E-2</v>
-      </c>
-      <c r="O38" s="42">
-        <v>7.0500000000000063E-2</v>
-      </c>
-      <c r="P38" s="42">
-        <v>5.7199999999999973E-2</v>
-      </c>
-      <c r="Q38" s="42">
-        <v>7.5600000000000056E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="51">
-        <v>-1.6300000000000009E-2</v>
-      </c>
-      <c r="E39" s="51">
-        <v>-4.9000000000000155E-3</v>
-      </c>
-      <c r="F39" s="51">
-        <v>-1.6800000000000009E-2</v>
-      </c>
-      <c r="G39" s="51">
-        <v>-1.6800000000000009E-2</v>
-      </c>
-      <c r="H39" s="51">
-        <v>-8.8600000000000012E-2</v>
-      </c>
-      <c r="I39" s="51">
-        <v>-0.1081</v>
-      </c>
-      <c r="J39" s="51">
-        <v>-1.84E-2</v>
-      </c>
-      <c r="K39" s="51">
-        <v>-4.9800000000000011E-2</v>
-      </c>
-      <c r="L39" s="42">
-        <v>1.7000000000000071E-3</v>
-      </c>
-      <c r="M39" s="42">
-        <v>1.7000000000000071E-3</v>
-      </c>
-      <c r="N39" s="42">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="O39" s="42">
-        <v>1.3499999999999984E-2</v>
-      </c>
-      <c r="P39" s="42">
-        <v>7.6999999999999846E-3</v>
-      </c>
-      <c r="Q39" s="42">
-        <v>1.8999999999999989E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="42">
-        <v>8.2999999999999963E-2</v>
-      </c>
-      <c r="E40" s="42">
-        <v>8.2799999999999985E-2</v>
-      </c>
-      <c r="F40" s="42">
-        <v>1.0999999999999899E-3</v>
-      </c>
-      <c r="G40" s="42">
-        <v>1.0999999999999899E-3</v>
-      </c>
-      <c r="H40" s="51">
-        <v>-5.0500000000000017E-2</v>
-      </c>
-      <c r="I40" s="51">
-        <v>-0.1537</v>
-      </c>
-      <c r="J40" s="42">
-        <v>7.839999999999997E-2</v>
-      </c>
-      <c r="K40" s="42">
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="L40" s="42">
-        <v>9.5499999999999974E-2</v>
-      </c>
-      <c r="M40" s="42">
-        <v>9.5499999999999974E-2</v>
-      </c>
-      <c r="N40" s="42">
-        <v>0.10159999999999997</v>
-      </c>
-      <c r="O40" s="42">
-        <v>7.8299999999999981E-2</v>
-      </c>
-      <c r="P40" s="42">
-        <v>8.9999999999999969E-2</v>
-      </c>
-      <c r="Q40" s="42">
-        <v>7.7199999999999991E-2</v>
       </c>
     </row>
     <row r="41" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" s="50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D41" s="42">
-        <v>0.12140000000000006</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="E41" s="42">
-        <v>0.12140000000000006</v>
-      </c>
-      <c r="F41" s="42">
-        <v>6.1499999999999999E-2</v>
-      </c>
-      <c r="G41" s="42">
-        <v>6.1499999999999999E-2</v>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F41" s="51">
+        <v>-1.9199999999999995E-2</v>
+      </c>
+      <c r="G41" s="51">
+        <v>-1.9199999999999995E-2</v>
       </c>
       <c r="H41" s="51">
-        <v>-0.43590000000000001</v>
+        <v>-0.11009999999999998</v>
       </c>
       <c r="I41" s="51">
-        <v>-0.42319999999999997</v>
-      </c>
-      <c r="J41" s="42">
-        <v>5.7200000000000029E-2</v>
-      </c>
-      <c r="K41" s="42">
-        <v>0.10350000000000004</v>
+        <v>-0.2233</v>
+      </c>
+      <c r="J41" s="51">
+        <v>-4.1999999999999815E-3</v>
+      </c>
+      <c r="K41" s="51">
+        <v>-2.0600000000000007E-2</v>
       </c>
       <c r="L41" s="42">
-        <v>0.19379999999999997</v>
+        <v>2.3799999999999988E-2</v>
       </c>
       <c r="M41" s="42">
-        <v>0.19379999999999997</v>
+        <v>2.3799999999999988E-2</v>
       </c>
       <c r="N41" s="42">
-        <v>0.19379999999999997</v>
+        <v>5.8800000000000019E-2</v>
       </c>
       <c r="O41" s="42">
-        <v>0.19379999999999997</v>
+        <v>7.0500000000000063E-2</v>
       </c>
       <c r="P41" s="42">
-        <v>0.11929999999999996</v>
+        <v>5.7199999999999973E-2</v>
       </c>
       <c r="Q41" s="42">
-        <v>6.0699999999999976E-2</v>
+        <v>7.5600000000000056E-2</v>
       </c>
     </row>
     <row r="42" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="42">
-        <v>2.4999999999999967E-2</v>
-      </c>
-      <c r="E42" s="42">
-        <v>2.4999999999999967E-2</v>
+        <v>35</v>
+      </c>
+      <c r="D42" s="51">
+        <v>-1.6300000000000009E-2</v>
+      </c>
+      <c r="E42" s="51">
+        <v>-4.9000000000000155E-3</v>
       </c>
       <c r="F42" s="51">
-        <v>-4.8000000000000265E-3</v>
+        <v>-1.6800000000000009E-2</v>
       </c>
       <c r="G42" s="51">
-        <v>-4.8000000000000265E-3</v>
+        <v>-1.6800000000000009E-2</v>
       </c>
       <c r="H42" s="51">
-        <v>-0.11020000000000002</v>
+        <v>-8.8600000000000012E-2</v>
       </c>
       <c r="I42" s="51">
-        <v>-0.16740000000000002</v>
-      </c>
-      <c r="J42" s="42">
-        <v>5.0699999999999967E-2</v>
+        <v>-0.1081</v>
+      </c>
+      <c r="J42" s="51">
+        <v>-1.84E-2</v>
       </c>
       <c r="K42" s="51">
-        <v>-1.040000000000002E-2</v>
+        <v>-4.9800000000000011E-2</v>
       </c>
       <c r="L42" s="42">
-        <v>6.6699999999999982E-2</v>
+        <v>1.7000000000000071E-3</v>
       </c>
       <c r="M42" s="42">
-        <v>6.6699999999999982E-2</v>
+        <v>1.7000000000000071E-3</v>
       </c>
       <c r="N42" s="42">
-        <v>4.2399999999999993E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="O42" s="42">
-        <v>2.8200000000000003E-2</v>
+        <v>1.3499999999999984E-2</v>
       </c>
       <c r="P42" s="42">
-        <v>9.3999999999999639E-3</v>
-      </c>
-      <c r="Q42" s="51">
-        <v>-5.2000000000000379E-3</v>
+        <v>7.6999999999999846E-3</v>
+      </c>
+      <c r="Q42" s="42">
+        <v>1.8999999999999989E-2</v>
       </c>
     </row>
     <row r="43" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D43" s="42">
-        <v>4.2100000000000026E-2</v>
+        <v>8.2999999999999963E-2</v>
       </c>
       <c r="E43" s="42">
-        <v>4.2100000000000026E-2</v>
-      </c>
-      <c r="F43" s="51">
-        <v>-2.1499999999999964E-2</v>
-      </c>
-      <c r="G43" s="51">
-        <v>-2.1499999999999964E-2</v>
+        <v>8.2799999999999985E-2</v>
+      </c>
+      <c r="F43" s="42">
+        <v>1.0999999999999899E-3</v>
+      </c>
+      <c r="G43" s="42">
+        <v>1.0999999999999899E-3</v>
       </c>
       <c r="H43" s="51">
-        <v>-6.7099999999999937E-2</v>
+        <v>-5.0500000000000017E-2</v>
       </c>
       <c r="I43" s="51">
-        <v>-0.22149999999999997</v>
+        <v>-0.1537</v>
       </c>
       <c r="J43" s="42">
-        <v>4.4800000000000062E-2</v>
-      </c>
-      <c r="K43" s="51">
-        <v>-7.8999999999999626E-3</v>
+        <v>7.839999999999997E-2</v>
+      </c>
+      <c r="K43" s="42">
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="L43" s="42">
-        <v>4.2100000000000026E-2</v>
+        <v>9.5499999999999974E-2</v>
       </c>
       <c r="M43" s="42">
-        <v>4.2100000000000026E-2</v>
+        <v>9.5499999999999974E-2</v>
       </c>
       <c r="N43" s="42">
-        <v>3.7700000000000067E-2</v>
-      </c>
-      <c r="O43" s="51">
-        <v>-7.7999999999999736E-3</v>
+        <v>0.10159999999999997</v>
+      </c>
+      <c r="O43" s="42">
+        <v>7.8299999999999981E-2</v>
       </c>
       <c r="P43" s="42">
-        <v>3.6399999999999988E-2</v>
+        <v>8.9999999999999969E-2</v>
       </c>
       <c r="Q43" s="42">
-        <v>4.9600000000000088E-2</v>
+        <v>7.7199999999999991E-2</v>
       </c>
     </row>
     <row r="44" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C44" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="42">
+        <v>0.12140000000000006</v>
+      </c>
+      <c r="E44" s="42">
+        <v>0.12140000000000006</v>
+      </c>
+      <c r="F44" s="42">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="G44" s="42">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="H44" s="51">
+        <v>-0.43590000000000001</v>
+      </c>
+      <c r="I44" s="51">
+        <v>-0.42319999999999997</v>
+      </c>
+      <c r="J44" s="42">
+        <v>5.7200000000000029E-2</v>
+      </c>
+      <c r="K44" s="42">
+        <v>0.10350000000000004</v>
+      </c>
+      <c r="L44" s="42">
+        <v>0.19379999999999997</v>
+      </c>
+      <c r="M44" s="42">
+        <v>0.19379999999999997</v>
+      </c>
+      <c r="N44" s="42">
+        <v>0.19379999999999997</v>
+      </c>
+      <c r="O44" s="42">
+        <v>0.19379999999999997</v>
+      </c>
+      <c r="P44" s="42">
+        <v>0.11929999999999996</v>
+      </c>
+      <c r="Q44" s="42">
+        <v>6.0699999999999976E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="42">
+        <v>2.4999999999999967E-2</v>
+      </c>
+      <c r="E45" s="42">
+        <v>2.4999999999999967E-2</v>
+      </c>
+      <c r="F45" s="51">
+        <v>-4.8000000000000265E-3</v>
+      </c>
+      <c r="G45" s="51">
+        <v>-4.8000000000000265E-3</v>
+      </c>
+      <c r="H45" s="51">
+        <v>-0.11020000000000002</v>
+      </c>
+      <c r="I45" s="51">
+        <v>-0.16740000000000002</v>
+      </c>
+      <c r="J45" s="42">
+        <v>5.0699999999999967E-2</v>
+      </c>
+      <c r="K45" s="51">
+        <v>-1.040000000000002E-2</v>
+      </c>
+      <c r="L45" s="42">
+        <v>6.6699999999999982E-2</v>
+      </c>
+      <c r="M45" s="42">
+        <v>6.6699999999999982E-2</v>
+      </c>
+      <c r="N45" s="42">
+        <v>4.2399999999999993E-2</v>
+      </c>
+      <c r="O45" s="42">
+        <v>2.8200000000000003E-2</v>
+      </c>
+      <c r="P45" s="42">
+        <v>9.3999999999999639E-3</v>
+      </c>
+      <c r="Q45" s="51">
+        <v>-5.2000000000000379E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="42">
+        <v>4.2100000000000026E-2</v>
+      </c>
+      <c r="E46" s="42">
+        <v>4.2100000000000026E-2</v>
+      </c>
+      <c r="F46" s="51">
+        <v>-2.1499999999999964E-2</v>
+      </c>
+      <c r="G46" s="51">
+        <v>-2.1499999999999964E-2</v>
+      </c>
+      <c r="H46" s="51">
+        <v>-6.7099999999999937E-2</v>
+      </c>
+      <c r="I46" s="51">
+        <v>-0.22149999999999997</v>
+      </c>
+      <c r="J46" s="42">
+        <v>4.4800000000000062E-2</v>
+      </c>
+      <c r="K46" s="51">
+        <v>-7.8999999999999626E-3</v>
+      </c>
+      <c r="L46" s="42">
+        <v>4.2100000000000026E-2</v>
+      </c>
+      <c r="M46" s="42">
+        <v>4.2100000000000026E-2</v>
+      </c>
+      <c r="N46" s="42">
+        <v>3.7700000000000067E-2</v>
+      </c>
+      <c r="O46" s="51">
+        <v>-7.7999999999999736E-3</v>
+      </c>
+      <c r="P46" s="42">
+        <v>3.6399999999999988E-2</v>
+      </c>
+      <c r="Q46" s="42">
+        <v>4.9600000000000088E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C47" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D47" s="42">
         <v>0.11830000000000002</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E47" s="42">
         <v>0.12040000000000001</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F47" s="42">
         <v>4.7600000000000031E-2</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G47" s="42">
         <v>4.7600000000000031E-2</v>
       </c>
-      <c r="H44" s="51">
+      <c r="H47" s="51">
         <v>-3.1200000000000006E-2</v>
       </c>
-      <c r="I44" s="51">
+      <c r="I47" s="51">
         <v>-0.17589999999999997</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J47" s="42">
         <v>0.11890000000000006</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K47" s="42">
         <v>2.5299999999999989E-2</v>
       </c>
-      <c r="L44" s="42">
+      <c r="L47" s="42">
         <v>0.11100000000000004</v>
       </c>
-      <c r="M44" s="42">
+      <c r="M47" s="42">
         <v>0.11100000000000004</v>
       </c>
-      <c r="N44" s="42">
+      <c r="N47" s="42">
         <v>0.11310000000000003</v>
       </c>
-      <c r="O44" s="42">
+      <c r="O47" s="42">
         <v>8.9800000000000046E-2</v>
       </c>
-      <c r="P44" s="42">
+      <c r="P47" s="42">
         <v>0.12640000000000001</v>
       </c>
-      <c r="Q44" s="42">
+      <c r="Q47" s="42">
         <v>0.11249999999999999</v>
       </c>
     </row>
-    <row r="45" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C45" s="48"/>
+    <row r="48" spans="3:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C48" s="48"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I15:K15 D15:G15 D14:K14 J13:K13 D13:H13 D10:K12 J9:K9 F9:G9 F8:K8 J4:K5 F4:G5 F2:K3 D2:D3">
-    <cfRule type="colorScale" priority="17">
+  <mergeCells count="6">
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="D2:J2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I16:K16 D16:G16 D15:K15 J14:K14 D14:H14 D11:K13 J10:K10 F10:G10 F9:K9 J5:K6 F5:G6 F3:K4 D3:D4">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9361,8 +9969,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:K15 D15:G15 D14:K14 J13:K13 D13:H13 D10:K12 F8:K8 J9:K9 F9:G9 D2:D3 F2:G5 H2:K3 J4:K5">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="I16:K16 D16:G16 D15:K15 J14:K14 D14:H14 D11:K13 F9:K9 J10:K10 F10:G10 D3:D4 F3:G6 H3:K4 J5:K6">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9371,8 +9979,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3 D10:G15 H10:H14 I10:K12 I14:I15 J13:K15 J8:K9 F8:I8 F9:G9 F2:K3 J4:K5 F4:G5">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="D3:D4 D11:G16 H11:H15 I11:K13 I15:I16 J14:K16 J9:K10 F9:I9 F10:G10 F3:K4 J5:K6 F5:G6">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9381,8 +9989,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U9 U3:U6">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="U9:U10 U4:U7">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9391,8 +9999,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U9 U3:U6">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="U9:U10 U4:U7">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9401,8 +10009,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U6 U8:U9">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="U4:U7 U9:U10">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9411,8 +10019,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q43:Q44 Q38:Q41 P38:P44 O44 O38:O42 L38:N44 K44 K40:K41 J40:J44 F44:G44 F40:G41 D40:E44 D38:E38">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="Q46:Q47 Q41:Q44 P41:P47 O47 O41:O45 L41:N47 K47 K43:K44 J43:J47 F47:G47 F43:G44 D43:E47 D41:E41">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9421,8 +10029,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q43:Q44 Q38:Q41 P38:P44 O44 O38:O42 L38:N44 J40:J44 K44 K40:K41 D38:E38 D40:G41 D42:E44 F44:G44">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="Q46:Q47 Q41:Q44 P41:P47 O47 O41:O45 L41:N47 J43:J47 K47 K43:K44 D41:E41 D43:G44 D45:E47 F47:G47">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9431,8 +10039,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:E38 L38:Q41 L42:P42 L43:N44 P43:Q43 O44:Q44 J44:K44 J40:J43 K40:K41 D40:E44 F44:G44 F40:G41">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="D41:E41 L41:Q44 L45:P45 L46:N47 P46:Q46 O47:Q47 J47:K47 J43:J46 K43:K44 D43:E47 F47:G47 F43:G44">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9441,8 +10049,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Q24 D22:Q22 Q23 Q21 J19 D24:N24 D23:O23 M21:N21 F21:J21 Q19 F19:G19 M19:N19 M18:Q18 D18 F18:K18">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="P26:Q26 D24:Q24 Q25 Q23 J21 D26:N26 D25:O25 M23:N23 F23:J23 Q21 F21:G21 M21:N21 M20:Q20 D20 F20:K20">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9451,8 +10059,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Q24 D22:Q22 Q23 F19:G19 Q21 D24:N24 D23:O23 F21:J21 M21:N21 D18 M19:N19 F18:K18 M18:Q18 J19 Q19">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="P26:Q26 D24:Q24 Q25 F21:G21 Q23 D26:N26 D25:O25 F23:J23 M23:N23 D20 M21:N21 F20:K20 M20:Q20 J21 Q21">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9461,8 +10069,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:N24 D23:O23 D22:Q22 M21:N21 J19 D18 P24:Q24 Q23 Q21 F21:J21 F18:K18 M18:Q18 Q19 F19:G19 M19:N19">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D26:N26 D25:O25 D24:Q24 M23:N23 J21 D20 P26:Q26 Q25 Q23 F23:J23 F20:K20 M20:Q20 Q21 F21:G21 M21:N21">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9471,8 +10079,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:J34">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="K30">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9481,38 +10109,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:Q34">
+  <conditionalFormatting sqref="D36:D37 E37 G33:G34 E31 I37 K33:M34 O33:Q34 L36:M36 M37:N37 O36:O37 P36 Q36:Q37">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/rez.xlsx
+++ b/rez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aplikacije\parallel-doc-embeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29809716-02CD-4C74-80B1-FCD2650B785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53675D33-7DB2-4A36-9A8F-FC8F463431FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" xr2:uid="{B8B4AE92-D4CE-402F-9CE7-E0A30A8665F7}"/>
   </bookViews>
@@ -792,40 +792,13 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -841,6 +814,33 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4735,8 +4735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12FE24E-7961-459E-B918-F49D7B3E236D}">
   <dimension ref="A2:AN164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8:AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4752,18 +4752,18 @@
     <col min="24" max="30" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="46"/>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-    </row>
-    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+    </row>
+    <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4814,7 +4814,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -4836,7 +4836,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -4858,7 +4858,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -4962,8 +4962,13 @@
       <c r="AE8" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -5000,80 +5005,87 @@
         <v>86</v>
       </c>
       <c r="N9" s="7">
-        <f>J9</f>
+        <f t="shared" ref="N9:N22" si="0">J9</f>
         <v>2.357926763012055E-2</v>
       </c>
       <c r="O9" s="7">
-        <f>J31</f>
+        <f t="shared" ref="O9:O22" si="1">J31</f>
         <v>-2.079510703363957E-3</v>
       </c>
       <c r="P9" s="7">
-        <f>J53</f>
+        <f t="shared" ref="P9:P22" si="2">J53</f>
         <v>8.9538420843803701E-2</v>
       </c>
       <c r="Q9" s="7">
-        <f>J75</f>
+        <f t="shared" ref="Q9:Q22" si="3">J75</f>
         <v>1.273950264981662E-2</v>
       </c>
       <c r="R9" s="7">
-        <f>J97</f>
+        <f t="shared" ref="R9:R22" si="4">J97</f>
         <v>0.20317460317460317</v>
       </c>
       <c r="S9" s="7">
-        <f>J119</f>
+        <f t="shared" ref="S9:S22" si="5">J119</f>
         <v>6.3717306622147959E-2</v>
       </c>
       <c r="T9" s="7">
-        <f>J141</f>
+        <f t="shared" ref="T9:T22" si="6">J141</f>
         <v>9.4518477812886345E-2</v>
       </c>
       <c r="U9" s="7">
         <f>AVERAGE(N9:T9)</f>
         <v>6.9312581147144919E-2</v>
       </c>
-      <c r="V9" s="94" t="s">
+      <c r="V9" s="111" t="s">
         <v>104</v>
       </c>
       <c r="W9" s="15" t="s">
         <v>86</v>
       </c>
       <c r="X9" s="7">
-        <f>L9</f>
+        <f t="shared" ref="X9:X22" si="7">L9</f>
         <v>2.2579244463742869E-2</v>
       </c>
       <c r="Y9" s="7">
-        <f>L31</f>
+        <f t="shared" ref="Y9:Y22" si="8">L31</f>
         <v>-2.3111004670099373E-2</v>
       </c>
       <c r="Z9" s="7">
-        <f>L53</f>
+        <f t="shared" ref="Z9:Z22" si="9">L53</f>
         <v>8.9538420843803701E-2</v>
       </c>
       <c r="AA9" s="7">
-        <f>L75</f>
+        <f t="shared" ref="AA9:AA22" si="10">L75</f>
         <v>1.273950264981662E-2</v>
       </c>
       <c r="AB9" s="7">
-        <f>L97</f>
+        <f t="shared" ref="AB9:AB22" si="11">L97</f>
         <v>7.4448416122272904E-2</v>
       </c>
       <c r="AC9" s="7">
-        <f>L119</f>
+        <f t="shared" ref="AC9:AC22" si="12">L119</f>
         <v>-1.0738776038297431E-2</v>
       </c>
       <c r="AD9" s="7">
-        <f>L141</f>
+        <f t="shared" ref="AD9:AD22" si="13">L141</f>
         <v>9.4518477812886345E-2</v>
       </c>
       <c r="AE9" s="7">
         <f>AVERAGE(X9:AD9)</f>
         <v>3.713918302630366E-2</v>
       </c>
-      <c r="AF9" s="105" t="s">
+      <c r="AF9" s="112" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -5116,76 +5128,83 @@
         <v>87</v>
       </c>
       <c r="N10" s="7">
-        <f>J10</f>
+        <f t="shared" si="0"/>
         <v>2.357926763012055E-2</v>
       </c>
       <c r="O10" s="7">
-        <f>J32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P10" s="7">
-        <f>J54</f>
+        <f t="shared" si="2"/>
         <v>8.9538420843803701E-2</v>
       </c>
       <c r="Q10" s="7">
-        <f>J76</f>
+        <f t="shared" si="3"/>
         <v>1.273950264981662E-2</v>
       </c>
       <c r="R10" s="7">
-        <f>J98</f>
+        <f t="shared" si="4"/>
         <v>0.20317460317460317</v>
       </c>
       <c r="S10" s="7">
-        <f>J120</f>
+        <f t="shared" si="5"/>
         <v>6.3717306622147959E-2</v>
       </c>
       <c r="T10" s="7">
-        <f>J142</f>
+        <f t="shared" si="6"/>
         <v>9.9052067591702236E-2</v>
       </c>
       <c r="U10" s="7">
-        <f t="shared" ref="U10:U22" si="0">AVERAGE(N10:T10)</f>
+        <f t="shared" ref="U10:U22" si="14">AVERAGE(N10:T10)</f>
         <v>7.0257309787456326E-2</v>
       </c>
-      <c r="V10" s="94"/>
+      <c r="V10" s="111"/>
       <c r="W10" s="15" t="s">
         <v>87</v>
       </c>
       <c r="X10" s="7">
-        <f>L10</f>
+        <f t="shared" si="7"/>
         <v>2.2579244463742869E-2</v>
       </c>
       <c r="Y10" s="7">
-        <f>L32</f>
+        <f t="shared" si="8"/>
         <v>-2.1075320320919591E-2</v>
       </c>
       <c r="Z10" s="7">
-        <f>L54</f>
+        <f t="shared" si="9"/>
         <v>8.9538420843803701E-2</v>
       </c>
       <c r="AA10" s="7">
-        <f>L76</f>
+        <f t="shared" si="10"/>
         <v>1.273950264981662E-2</v>
       </c>
       <c r="AB10" s="7">
-        <f>L98</f>
+        <f t="shared" si="11"/>
         <v>7.4448416122272904E-2</v>
       </c>
       <c r="AC10" s="7">
-        <f>L120</f>
+        <f t="shared" si="12"/>
         <v>-1.0738776038297431E-2</v>
       </c>
       <c r="AD10" s="7">
-        <f>L142</f>
+        <f t="shared" si="13"/>
         <v>9.9052067591702236E-2</v>
       </c>
       <c r="AE10" s="7">
-        <f t="shared" ref="AE10:AE22" si="1">AVERAGE(X10:AD10)</f>
+        <f t="shared" ref="AE10:AE22" si="15">AVERAGE(X10:AD10)</f>
         <v>3.8077650758874468E-2</v>
       </c>
-      <c r="AF10" s="105"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF10" s="112"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -5222,76 +5241,83 @@
         <v>10</v>
       </c>
       <c r="N11" s="6">
-        <f>J11</f>
+        <f t="shared" si="0"/>
         <v>5.8676518526566994E-3</v>
       </c>
       <c r="O11" s="7">
-        <f>J33</f>
+        <f t="shared" si="1"/>
         <v>1.5045871559633E-2</v>
       </c>
       <c r="P11" s="7">
-        <f>J55</f>
+        <f t="shared" si="2"/>
         <v>6.4541727284750633E-2</v>
       </c>
       <c r="Q11" s="7">
-        <f>J77</f>
+        <f t="shared" si="3"/>
         <v>9.5801059926621229E-3</v>
       </c>
       <c r="R11" s="7">
-        <f>J99</f>
+        <f t="shared" si="4"/>
         <v>0.13540372670807449</v>
       </c>
       <c r="S11" s="7">
-        <f>J121</f>
+        <f t="shared" si="5"/>
         <v>9.2654424040066768E-2</v>
       </c>
       <c r="T11" s="7">
-        <f>J143</f>
+        <f t="shared" si="6"/>
         <v>3.5993955213628248E-2</v>
       </c>
       <c r="U11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>5.1298208950210276E-2</v>
       </c>
-      <c r="V11" s="94"/>
+      <c r="V11" s="111"/>
       <c r="W11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="X11" s="7">
-        <f>L11</f>
+        <f t="shared" si="7"/>
         <v>4.8849326964827923E-3</v>
       </c>
       <c r="Y11" s="7">
-        <f>L33</f>
+        <f t="shared" si="8"/>
         <v>-6.3465453239132698E-3</v>
       </c>
       <c r="Z11" s="7">
-        <f>L55</f>
+        <f t="shared" si="9"/>
         <v>6.4541727284750633E-2</v>
       </c>
       <c r="AA11" s="7">
-        <f>L77</f>
+        <f t="shared" si="10"/>
         <v>9.5801059926621229E-3</v>
       </c>
       <c r="AB11" s="7">
-        <f>L99</f>
+        <f t="shared" si="11"/>
         <v>1.3928263281153675E-2</v>
       </c>
       <c r="AC11" s="7">
-        <f>L121</f>
+        <f t="shared" si="12"/>
         <v>1.6172855479363379E-2</v>
       </c>
       <c r="AD11" s="7">
-        <f>L143</f>
+        <f t="shared" si="13"/>
         <v>3.5993955213628248E-2</v>
       </c>
       <c r="AE11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1.9822184946303941E-2</v>
       </c>
-      <c r="AF11" s="105"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF11" s="112"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -5334,76 +5360,83 @@
         <v>11</v>
       </c>
       <c r="N12" s="6">
-        <f>J12</f>
+        <f t="shared" si="0"/>
         <v>5.8676518526566994E-3</v>
       </c>
       <c r="O12" s="7">
-        <f>J34</f>
+        <f t="shared" si="1"/>
         <v>1.5045871559633E-2</v>
       </c>
       <c r="P12" s="7">
-        <f>J56</f>
+        <f t="shared" si="2"/>
         <v>6.4541727284750633E-2</v>
       </c>
       <c r="Q12" s="7">
-        <f>J78</f>
+        <f t="shared" si="3"/>
         <v>9.5801059926621229E-3</v>
       </c>
       <c r="R12" s="7">
-        <f>J100</f>
+        <f t="shared" si="4"/>
         <v>0.13540372670807449</v>
       </c>
       <c r="S12" s="7">
-        <f>J122</f>
+        <f t="shared" si="5"/>
         <v>9.2654424040066768E-2</v>
       </c>
       <c r="T12" s="7">
-        <f>J144</f>
+        <f t="shared" si="6"/>
         <v>3.5993955213628248E-2</v>
       </c>
       <c r="U12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>5.1298208950210276E-2</v>
       </c>
-      <c r="V12" s="94"/>
+      <c r="V12" s="111"/>
       <c r="W12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="7">
-        <f>L12</f>
+        <f t="shared" si="7"/>
         <v>4.8849326964827923E-3</v>
       </c>
       <c r="Y12" s="7">
-        <f>L34</f>
+        <f t="shared" si="8"/>
         <v>-6.3465453239132698E-3</v>
       </c>
       <c r="Z12" s="7">
-        <f>L56</f>
+        <f t="shared" si="9"/>
         <v>6.4541727284750633E-2</v>
       </c>
       <c r="AA12" s="7">
-        <f>L78</f>
+        <f t="shared" si="10"/>
         <v>9.5801059926621229E-3</v>
       </c>
       <c r="AB12" s="7">
-        <f>L100</f>
+        <f t="shared" si="11"/>
         <v>1.3928263281153675E-2</v>
       </c>
       <c r="AC12" s="7">
-        <f>L122</f>
+        <f t="shared" si="12"/>
         <v>1.6172855479363379E-2</v>
       </c>
       <c r="AD12" s="7">
-        <f>L144</f>
+        <f t="shared" si="13"/>
         <v>3.5993955213628248E-2</v>
       </c>
       <c r="AE12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1.9822184946303941E-2</v>
       </c>
-      <c r="AF12" s="105"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF12" s="112"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -5440,76 +5473,83 @@
         <v>12</v>
       </c>
       <c r="N13" s="6">
-        <f>J13</f>
+        <f t="shared" si="0"/>
         <v>-8.3668369010105353E-2</v>
       </c>
       <c r="O13" s="7">
-        <f>J35</f>
+        <f t="shared" si="1"/>
         <v>-0.18666666666666662</v>
       </c>
       <c r="P13" s="7">
-        <f>J57</f>
+        <f t="shared" si="2"/>
         <v>-0.16135431821187673</v>
       </c>
       <c r="Q13" s="7">
-        <f>J79</f>
+        <f t="shared" si="3"/>
         <v>-0.1693844272319609</v>
       </c>
       <c r="R13" s="7">
-        <f>J101</f>
+        <f t="shared" si="4"/>
         <v>4.1683919944789517E-2</v>
       </c>
       <c r="S13" s="7">
-        <f>J123</f>
+        <f t="shared" si="5"/>
         <v>-2.9076238174735713E-2</v>
       </c>
       <c r="T13" s="7">
-        <f>J145</f>
+        <f t="shared" si="6"/>
         <v>8.9297980491826641E-3</v>
       </c>
       <c r="U13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>-8.279090018591044E-2</v>
       </c>
-      <c r="V13" s="94"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="X13" s="7">
-        <f>L13</f>
+        <f t="shared" si="7"/>
         <v>-8.4563612679114164E-2</v>
       </c>
       <c r="Y13" s="7">
-        <f>L35</f>
+        <f t="shared" si="8"/>
         <v>-0.20380792719434787</v>
       </c>
       <c r="Z13" s="7">
-        <f>L57</f>
+        <f t="shared" si="9"/>
         <v>-0.16135431821187673</v>
       </c>
       <c r="AA13" s="7">
-        <f>L79</f>
+        <f t="shared" si="10"/>
         <v>-0.1693844272319609</v>
       </c>
       <c r="AB13" s="7">
-        <f>L101</f>
+        <f t="shared" si="11"/>
         <v>-6.9764575372858351E-2</v>
       </c>
       <c r="AC13" s="7">
-        <f>L123</f>
+        <f t="shared" si="12"/>
         <v>-9.7037132876180696E-2</v>
       </c>
       <c r="AD13" s="7">
-        <f>L145</f>
+        <f t="shared" si="13"/>
         <v>8.9297980491826641E-3</v>
       </c>
       <c r="AE13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-0.11099745650245085</v>
       </c>
-      <c r="AF13" s="105"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF13" s="112"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -5549,76 +5589,76 @@
         <v>13</v>
       </c>
       <c r="N14" s="6">
-        <f>J14</f>
+        <f t="shared" si="0"/>
         <v>-0.22536129522981641</v>
       </c>
       <c r="O14" s="7">
-        <f>J36</f>
+        <f t="shared" si="1"/>
         <v>-0.31975535168195712</v>
       </c>
       <c r="P14" s="7">
-        <f>J58</f>
+        <f t="shared" si="2"/>
         <v>-0.41224705726755717</v>
       </c>
       <c r="Q14" s="7">
-        <f>J80</f>
+        <f t="shared" si="3"/>
         <v>-0.28750509580105982</v>
       </c>
       <c r="R14" s="7">
-        <f>J102</f>
+        <f t="shared" si="4"/>
         <v>-0.18219461697722567</v>
       </c>
       <c r="S14" s="7">
-        <f>J124</f>
+        <f t="shared" si="5"/>
         <v>-0.29855314412910411</v>
       </c>
       <c r="T14" s="7">
-        <f>J146</f>
+        <f t="shared" si="6"/>
         <v>-0.32435774144800106</v>
       </c>
       <c r="U14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>-0.2928534717906745</v>
       </c>
-      <c r="V14" s="94"/>
+      <c r="V14" s="111"/>
       <c r="W14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="X14" s="7">
-        <f>L14</f>
+        <f t="shared" si="7"/>
         <v>-0.22611810681719499</v>
       </c>
       <c r="Y14" s="7">
-        <f>L36</f>
+        <f t="shared" si="8"/>
         <v>-0.33409172554185118</v>
       </c>
       <c r="Z14" s="7">
-        <f>L58</f>
+        <f t="shared" si="9"/>
         <v>-0.41224705726755717</v>
       </c>
       <c r="AA14" s="7">
-        <f>L80</f>
+        <f t="shared" si="10"/>
         <v>-0.28750509580105982</v>
       </c>
       <c r="AB14" s="7">
-        <f>L102</f>
+        <f t="shared" si="11"/>
         <v>-0.26969061999260446</v>
       </c>
       <c r="AC14" s="7">
-        <f>L124</f>
+        <f t="shared" si="12"/>
         <v>-0.34765170138439649</v>
       </c>
       <c r="AD14" s="7">
-        <f>L146</f>
+        <f t="shared" si="13"/>
         <v>-0.32435774144800106</v>
       </c>
       <c r="AE14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-0.31452314975038076</v>
       </c>
-      <c r="AF14" s="105"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF14" s="112"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
@@ -5655,76 +5695,76 @@
         <v>88</v>
       </c>
       <c r="N15" s="6">
-        <f>J15</f>
+        <f t="shared" si="0"/>
         <v>1.8689557752906653E-2</v>
       </c>
       <c r="O15" s="7">
-        <f>J37</f>
+        <f t="shared" si="1"/>
         <v>-1.7125382262996956E-2</v>
       </c>
       <c r="P15" s="7">
-        <f>J59</f>
+        <f t="shared" si="2"/>
         <v>7.8825552175638122E-2</v>
       </c>
       <c r="Q15" s="7">
-        <f>J81</f>
+        <f t="shared" si="3"/>
         <v>6.420709335507627E-3</v>
       </c>
       <c r="R15" s="7">
-        <f>J103</f>
+        <f t="shared" si="4"/>
         <v>0.21352657004830911</v>
       </c>
       <c r="S15" s="7">
-        <f>J125</f>
+        <f t="shared" si="5"/>
         <v>6.0795770728992712E-2</v>
       </c>
       <c r="T15" s="7">
-        <f>J147</f>
+        <f t="shared" si="6"/>
         <v>9.9052067591702236E-2</v>
       </c>
       <c r="U15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>6.5740692195722789E-2</v>
       </c>
-      <c r="V15" s="94"/>
+      <c r="V15" s="111"/>
       <c r="W15" s="15" t="s">
         <v>88</v>
       </c>
       <c r="X15" s="7">
-        <f>L15</f>
+        <f t="shared" si="7"/>
         <v>1.7694311767260076E-2</v>
       </c>
       <c r="Y15" s="7">
-        <f>L37</f>
+        <f t="shared" si="8"/>
         <v>-3.7839779667105694E-2</v>
       </c>
       <c r="Z15" s="7">
-        <f>L59</f>
+        <f t="shared" si="9"/>
         <v>7.8825552175638122E-2</v>
       </c>
       <c r="AA15" s="7">
-        <f>L81</f>
+        <f t="shared" si="10"/>
         <v>6.420709335507627E-3</v>
       </c>
       <c r="AB15" s="7">
-        <f>L103</f>
+        <f t="shared" si="11"/>
         <v>8.3692838654012031E-2</v>
       </c>
       <c r="AC15" s="7">
-        <f>L125</f>
+        <f t="shared" si="12"/>
         <v>-1.3455815758830477E-2</v>
       </c>
       <c r="AD15" s="7">
-        <f>L147</f>
+        <f t="shared" si="13"/>
         <v>9.9052067591702236E-2</v>
       </c>
       <c r="AE15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>3.348426915688342E-2</v>
       </c>
-      <c r="AF15" s="105"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF15" s="112"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -5767,74 +5807,74 @@
         <v>89</v>
       </c>
       <c r="N16" s="6">
-        <f>J16</f>
+        <f t="shared" si="0"/>
         <v>-1.5755731826578242E-2</v>
       </c>
       <c r="O16" s="7">
-        <f>J38</f>
+        <f t="shared" si="1"/>
         <v>-8.5749235474006175E-2</v>
       </c>
       <c r="P16" s="7">
-        <f>J60</f>
+        <f t="shared" si="2"/>
         <v>-1.4283824890887491E-2</v>
       </c>
       <c r="Q16" s="7">
-        <f>J82</f>
+        <f t="shared" si="3"/>
         <v>-9.5801059926620101E-3</v>
       </c>
       <c r="R16" s="7">
-        <f>J104</f>
+        <f t="shared" si="4"/>
         <v>0.1302967563837128</v>
       </c>
       <c r="S16" s="7">
-        <f>J126</f>
+        <f t="shared" si="5"/>
         <v>8.4028937117417934E-2</v>
       </c>
       <c r="T16" s="7">
-        <f>J148</f>
+        <f t="shared" si="6"/>
         <v>7.6521500206072221E-2</v>
       </c>
       <c r="U16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>2.3639756503295577E-2</v>
       </c>
-      <c r="V16" s="94"/>
+      <c r="V16" s="111"/>
       <c r="W16" s="15" t="s">
         <v>89</v>
       </c>
       <c r="X16" s="7">
-        <f>L16</f>
+        <f t="shared" si="7"/>
         <v>-1.6717325227963493E-2</v>
       </c>
       <c r="Y16" s="7">
-        <f>L38</f>
+        <f t="shared" si="8"/>
         <v>-0.10501736319003713</v>
       </c>
       <c r="Z16" s="7">
-        <f>L60</f>
+        <f t="shared" si="9"/>
         <v>-1.4283824890887491E-2</v>
       </c>
       <c r="AA16" s="7">
-        <f>L82</f>
+        <f t="shared" si="10"/>
         <v>-9.5801059926620101E-3</v>
       </c>
       <c r="AB16" s="7">
-        <f>L104</f>
+        <f t="shared" si="11"/>
         <v>9.3676814988289652E-3</v>
       </c>
       <c r="AC16" s="7">
-        <f>L126</f>
+        <f t="shared" si="12"/>
         <v>8.1511191615991352E-3</v>
       </c>
       <c r="AD16" s="7">
-        <f>L148</f>
+        <f t="shared" si="13"/>
         <v>7.6521500206072221E-2</v>
       </c>
       <c r="AE16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-7.3654740621499721E-3</v>
       </c>
-      <c r="AF16" s="105"/>
+      <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -5873,74 +5913,74 @@
         <v>90</v>
       </c>
       <c r="N17" s="7">
-        <f>J17</f>
+        <f t="shared" si="0"/>
         <v>2.8577637726828198E-2</v>
       </c>
       <c r="O17" s="7">
-        <f>J39</f>
+        <f t="shared" si="1"/>
         <v>2.2018348623853504E-3</v>
       </c>
       <c r="P17" s="7">
-        <f>J61</f>
+        <f t="shared" si="2"/>
         <v>9.6812590927126102E-2</v>
       </c>
       <c r="Q17" s="7">
-        <f>J83</f>
+        <f t="shared" si="3"/>
         <v>1.6000815328169635E-2</v>
       </c>
       <c r="R17" s="7">
-        <f>J105</f>
+        <f t="shared" si="4"/>
         <v>0.20317460317460317</v>
       </c>
       <c r="S17" s="7">
-        <f>J127</f>
+        <f t="shared" si="5"/>
         <v>6.3717306622147959E-2</v>
       </c>
       <c r="T17" s="7">
-        <f>J149</f>
+        <f t="shared" si="6"/>
         <v>8.1055089984888112E-2</v>
       </c>
       <c r="U17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>7.0219982660878366E-2</v>
       </c>
-      <c r="V17" s="94"/>
+      <c r="V17" s="111"/>
       <c r="W17" s="15" t="s">
         <v>90</v>
       </c>
       <c r="X17" s="7">
-        <f>L17</f>
+        <f t="shared" si="7"/>
         <v>2.7572731220147608E-2</v>
       </c>
       <c r="Y17" s="7">
-        <f>L39</f>
+        <f t="shared" si="8"/>
         <v>-1.8919889833552781E-2</v>
       </c>
       <c r="Z17" s="7">
-        <f>L61</f>
+        <f t="shared" si="9"/>
         <v>9.6812590927126102E-2</v>
       </c>
       <c r="AA17" s="7">
-        <f>L83</f>
+        <f t="shared" si="10"/>
         <v>1.6000815328169635E-2</v>
       </c>
       <c r="AB17" s="7">
-        <f>L105</f>
+        <f t="shared" si="11"/>
         <v>7.4448416122272904E-2</v>
       </c>
       <c r="AC17" s="7">
-        <f>L127</f>
+        <f t="shared" si="12"/>
         <v>-1.0738776038297431E-2</v>
       </c>
       <c r="AD17" s="7">
-        <f>L149</f>
+        <f t="shared" si="13"/>
         <v>8.1055089984888112E-2</v>
       </c>
       <c r="AE17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>3.8032996815822021E-2</v>
       </c>
-      <c r="AF17" s="105"/>
+      <c r="AF17" s="112"/>
     </row>
     <row r="18" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -5985,74 +6025,74 @@
         <v>91</v>
       </c>
       <c r="N18" s="7">
-        <f>J18</f>
+        <f t="shared" si="0"/>
         <v>2.8577637726828198E-2</v>
       </c>
       <c r="O18" s="7">
-        <f>J40</f>
+        <f t="shared" si="1"/>
         <v>2.2018348623853504E-3</v>
       </c>
       <c r="P18" s="7">
-        <f>J62</f>
+        <f t="shared" si="2"/>
         <v>9.6812590927126102E-2</v>
       </c>
       <c r="Q18" s="7">
-        <f>J84</f>
+        <f t="shared" si="3"/>
         <v>1.6000815328169635E-2</v>
       </c>
       <c r="R18" s="7">
-        <f>J106</f>
+        <f t="shared" si="4"/>
         <v>0.20317460317460317</v>
       </c>
       <c r="S18" s="7">
-        <f>J128</f>
+        <f t="shared" si="5"/>
         <v>6.3717306622147959E-2</v>
       </c>
       <c r="T18" s="7">
-        <f>J150</f>
+        <f t="shared" si="6"/>
         <v>8.1055089984888112E-2</v>
       </c>
       <c r="U18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>7.0219982660878366E-2</v>
       </c>
-      <c r="V18" s="94"/>
+      <c r="V18" s="111"/>
       <c r="W18" s="15" t="s">
         <v>91</v>
       </c>
       <c r="X18" s="7">
-        <f>L18</f>
+        <f t="shared" si="7"/>
         <v>2.7572731220147608E-2</v>
       </c>
       <c r="Y18" s="7">
-        <f>L40</f>
+        <f t="shared" si="8"/>
         <v>-1.8919889833552781E-2</v>
       </c>
       <c r="Z18" s="7">
-        <f>L62</f>
+        <f t="shared" si="9"/>
         <v>9.6812590927126102E-2</v>
       </c>
       <c r="AA18" s="7">
-        <f>L84</f>
+        <f t="shared" si="10"/>
         <v>1.6000815328169635E-2</v>
       </c>
       <c r="AB18" s="7">
-        <f>L106</f>
+        <f t="shared" si="11"/>
         <v>7.4448416122272904E-2</v>
       </c>
       <c r="AC18" s="7">
-        <f>L128</f>
+        <f t="shared" si="12"/>
         <v>-1.0738776038297431E-2</v>
       </c>
       <c r="AD18" s="7">
-        <f>L150</f>
+        <f t="shared" si="13"/>
         <v>8.1055089984888112E-2</v>
       </c>
       <c r="AE18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>3.8032996815822021E-2</v>
       </c>
-      <c r="AF18" s="105"/>
+      <c r="AF18" s="112"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -6091,74 +6131,74 @@
         <v>92</v>
       </c>
       <c r="N19" s="7">
-        <f>J19</f>
+        <f t="shared" si="0"/>
         <v>3.7379115505813305E-2</v>
       </c>
       <c r="O19" s="7">
-        <f>J41</f>
+        <f t="shared" si="1"/>
         <v>3.0091743119266001E-2</v>
       </c>
       <c r="P19" s="7">
-        <f>J63</f>
+        <f t="shared" si="2"/>
         <v>0.10395450337256977</v>
       </c>
       <c r="Q19" s="7">
-        <f>J85</f>
+        <f t="shared" si="3"/>
         <v>1.6000815328169635E-2</v>
       </c>
       <c r="R19" s="7">
-        <f>J107</f>
+        <f t="shared" si="4"/>
         <v>0.16149068322981364</v>
       </c>
       <c r="S19" s="7">
-        <f>J129</f>
+        <f t="shared" si="5"/>
         <v>9.2654424040066768E-2</v>
       </c>
       <c r="T19" s="7">
-        <f>J151</f>
+        <f t="shared" si="6"/>
         <v>9.4518477812886345E-2</v>
       </c>
       <c r="U19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>7.6584251772655057E-2</v>
       </c>
-      <c r="V19" s="94"/>
+      <c r="V19" s="111"/>
       <c r="W19" s="15" t="s">
         <v>92</v>
       </c>
       <c r="X19" s="7">
-        <f>L19</f>
+        <f t="shared" si="7"/>
         <v>3.636561007381673E-2</v>
       </c>
       <c r="Y19" s="7">
-        <f>L41</f>
+        <f t="shared" si="8"/>
         <v>8.3822296730930515E-3</v>
       </c>
       <c r="Z19" s="7">
-        <f>L63</f>
+        <f t="shared" si="9"/>
         <v>0.10395450337256977</v>
       </c>
       <c r="AA19" s="7">
-        <f>L85</f>
+        <f t="shared" si="10"/>
         <v>1.6000815328169635E-2</v>
       </c>
       <c r="AB19" s="7">
-        <f>L107</f>
+        <f t="shared" si="11"/>
         <v>3.7224208061136452E-2</v>
       </c>
       <c r="AC19" s="7">
-        <f>L129</f>
+        <f t="shared" si="12"/>
         <v>1.6172855479363379E-2</v>
       </c>
       <c r="AD19" s="7">
-        <f>L151</f>
+        <f t="shared" si="13"/>
         <v>9.4518477812886345E-2</v>
       </c>
       <c r="AE19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>4.4659814257290764E-2</v>
       </c>
-      <c r="AF19" s="105"/>
+      <c r="AF19" s="112"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -6203,74 +6243,74 @@
         <v>93</v>
       </c>
       <c r="N20" s="7">
-        <f>J20</f>
+        <f t="shared" si="0"/>
         <v>3.6401173530370506E-2</v>
       </c>
       <c r="O20" s="7">
-        <f>J42</f>
+        <f t="shared" si="1"/>
         <v>2.8012232415902179E-2</v>
       </c>
       <c r="P20" s="7">
-        <f>J64</f>
+        <f t="shared" si="2"/>
         <v>0.10038354714984786</v>
       </c>
       <c r="Q20" s="7">
-        <f>J86</f>
+        <f t="shared" si="3"/>
         <v>1.6000815328169635E-2</v>
       </c>
       <c r="R20" s="7">
-        <f>J108</f>
+        <f t="shared" si="4"/>
         <v>0.16149068322981364</v>
       </c>
       <c r="S20" s="7">
-        <f>J130</f>
+        <f t="shared" si="5"/>
         <v>0.10141903171953251</v>
       </c>
       <c r="T20" s="7">
-        <f>J152</f>
+        <f t="shared" si="6"/>
         <v>8.1055089984888112E-2</v>
       </c>
       <c r="U20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>7.4966081908360627E-2</v>
       </c>
-      <c r="V20" s="94"/>
+      <c r="V20" s="111"/>
       <c r="W20" s="15" t="s">
         <v>93</v>
       </c>
       <c r="X20" s="7">
-        <f>L20</f>
+        <f t="shared" si="7"/>
         <v>3.5388623534520151E-2</v>
       </c>
       <c r="Y20" s="7">
-        <f>L42</f>
+        <f t="shared" si="8"/>
         <v>6.3465453239134025E-3</v>
       </c>
       <c r="Z20" s="7">
-        <f>L64</f>
+        <f t="shared" si="9"/>
         <v>0.10038354714984786</v>
       </c>
       <c r="AA20" s="7">
-        <f>L86</f>
+        <f t="shared" si="10"/>
         <v>1.6000815328169635E-2</v>
       </c>
       <c r="AB20" s="7">
-        <f>L108</f>
+        <f t="shared" si="11"/>
         <v>3.7224208061136452E-2</v>
       </c>
       <c r="AC20" s="7">
-        <f>L130</f>
+        <f t="shared" si="12"/>
         <v>2.4323974640962514E-2</v>
       </c>
       <c r="AD20" s="7">
-        <f>L152</f>
+        <f t="shared" si="13"/>
         <v>8.1055089984888112E-2</v>
       </c>
       <c r="AE20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>4.2960400574776868E-2</v>
       </c>
-      <c r="AF20" s="105"/>
+      <c r="AF20" s="112"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -6309,74 +6349,74 @@
         <v>94</v>
       </c>
       <c r="N21" s="7">
-        <f>J21</f>
+        <f t="shared" si="0"/>
         <v>2.9555579702271E-2</v>
       </c>
       <c r="O21" s="7">
-        <f>J43</f>
+        <f t="shared" si="1"/>
         <v>1.7247706422018349E-2</v>
       </c>
       <c r="P21" s="7">
-        <f>J65</f>
+        <f t="shared" si="2"/>
         <v>0.10395450337256977</v>
       </c>
       <c r="Q21" s="7">
-        <f>J87</f>
+        <f t="shared" si="3"/>
         <v>9.5801059926621229E-3</v>
       </c>
       <c r="R21" s="7">
-        <f>J109</f>
+        <f t="shared" si="4"/>
         <v>0.12505175983436853</v>
       </c>
       <c r="S21" s="7">
-        <f>J131</f>
+        <f t="shared" si="5"/>
         <v>8.6811352253756274E-2</v>
       </c>
       <c r="T21" s="7">
-        <f>J153</f>
+        <f t="shared" si="6"/>
         <v>8.998488803407062E-2</v>
       </c>
       <c r="U21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>6.6026556515959525E-2</v>
       </c>
-      <c r="V21" s="94"/>
+      <c r="V21" s="111"/>
       <c r="W21" s="15" t="s">
         <v>94</v>
       </c>
       <c r="X21" s="7">
-        <f>L21</f>
+        <f t="shared" si="7"/>
         <v>2.854971775944419E-2</v>
       </c>
       <c r="Y21" s="7">
-        <f>L43</f>
+        <f t="shared" si="8"/>
         <v>-4.191114836546459E-3</v>
       </c>
       <c r="Z21" s="7">
-        <f>L65</f>
+        <f t="shared" si="9"/>
         <v>0.10395450337256977</v>
       </c>
       <c r="AA21" s="7">
-        <f>L87</f>
+        <f t="shared" si="10"/>
         <v>9.5801059926621229E-3</v>
       </c>
       <c r="AB21" s="7">
-        <f>L109</f>
+        <f t="shared" si="11"/>
         <v>4.6838407494145511E-3</v>
       </c>
       <c r="AC21" s="7">
-        <f>L131</f>
+        <f t="shared" si="12"/>
         <v>1.0738776038297287E-2</v>
       </c>
       <c r="AD21" s="7">
-        <f>L153</f>
+        <f t="shared" si="13"/>
         <v>8.998488803407062E-2</v>
       </c>
       <c r="AE21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>3.4757245301416009E-2</v>
       </c>
-      <c r="AF21" s="105"/>
+      <c r="AF21" s="112"/>
     </row>
     <row r="22" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
@@ -6421,74 +6461,74 @@
         <v>95</v>
       </c>
       <c r="N22" s="7">
-        <f>J22</f>
+        <f t="shared" si="0"/>
         <v>3.0533521677713803E-2</v>
       </c>
       <c r="O22" s="7">
-        <f>J44</f>
+        <f t="shared" si="1"/>
         <v>2.5810397553516828E-2</v>
       </c>
       <c r="P22" s="7">
-        <f>J66</f>
+        <f t="shared" si="2"/>
         <v>9.6812590927126102E-2</v>
       </c>
       <c r="Q22" s="7">
-        <f>J88</f>
+        <f t="shared" si="3"/>
         <v>9.5801059926621229E-3</v>
       </c>
       <c r="R22" s="7">
-        <f>J110</f>
+        <f t="shared" si="4"/>
         <v>0.11456176673567972</v>
       </c>
       <c r="S22" s="7">
-        <f>J132</f>
+        <f t="shared" si="5"/>
         <v>8.1107401224262687E-2</v>
       </c>
       <c r="T22" s="7">
-        <f>J154</f>
+        <f t="shared" si="6"/>
         <v>8.998488803407062E-2</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>6.4055810306433134E-2</v>
       </c>
-      <c r="V22" s="94"/>
+      <c r="V22" s="111"/>
       <c r="W22" s="15" t="s">
         <v>95</v>
       </c>
       <c r="X22" s="7">
-        <f>L22</f>
+        <f t="shared" si="7"/>
         <v>2.9526704298740776E-2</v>
       </c>
       <c r="Y22" s="7">
-        <f>L44</f>
+        <f t="shared" si="8"/>
         <v>4.1911148365465917E-3</v>
       </c>
       <c r="Z22" s="7">
-        <f>L66</f>
+        <f t="shared" si="9"/>
         <v>9.6812590927126102E-2</v>
       </c>
       <c r="AA22" s="7">
-        <f>L88</f>
+        <f t="shared" si="10"/>
         <v>9.5801059926621229E-3</v>
       </c>
       <c r="AB22" s="7">
-        <f>L110</f>
+        <f t="shared" si="11"/>
         <v>-4.6838407494145511E-3</v>
       </c>
       <c r="AC22" s="7">
-        <f>L132</f>
+        <f t="shared" si="12"/>
         <v>5.4340794410660904E-3</v>
       </c>
       <c r="AD22" s="7">
-        <f>L154</f>
+        <f t="shared" si="13"/>
         <v>8.998488803407062E-2</v>
       </c>
       <c r="AE22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>3.2977948968685396E-2</v>
       </c>
-      <c r="AF22" s="105"/>
+      <c r="AF22" s="112"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F23" s="46"/>
@@ -6612,33 +6652,33 @@
         <v>0.74229999999999996</v>
       </c>
       <c r="O26" s="56">
-        <f t="shared" ref="O26:O44" si="2">E26</f>
+        <f t="shared" ref="O26:O44" si="16">E26</f>
         <v>0.59660000000000002</v>
       </c>
       <c r="P26" s="56">
-        <f t="shared" ref="P26:P44" si="3">E48</f>
+        <f t="shared" ref="P26:P44" si="17">E48</f>
         <v>0.49120000000000003</v>
       </c>
       <c r="Q26" s="56">
-        <f t="shared" ref="Q26:Q44" si="4">E70</f>
+        <f t="shared" ref="Q26:Q44" si="18">E70</f>
         <v>0.74029999999999996</v>
       </c>
       <c r="R26" s="56">
-        <f t="shared" ref="R26:R44" si="5">E92</f>
+        <f t="shared" ref="R26:R44" si="19">E92</f>
         <v>0.65100000000000002</v>
       </c>
       <c r="S26" s="56">
-        <f t="shared" ref="S26:S44" si="6">E114</f>
+        <f t="shared" ref="S26:S44" si="20">E114</f>
         <v>0.51700000000000002</v>
       </c>
       <c r="T26" s="57">
-        <f t="shared" ref="T26:T44" si="7">E136</f>
+        <f t="shared" ref="T26:T44" si="21">E136</f>
         <v>0.52259999999999995</v>
       </c>
-      <c r="U26" s="93" t="s">
+      <c r="U26" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="V26" s="106"/>
+      <c r="V26" s="98"/>
       <c r="W26" s="15" t="s">
         <v>7</v>
       </c>
@@ -6670,7 +6710,7 @@
         <f>B136</f>
         <v>0.49180000000000001</v>
       </c>
-      <c r="AE26" s="93" t="s">
+      <c r="AE26" s="113" t="s">
         <v>106</v>
       </c>
       <c r="AG26">
@@ -6707,69 +6747,69 @@
         <v>21</v>
       </c>
       <c r="N27" s="58">
-        <f t="shared" ref="N26:N44" si="8">E5</f>
+        <f t="shared" ref="N27:N44" si="22">E5</f>
         <v>0.93869999999999998</v>
       </c>
       <c r="O27" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.85880000000000001</v>
       </c>
       <c r="P27" s="59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.79920000000000002</v>
       </c>
       <c r="Q27" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.99039999999999995</v>
       </c>
       <c r="R27" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.7742</v>
       </c>
       <c r="S27" s="49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.72589999999999999</v>
       </c>
       <c r="T27" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.75180000000000002</v>
       </c>
-      <c r="U27" s="93"/>
-      <c r="V27" s="106"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="98"/>
       <c r="W27" s="15" t="s">
         <v>21</v>
       </c>
       <c r="X27" s="58">
-        <f t="shared" ref="X27:X44" si="9">B5</f>
+        <f t="shared" ref="X27:X44" si="23">B5</f>
         <v>0.92030000000000001</v>
       </c>
       <c r="Y27" s="49">
-        <f t="shared" ref="Y27:Y44" si="10">B27</f>
+        <f t="shared" ref="Y27:Y44" si="24">B27</f>
         <v>0.8175</v>
       </c>
       <c r="Z27" s="49">
-        <f t="shared" ref="Z27:Z44" si="11">B49</f>
+        <f t="shared" ref="Z27:Z44" si="25">B49</f>
         <v>0.75609999999999999</v>
       </c>
       <c r="AA27" s="49">
-        <f t="shared" ref="AA27:AA44" si="12">B71</f>
+        <f t="shared" ref="AA27:AA44" si="26">B71</f>
         <v>0.98119999999999996</v>
       </c>
       <c r="AB27" s="49">
-        <f t="shared" ref="AB27:AB44" si="13">B93</f>
+        <f t="shared" ref="AB27:AB44" si="27">B93</f>
         <v>0.72450000000000003</v>
       </c>
       <c r="AC27" s="49">
-        <f t="shared" ref="AC27:AC44" si="14">B115</f>
+        <f t="shared" ref="AC27:AC44" si="28">B115</f>
         <v>0.71879999999999999</v>
       </c>
       <c r="AD27" s="61">
-        <f t="shared" ref="AD27:AD44" si="15">B137</f>
+        <f t="shared" ref="AD27:AD44" si="29">B137</f>
         <v>0.72789999999999999</v>
       </c>
-      <c r="AE27" s="93"/>
+      <c r="AE27" s="113"/>
       <c r="AG27" t="e">
-        <f t="shared" ref="AG27:AG44" si="16">(N27/AG25-X27/AH25)</f>
+        <f>(N27/AG25-X27/AH25)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH27">
@@ -6802,73 +6842,73 @@
         <v>16</v>
       </c>
       <c r="N28" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.86109999999999998</v>
       </c>
       <c r="O28" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.72</v>
       </c>
       <c r="P28" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.64849999999999997</v>
       </c>
       <c r="Q28" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.86750000000000005</v>
       </c>
       <c r="R28" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.81669999999999998</v>
       </c>
       <c r="S28" s="49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.71809999999999996</v>
       </c>
       <c r="T28" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.73640000000000005</v>
       </c>
-      <c r="U28" s="93"/>
-      <c r="V28" s="106"/>
+      <c r="U28" s="113"/>
+      <c r="V28" s="98"/>
       <c r="W28" s="15" t="s">
         <v>16</v>
       </c>
       <c r="X28" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.83699999999999997</v>
       </c>
       <c r="Y28" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.66320000000000001</v>
       </c>
       <c r="Z28" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="AA28" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.80879999999999996</v>
       </c>
       <c r="AB28" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.75090000000000001</v>
       </c>
       <c r="AC28" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.69579999999999997</v>
       </c>
       <c r="AD28" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.72789999999999999</v>
       </c>
-      <c r="AE28" s="93"/>
+      <c r="AE28" s="113"/>
       <c r="AG28">
-        <f t="shared" si="16"/>
+        <f>(N28/AG26-X28/AH26)</f>
         <v>155.60325892742196</v>
       </c>
       <c r="AH28">
-        <f t="shared" ref="AH27:AH44" si="17">CORREL(N28:T28,X28:AD28)</f>
+        <f>CORREL(N28:T28,X28:AD28)</f>
         <v>0.96448764161955702</v>
       </c>
     </row>
@@ -6897,73 +6937,73 @@
         <v>8</v>
       </c>
       <c r="N29" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.93910000000000005</v>
       </c>
       <c r="O29" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.87529999999999997</v>
       </c>
       <c r="P29" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.79510000000000003</v>
       </c>
       <c r="Q29" s="59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.98399999999999999</v>
       </c>
       <c r="R29" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.85880000000000001</v>
       </c>
       <c r="S29" s="59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.78600000000000003</v>
       </c>
       <c r="T29" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.74139999999999995</v>
       </c>
-      <c r="U29" s="93"/>
-      <c r="V29" s="106"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="98"/>
       <c r="W29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="X29" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.92120000000000002</v>
       </c>
       <c r="Y29" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.83509999999999995</v>
       </c>
       <c r="Z29" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.75070000000000003</v>
       </c>
       <c r="AA29" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.97809999999999997</v>
       </c>
       <c r="AB29" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.8</v>
       </c>
       <c r="AC29" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.77290000000000003</v>
       </c>
       <c r="AD29" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.70820000000000005</v>
       </c>
-      <c r="AE29" s="93"/>
+      <c r="AE29" s="113"/>
       <c r="AG29" t="e">
-        <f t="shared" si="16"/>
+        <f>(N29/AG27-X29/AH27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="17"/>
+        <f>CORREL(N29:T29,X29:AD29)</f>
         <v>0.98328635208847004</v>
       </c>
     </row>
@@ -7004,73 +7044,73 @@
         <v>85</v>
       </c>
       <c r="N30" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.78220000000000001</v>
       </c>
       <c r="O30" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.70169999999999999</v>
       </c>
       <c r="P30" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.77180000000000004</v>
       </c>
       <c r="Q30" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.94330000000000003</v>
       </c>
       <c r="R30" s="64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.87050000000000005</v>
       </c>
       <c r="S30" s="64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.73770000000000002</v>
       </c>
       <c r="T30" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.71399999999999997</v>
       </c>
-      <c r="U30" s="93"/>
-      <c r="V30" s="106"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="98"/>
       <c r="W30" s="15" t="s">
         <v>85</v>
       </c>
       <c r="X30" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.73460000000000003</v>
       </c>
       <c r="Y30" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.64390000000000003</v>
       </c>
       <c r="Z30" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.7046</v>
       </c>
       <c r="AA30" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.91849999999999998</v>
       </c>
       <c r="AB30" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.81130000000000002</v>
       </c>
       <c r="AC30" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.7208</v>
       </c>
       <c r="AD30" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.7016</v>
       </c>
-      <c r="AE30" s="93"/>
+      <c r="AE30" s="113"/>
       <c r="AG30">
-        <f t="shared" si="16"/>
+        <f>(N30/AG28-X30/AH28)</f>
         <v>-0.75662102666649345</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="17"/>
+        <f>CORREL(N30:T30,X30:AD30)</f>
         <v>0.9688090644371411</v>
       </c>
     </row>
@@ -7115,69 +7155,69 @@
         <v>0.95789999999999997</v>
       </c>
       <c r="O31" s="56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.84840000000000004</v>
       </c>
       <c r="P31" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.85509999999999997</v>
       </c>
       <c r="Q31" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.99680000000000002</v>
       </c>
       <c r="R31" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.9163</v>
       </c>
       <c r="S31" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.77710000000000001</v>
       </c>
       <c r="T31" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.81200000000000006</v>
       </c>
-      <c r="U31" s="93"/>
-      <c r="V31" s="106"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="98"/>
       <c r="W31" s="15" t="s">
         <v>86</v>
       </c>
       <c r="X31" s="55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.94199999999999995</v>
       </c>
       <c r="Y31" s="56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.81579999999999997</v>
       </c>
       <c r="Z31" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.82379999999999998</v>
       </c>
       <c r="AA31" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.99370000000000003</v>
       </c>
       <c r="AB31" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.87170000000000003</v>
       </c>
       <c r="AC31" s="56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.76459999999999995</v>
       </c>
       <c r="AD31" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.79669999999999996</v>
       </c>
-      <c r="AE31" s="93"/>
+      <c r="AE31" s="113"/>
       <c r="AG31" t="e">
-        <f t="shared" si="16"/>
+        <f>(N31/AG29-X31/AH29)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="17"/>
+        <f>CORREL(N31:T31,X31:AD31)</f>
         <v>0.98513248609064941</v>
       </c>
     </row>
@@ -7224,73 +7264,73 @@
         <v>87</v>
       </c>
       <c r="N32" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.95789999999999997</v>
       </c>
       <c r="O32" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.84930000000000005</v>
       </c>
       <c r="P32" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.85509999999999997</v>
       </c>
       <c r="Q32" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.99680000000000002</v>
       </c>
       <c r="R32" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.9163</v>
       </c>
       <c r="S32" s="49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.77710000000000001</v>
       </c>
       <c r="T32" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.81740000000000002</v>
       </c>
-      <c r="U32" s="93"/>
-      <c r="V32" s="106"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="98"/>
       <c r="W32" s="15" t="s">
         <v>87</v>
       </c>
       <c r="X32" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.94199999999999995</v>
       </c>
       <c r="Y32" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.8175</v>
       </c>
       <c r="Z32" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.82379999999999998</v>
       </c>
       <c r="AA32" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.99370000000000003</v>
       </c>
       <c r="AB32" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.87170000000000003</v>
       </c>
       <c r="AC32" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.76459999999999995</v>
       </c>
       <c r="AD32" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.8</v>
       </c>
-      <c r="AE32" s="93"/>
+      <c r="AE32" s="113"/>
       <c r="AG32">
-        <f t="shared" si="16"/>
+        <f>(N32/AG30-X32/AH30)</f>
         <v>-2.2383513137308979</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="17"/>
+        <f>CORREL(N32:T32,X32:AD32)</f>
         <v>0.98554784962116471</v>
       </c>
     </row>
@@ -7331,73 +7371,73 @@
         <v>10</v>
       </c>
       <c r="N33" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.94359999999999999</v>
       </c>
       <c r="O33" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.86980000000000002</v>
       </c>
       <c r="P33" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.84119999999999995</v>
       </c>
       <c r="Q33" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.99519999999999997</v>
       </c>
       <c r="R33" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.879</v>
       </c>
       <c r="S33" s="49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.79790000000000005</v>
       </c>
       <c r="T33" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.77400000000000002</v>
       </c>
-      <c r="U33" s="93"/>
-      <c r="V33" s="106"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="98"/>
       <c r="W33" s="15" t="s">
         <v>10</v>
       </c>
       <c r="X33" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.92569999999999997</v>
       </c>
       <c r="Y33" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.82979999999999998</v>
       </c>
       <c r="Z33" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.80489999999999995</v>
       </c>
       <c r="AA33" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="AB33" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.8226</v>
       </c>
       <c r="AC33" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.78539999999999999</v>
       </c>
       <c r="AD33" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.75409999999999999</v>
       </c>
-      <c r="AE33" s="93"/>
+      <c r="AE33" s="113"/>
       <c r="AG33" t="e">
-        <f t="shared" si="16"/>
+        <f>(N33/AG31-X33/AH31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="17"/>
+        <f>CORREL(N33:T33,X33:AD33)</f>
         <v>0.97728304176708658</v>
       </c>
     </row>
@@ -7444,73 +7484,73 @@
         <v>11</v>
       </c>
       <c r="N34" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.94359999999999999</v>
       </c>
       <c r="O34" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.86980000000000002</v>
       </c>
       <c r="P34" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.84119999999999995</v>
       </c>
       <c r="Q34" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.99519999999999997</v>
       </c>
       <c r="R34" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.879</v>
       </c>
       <c r="S34" s="49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.79790000000000005</v>
       </c>
       <c r="T34" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.77400000000000002</v>
       </c>
-      <c r="U34" s="93"/>
-      <c r="V34" s="106"/>
+      <c r="U34" s="113"/>
+      <c r="V34" s="98"/>
       <c r="W34" s="15" t="s">
         <v>11</v>
       </c>
       <c r="X34" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.92569999999999997</v>
       </c>
       <c r="Y34" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.82979999999999998</v>
       </c>
       <c r="Z34" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.80489999999999995</v>
       </c>
       <c r="AA34" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="AB34" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.8226</v>
       </c>
       <c r="AC34" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.78539999999999999</v>
       </c>
       <c r="AD34" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.75409999999999999</v>
       </c>
-      <c r="AE34" s="93"/>
+      <c r="AE34" s="113"/>
       <c r="AG34">
-        <f t="shared" si="16"/>
+        <f>(N34/AG32-X34/AH32)</f>
         <v>-1.3608348139252295</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="17"/>
+        <f>CORREL(N34:T34,X34:AD34)</f>
         <v>0.97728304176708658</v>
       </c>
     </row>
@@ -7551,73 +7591,73 @@
         <v>12</v>
       </c>
       <c r="N35" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.8679</v>
       </c>
       <c r="O35" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.71989999999999998</v>
       </c>
       <c r="P35" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.67169999999999996</v>
       </c>
       <c r="Q35" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.87409999999999999</v>
       </c>
       <c r="R35" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.82230000000000003</v>
       </c>
       <c r="S35" s="49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.72119999999999995</v>
       </c>
       <c r="T35" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.73880000000000001</v>
       </c>
-      <c r="U35" s="93"/>
-      <c r="V35" s="106"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="98"/>
       <c r="W35" s="15" t="s">
         <v>12</v>
       </c>
       <c r="X35" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.84330000000000005</v>
       </c>
       <c r="Y35" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.66490000000000005</v>
       </c>
       <c r="Z35" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.6341</v>
       </c>
       <c r="AA35" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.81499999999999995</v>
       </c>
       <c r="AB35" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.75470000000000004</v>
       </c>
       <c r="AC35" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.69789999999999996</v>
       </c>
       <c r="AD35" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.73440000000000005</v>
       </c>
-      <c r="AE35" s="93"/>
+      <c r="AE35" s="113"/>
       <c r="AG35" t="e">
-        <f t="shared" si="16"/>
+        <f>(N35/AG33-X35/AH33)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="17"/>
+        <f>CORREL(N35:T35,X35:AD35)</f>
         <v>0.95859863599870321</v>
       </c>
     </row>
@@ -7661,73 +7701,73 @@
         <v>13</v>
       </c>
       <c r="N36" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.74229999999999996</v>
       </c>
       <c r="O36" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.59660000000000002</v>
       </c>
       <c r="P36" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.49120000000000003</v>
       </c>
       <c r="Q36" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.74029999999999996</v>
       </c>
       <c r="R36" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.65100000000000002</v>
       </c>
       <c r="S36" s="49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.51700000000000002</v>
       </c>
       <c r="T36" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.52259999999999995</v>
       </c>
-      <c r="U36" s="93"/>
-      <c r="V36" s="106"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="98"/>
       <c r="W36" s="15" t="s">
         <v>13</v>
       </c>
       <c r="X36" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.71289999999999998</v>
       </c>
       <c r="Y36" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.55610000000000004</v>
       </c>
       <c r="Z36" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.44440000000000002</v>
       </c>
       <c r="AA36" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.69910000000000005</v>
       </c>
       <c r="AB36" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.59250000000000003</v>
       </c>
       <c r="AC36" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.50419999999999998</v>
       </c>
       <c r="AD36" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.49180000000000001</v>
       </c>
-      <c r="AE36" s="93"/>
+      <c r="AE36" s="113"/>
       <c r="AG36">
-        <f t="shared" si="16"/>
+        <f>(N36/AG34-X36/AH34)</f>
         <v>-1.274945363831911</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="17"/>
+        <f>CORREL(N36:T36,X36:AD36)</f>
         <v>0.99050352632565197</v>
       </c>
     </row>
@@ -7768,73 +7808,73 @@
         <v>88</v>
       </c>
       <c r="N37" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.95289999999999997</v>
       </c>
       <c r="O37" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.83640000000000003</v>
       </c>
       <c r="P37" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.84460000000000002</v>
       </c>
       <c r="Q37" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.99329999999999996</v>
       </c>
       <c r="R37" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.92020000000000002</v>
       </c>
       <c r="S37" s="59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.77749999999999997</v>
       </c>
       <c r="T37" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.81599999999999995</v>
       </c>
-      <c r="U37" s="93"/>
-      <c r="V37" s="106"/>
+      <c r="U37" s="113"/>
+      <c r="V37" s="98"/>
       <c r="W37" s="15" t="s">
         <v>88</v>
       </c>
       <c r="X37" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.9375</v>
       </c>
       <c r="Y37" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.80349999999999999</v>
       </c>
       <c r="Z37" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.81569999999999998</v>
       </c>
       <c r="AA37" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.98750000000000004</v>
       </c>
       <c r="AB37" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.87919999999999998</v>
       </c>
       <c r="AC37" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.76249999999999996</v>
       </c>
       <c r="AD37" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.8</v>
       </c>
-      <c r="AE37" s="93"/>
+      <c r="AE37" s="113"/>
       <c r="AG37" t="e">
-        <f t="shared" si="16"/>
+        <f>(N37/AG35-X37/AH35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="17"/>
+        <f>CORREL(N37:T37,X37:AD37)</f>
         <v>0.9891139347288278</v>
       </c>
     </row>
@@ -7881,73 +7921,73 @@
         <v>89</v>
       </c>
       <c r="N38" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.91959999999999997</v>
       </c>
       <c r="O38" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.77339999999999998</v>
       </c>
       <c r="P38" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.78480000000000005</v>
       </c>
       <c r="Q38" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.97889999999999999</v>
       </c>
       <c r="R38" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.86719999999999997</v>
       </c>
       <c r="S38" s="49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.79469999999999996</v>
       </c>
       <c r="T38" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.80420000000000003</v>
       </c>
-      <c r="U38" s="93"/>
-      <c r="V38" s="106"/>
+      <c r="U38" s="113"/>
+      <c r="V38" s="98"/>
       <c r="W38" s="15" t="s">
         <v>89</v>
       </c>
       <c r="X38" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.90580000000000005</v>
       </c>
       <c r="Y38" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.74739999999999995</v>
       </c>
       <c r="Z38" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.74529999999999996</v>
       </c>
       <c r="AA38" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.9718</v>
       </c>
       <c r="AB38" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.81889999999999996</v>
       </c>
       <c r="AC38" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.7792</v>
       </c>
       <c r="AD38" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.78359999999999996</v>
       </c>
-      <c r="AE38" s="93"/>
+      <c r="AE38" s="113"/>
       <c r="AG38">
-        <f t="shared" si="16"/>
+        <f>(N38/AG36-X38/AH36)</f>
         <v>-1.6357701872356873</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="17"/>
+        <f>CORREL(N38:T38,X38:AD38)</f>
         <v>0.9879006339586619</v>
       </c>
     </row>
@@ -7988,73 +8028,73 @@
         <v>90</v>
       </c>
       <c r="N39" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.96040000000000003</v>
       </c>
       <c r="O39" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.85089999999999999</v>
       </c>
       <c r="P39" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.85829999999999995</v>
       </c>
       <c r="Q39" s="59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.99839999999999995</v>
       </c>
       <c r="R39" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.91469999999999996</v>
       </c>
       <c r="S39" s="49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.77769999999999995</v>
       </c>
       <c r="T39" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.80669999999999997</v>
       </c>
-      <c r="U39" s="93"/>
-      <c r="V39" s="106"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="98"/>
       <c r="W39" s="15" t="s">
         <v>90</v>
       </c>
       <c r="X39" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.9466</v>
       </c>
       <c r="Y39" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.81930000000000003</v>
       </c>
       <c r="Z39" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.82930000000000004</v>
       </c>
       <c r="AA39" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.99690000000000001</v>
       </c>
       <c r="AB39" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.87170000000000003</v>
       </c>
       <c r="AC39" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.76459999999999995</v>
       </c>
       <c r="AD39" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.78690000000000004</v>
       </c>
-      <c r="AE39" s="93"/>
+      <c r="AE39" s="113"/>
       <c r="AG39" t="e">
-        <f t="shared" si="16"/>
+        <f>(N39/AG37-X39/AH37)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH39">
-        <f t="shared" si="17"/>
+        <f>CORREL(N39:T39,X39:AD39)</f>
         <v>0.98751651329076784</v>
       </c>
     </row>
@@ -8101,73 +8141,73 @@
         <v>91</v>
       </c>
       <c r="N40" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.96040000000000003</v>
       </c>
       <c r="O40" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.85089999999999999</v>
       </c>
       <c r="P40" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.85829999999999995</v>
       </c>
       <c r="Q40" s="66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.99839999999999995</v>
       </c>
       <c r="R40" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.91469999999999996</v>
       </c>
       <c r="S40" s="64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.77769999999999995</v>
       </c>
       <c r="T40" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.80669999999999997</v>
       </c>
-      <c r="U40" s="93"/>
-      <c r="V40" s="106"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="98"/>
       <c r="W40" s="15" t="s">
         <v>91</v>
       </c>
       <c r="X40" s="63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.9466</v>
       </c>
       <c r="Y40" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.81930000000000003</v>
       </c>
       <c r="Z40" s="64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.82930000000000004</v>
       </c>
       <c r="AA40" s="64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.99690000000000001</v>
       </c>
       <c r="AB40" s="64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.87170000000000003</v>
       </c>
       <c r="AC40" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.76459999999999995</v>
       </c>
       <c r="AD40" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.78690000000000004</v>
       </c>
-      <c r="AE40" s="93"/>
+      <c r="AE40" s="113"/>
       <c r="AG40">
-        <f t="shared" si="16"/>
+        <f>(N40/AG38-X40/AH38)</f>
         <v>-1.5453175737957019</v>
       </c>
       <c r="AH40">
-        <f t="shared" si="17"/>
+        <f>CORREL(N40:T40,X40:AD40)</f>
         <v>0.98751651329076784</v>
       </c>
     </row>
@@ -8208,73 +8248,73 @@
         <v>92</v>
       </c>
       <c r="N41" s="55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.96599999999999997</v>
       </c>
       <c r="O41" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.87719999999999998</v>
       </c>
       <c r="P41" s="67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.86439999999999995</v>
       </c>
       <c r="Q41" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.99839999999999995</v>
       </c>
       <c r="R41" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.88660000000000005</v>
       </c>
       <c r="S41" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.79600000000000004</v>
       </c>
       <c r="T41" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.82199999999999995</v>
       </c>
-      <c r="U41" s="93"/>
-      <c r="V41" s="106"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="98"/>
       <c r="W41" s="15" t="s">
         <v>92</v>
       </c>
       <c r="X41" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.95469999999999999</v>
       </c>
       <c r="Y41" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.84209999999999996</v>
       </c>
       <c r="Z41" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.8347</v>
       </c>
       <c r="AA41" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.99690000000000001</v>
       </c>
       <c r="AB41" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.84150000000000003</v>
       </c>
       <c r="AC41" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.78539999999999999</v>
       </c>
       <c r="AD41" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.79669999999999996</v>
       </c>
-      <c r="AE41" s="93"/>
+      <c r="AE41" s="113"/>
       <c r="AG41" t="e">
-        <f t="shared" si="16"/>
+        <f>(N41/AG39-X41/AH39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="17"/>
+        <f>CORREL(N41:T41,X41:AD41)</f>
         <v>0.98398698564012588</v>
       </c>
     </row>
@@ -8321,73 +8361,73 @@
         <v>93</v>
       </c>
       <c r="N42" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.96460000000000001</v>
       </c>
       <c r="O42" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.877</v>
       </c>
       <c r="P42" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.86299999999999999</v>
       </c>
       <c r="Q42" s="59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.99839999999999995</v>
       </c>
       <c r="R42" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.8851</v>
       </c>
       <c r="S42" s="49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.79879999999999995</v>
       </c>
       <c r="T42" s="61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.80359999999999998</v>
       </c>
-      <c r="U42" s="93"/>
-      <c r="V42" s="106"/>
+      <c r="U42" s="113"/>
+      <c r="V42" s="98"/>
       <c r="W42" s="15" t="s">
         <v>93</v>
       </c>
       <c r="X42" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.95379999999999998</v>
       </c>
       <c r="Y42" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.84040000000000004</v>
       </c>
       <c r="Z42" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.83199999999999996</v>
       </c>
       <c r="AA42" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.99690000000000001</v>
       </c>
       <c r="AB42" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.84150000000000003</v>
       </c>
       <c r="AC42" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.79169999999999996</v>
       </c>
       <c r="AD42" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.78690000000000004</v>
       </c>
-      <c r="AE42" s="93"/>
+      <c r="AE42" s="113"/>
       <c r="AG42">
-        <f t="shared" si="16"/>
+        <f>(N42/AG40-X42/AH40)</f>
         <v>-1.5900655303036495</v>
       </c>
       <c r="AH42">
-        <f t="shared" si="17"/>
+        <f>CORREL(N42:T42,X42:AD42)</f>
         <v>0.98119445042960818</v>
       </c>
     </row>
@@ -8428,73 +8468,73 @@
         <v>94</v>
       </c>
       <c r="N43" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.9617</v>
       </c>
       <c r="O43" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.86580000000000001</v>
       </c>
       <c r="P43" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.86439999999999995</v>
       </c>
       <c r="Q43" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.99370000000000003</v>
       </c>
       <c r="R43" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.86409999999999998</v>
       </c>
       <c r="S43" s="49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.79339999999999999</v>
       </c>
       <c r="T43" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.81689999999999996</v>
       </c>
-      <c r="U43" s="93"/>
-      <c r="V43" s="106"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="98"/>
       <c r="W43" s="15" t="s">
         <v>94</v>
       </c>
       <c r="X43" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.94750000000000001</v>
       </c>
       <c r="Y43" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.83160000000000001</v>
       </c>
       <c r="Z43" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.8347</v>
       </c>
       <c r="AA43" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="AB43" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.81510000000000005</v>
       </c>
       <c r="AC43" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.78120000000000001</v>
       </c>
       <c r="AD43" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.79339999999999999</v>
       </c>
-      <c r="AE43" s="93"/>
+      <c r="AE43" s="113"/>
       <c r="AG43" t="e">
-        <f t="shared" si="16"/>
+        <f>(N43/AG41-X43/AH41)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH43">
-        <f t="shared" si="17"/>
+        <f>CORREL(N43:T43,X43:AD43)</f>
         <v>0.98445673787476584</v>
       </c>
     </row>
@@ -8541,73 +8581,73 @@
         <v>95</v>
       </c>
       <c r="N44" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>0.96230000000000004</v>
       </c>
       <c r="O44" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.87350000000000005</v>
       </c>
       <c r="P44" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.86019999999999996</v>
       </c>
       <c r="Q44" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.99519999999999997</v>
       </c>
       <c r="R44" s="64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>0.85660000000000003</v>
       </c>
       <c r="S44" s="64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.78779999999999994</v>
       </c>
       <c r="T44" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>0.81810000000000005</v>
       </c>
-      <c r="U44" s="93"/>
-      <c r="V44" s="106"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="98"/>
       <c r="W44" s="15" t="s">
         <v>95</v>
       </c>
       <c r="X44" s="63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>0.94840000000000002</v>
       </c>
       <c r="Y44" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.83860000000000001</v>
       </c>
       <c r="Z44" s="64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.82930000000000004</v>
       </c>
       <c r="AA44" s="64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.99060000000000004</v>
       </c>
       <c r="AB44" s="64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.8075</v>
       </c>
       <c r="AC44" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.77710000000000001</v>
       </c>
       <c r="AD44" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.79339999999999999</v>
       </c>
-      <c r="AE44" s="93"/>
+      <c r="AE44" s="113"/>
       <c r="AG44">
-        <f t="shared" si="16"/>
+        <f>(N44/AG42-X44/AH42)</f>
         <v>-1.5717721951663621</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="17"/>
+        <f>CORREL(N44:T44,X44:AD44)</f>
         <v>0.98447618709504825</v>
       </c>
     </row>
@@ -8663,27 +8703,27 @@
         <v>0</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:T47" si="18">-Y47</f>
+        <f t="shared" ref="O47:T47" si="30">-Y47</f>
         <v>-2.0838440794312759E-3</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q47" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R47" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S47" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T47" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>-4.1420861051839853E-3</v>
       </c>
       <c r="U47" s="7"/>
@@ -8696,27 +8736,27 @@
         <v>0</v>
       </c>
       <c r="Y47" s="7">
-        <f t="shared" ref="Y47:AD47" si="19">(Y32-Y31)/Y31</f>
+        <f t="shared" ref="Y47:AD47" si="31">(Y32-Y31)/Y31</f>
         <v>2.0838440794312759E-3</v>
       </c>
       <c r="Z47" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AA47" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB47" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC47" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AD47" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>4.1420861051839853E-3</v>
       </c>
       <c r="AG47">
@@ -8728,23 +8768,23 @@
         <v>0.99687106745779452</v>
       </c>
       <c r="AI47">
-        <f t="shared" ref="AI47:AM47" si="20">PEARSON(P26:P44,Z26:Z44)</f>
+        <f>PEARSON(P26:P44,Z26:Z44)</f>
         <v>0.99784442256508799</v>
       </c>
       <c r="AJ47">
-        <f t="shared" si="20"/>
+        <f>PEARSON(Q26:Q44,AA26:AA44)</f>
         <v>0.99390992736885142</v>
       </c>
       <c r="AK47">
-        <f t="shared" si="20"/>
+        <f>PEARSON(R26:R44,AB26:AB44)</f>
         <v>0.99672837685749471</v>
       </c>
       <c r="AL47">
-        <f t="shared" si="20"/>
+        <f>PEARSON(S26:S44,AC26:AC44)</f>
         <v>0.99889596276999892</v>
       </c>
       <c r="AM47">
-        <f t="shared" si="20"/>
+        <f>PEARSON(T26:T44,AD26:AD44)</f>
         <v>0.99727160102519641</v>
       </c>
       <c r="AN47">
@@ -8776,31 +8816,31 @@
         <v>10</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" ref="N48:N53" si="21">-X48</f>
+        <f t="shared" ref="N48:N53" si="32">-X48</f>
         <v>0</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" ref="O48:O53" si="22">-Y48</f>
+        <f t="shared" ref="O48:O53" si="33">-Y48</f>
         <v>0</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" ref="P48:P53" si="23">-Z48</f>
+        <f t="shared" ref="P48:P53" si="34">-Z48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="7">
-        <f t="shared" ref="Q48:Q53" si="24">-AA48</f>
+        <f t="shared" ref="Q48:Q53" si="35">-AA48</f>
         <v>0</v>
       </c>
       <c r="R48" s="7">
-        <f t="shared" ref="R48:R53" si="25">-AB48</f>
+        <f t="shared" ref="R48:R53" si="36">-AB48</f>
         <v>0</v>
       </c>
       <c r="S48" s="7">
-        <f t="shared" ref="S48:S53" si="26">-AC48</f>
+        <f t="shared" ref="S48:S53" si="37">-AC48</f>
         <v>0</v>
       </c>
       <c r="T48" s="7">
-        <f t="shared" ref="T48:T53" si="27">-AD48</f>
+        <f t="shared" ref="T48:T53" si="38">-AD48</f>
         <v>0</v>
       </c>
       <c r="U48" s="7"/>
@@ -8813,27 +8853,27 @@
         <v>0</v>
       </c>
       <c r="Y48" s="7">
-        <f t="shared" ref="Y48:AD48" si="28">(Y34-Y33)/Y33</f>
+        <f t="shared" ref="Y48:AD48" si="39">(Y34-Y33)/Y33</f>
         <v>0</v>
       </c>
       <c r="Z48" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA48" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AB48" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AC48" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AD48" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -8862,31 +8902,31 @@
         <v>12</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0.15463061781098075</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0.16363362911716048</v>
       </c>
       <c r="P49" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0.29916416968932341</v>
       </c>
       <c r="Q49" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0.1422085889570551</v>
       </c>
       <c r="R49" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.21491983569630316</v>
       </c>
       <c r="S49" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.277546926493767</v>
       </c>
       <c r="T49" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.33033769063180829</v>
       </c>
       <c r="U49" s="7"/>
@@ -8899,27 +8939,27 @@
         <v>-0.15463061781098075</v>
       </c>
       <c r="Y49" s="7">
-        <f t="shared" ref="Y49:AD49" si="29">(Y36-Y35)/Y35</f>
+        <f t="shared" ref="Y49:AD49" si="40">(Y36-Y35)/Y35</f>
         <v>-0.16363362911716048</v>
       </c>
       <c r="Z49" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>-0.29916416968932341</v>
       </c>
       <c r="AA49" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>-0.1422085889570551</v>
       </c>
       <c r="AB49" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>-0.21491983569630316</v>
       </c>
       <c r="AC49" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>-0.277546926493767</v>
       </c>
       <c r="AD49" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>-0.33033769063180829</v>
       </c>
     </row>
@@ -8948,31 +8988,31 @@
         <v>88</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>3.3813333333333279E-2</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>6.9819539514623566E-2</v>
       </c>
       <c r="P50" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>8.6306240039230139E-2</v>
       </c>
       <c r="Q50" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>1.5898734177215237E-2</v>
       </c>
       <c r="R50" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>6.8585077343039147E-2</v>
       </c>
       <c r="S50" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>-2.1901639344262359E-2</v>
       </c>
       <c r="T50" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>2.0500000000000101E-2</v>
       </c>
       <c r="U50" s="7"/>
@@ -8985,27 +9025,27 @@
         <v>-3.3813333333333279E-2</v>
       </c>
       <c r="Y50" s="7">
-        <f t="shared" ref="Y50:AD50" si="30">(Y38-Y37)/Y37</f>
+        <f t="shared" ref="Y50:AD50" si="41">(Y38-Y37)/Y37</f>
         <v>-6.9819539514623566E-2</v>
       </c>
       <c r="Z50" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>-8.6306240039230139E-2</v>
       </c>
       <c r="AA50" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>-1.5898734177215237E-2</v>
       </c>
       <c r="AB50" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>-6.8585077343039147E-2</v>
       </c>
       <c r="AC50" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>2.1901639344262359E-2</v>
       </c>
       <c r="AD50" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>-2.0500000000000101E-2</v>
       </c>
     </row>
@@ -9034,31 +9074,31 @@
         <v>90</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q51" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R51" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S51" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T51" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="U51" s="7"/>
@@ -9071,27 +9111,27 @@
         <v>0</v>
       </c>
       <c r="Y51" s="7">
-        <f t="shared" ref="Y51:AD51" si="31">(Y40-Y39)/Y39</f>
+        <f t="shared" ref="Y51:AD51" si="42">(Y40-Y39)/Y39</f>
         <v>0</v>
       </c>
       <c r="Z51" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AA51" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB51" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AC51" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AD51" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -9132,31 +9172,31 @@
         <v>92</v>
       </c>
       <c r="N52" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>9.4270451450718755E-4</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2.0187626172662675E-3</v>
       </c>
       <c r="P52" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>3.2346951000359839E-3</v>
       </c>
       <c r="Q52" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R52" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S52" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>-8.0213903743315152E-3</v>
       </c>
       <c r="T52" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>1.2300740554788402E-2</v>
       </c>
       <c r="U52" s="7"/>
@@ -9169,27 +9209,27 @@
         <v>-9.4270451450718755E-4</v>
       </c>
       <c r="Y52" s="7">
-        <f t="shared" ref="Y52:AD52" si="32">(Y42-Y41)/Y41</f>
+        <f t="shared" ref="Y52:AD52" si="43">(Y42-Y41)/Y41</f>
         <v>-2.0187626172662675E-3</v>
       </c>
       <c r="Z52" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>-3.2346951000359839E-3</v>
       </c>
       <c r="AA52" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AB52" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC52" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>8.0213903743315152E-3</v>
       </c>
       <c r="AD52" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>-1.2300740554788402E-2</v>
       </c>
     </row>
@@ -9230,31 +9270,31 @@
         <v>94</v>
       </c>
       <c r="N53" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>-9.4986807387864049E-4</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>-8.4175084175084243E-3</v>
       </c>
       <c r="P53" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>6.4693902000718343E-3</v>
       </c>
       <c r="Q53" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R53" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>9.3240093240093865E-3</v>
       </c>
       <c r="S53" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>5.2483358934971745E-3</v>
       </c>
       <c r="T53" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="U53" s="7"/>
@@ -9267,27 +9307,27 @@
         <v>9.4986807387864049E-4</v>
       </c>
       <c r="Y53" s="7">
-        <f t="shared" ref="Y53:AD53" si="33">(Y44-Y43)/Y43</f>
+        <f t="shared" ref="Y53:AD53" si="44">(Y44-Y43)/Y43</f>
         <v>8.4175084175084243E-3</v>
       </c>
       <c r="Z53" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>-6.4693902000718343E-3</v>
       </c>
       <c r="AA53" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AB53" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>-9.3240093240093865E-3</v>
       </c>
       <c r="AC53" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>-5.2483358934971745E-3</v>
       </c>
       <c r="AD53" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -14672,7 +14712,7 @@
     <col min="2" max="2" width="4.140625" style="27" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" style="19" customWidth="1"/>
     <col min="4" max="11" width="7.140625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="99" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="94" customWidth="1"/>
     <col min="13" max="18" width="7.140625" style="19" customWidth="1"/>
     <col min="19" max="19" width="4.42578125" style="27" customWidth="1"/>
     <col min="20" max="23" width="4" customWidth="1"/>
@@ -14697,51 +14737,51 @@
     </row>
     <row r="2" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="22"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
     </row>
     <row r="3" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
       <c r="K3" s="30"/>
-      <c r="L3" s="104" t="s">
+      <c r="L3" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
     </row>
     <row r="4" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="31"/>
       <c r="C4" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="99">
         <f>results!N9</f>
         <v>2.357926763012055E-2</v>
       </c>
@@ -14749,28 +14789,28 @@
         <f>results!O9</f>
         <v>-2.079510703363957E-3</v>
       </c>
-      <c r="F4" s="109">
+      <c r="F4" s="100">
         <f>results!P9</f>
         <v>8.9538420843803701E-2</v>
       </c>
-      <c r="G4" s="109">
+      <c r="G4" s="100">
         <f>results!Q9</f>
         <v>1.273950264981662E-2</v>
       </c>
-      <c r="H4" s="109">
+      <c r="H4" s="100">
         <f>results!R9</f>
         <v>0.20317460317460317</v>
       </c>
-      <c r="I4" s="109">
+      <c r="I4" s="100">
         <f>results!S9</f>
         <v>6.3717306622147959E-2</v>
       </c>
-      <c r="J4" s="110">
+      <c r="J4" s="101">
         <f>results!T9</f>
         <v>9.4518477812886345E-2</v>
       </c>
       <c r="K4" s="40"/>
-      <c r="L4" s="108">
+      <c r="L4" s="99">
         <f>results!X9</f>
         <v>2.2579244463742869E-2</v>
       </c>
@@ -14778,15 +14818,15 @@
         <f>results!Y9</f>
         <v>-2.3111004670099373E-2</v>
       </c>
-      <c r="N4" s="109">
+      <c r="N4" s="100">
         <f>results!Z9</f>
         <v>8.9538420843803701E-2</v>
       </c>
-      <c r="O4" s="109">
+      <c r="O4" s="100">
         <f>results!AA9</f>
         <v>1.273950264981662E-2</v>
       </c>
-      <c r="P4" s="109">
+      <c r="P4" s="100">
         <f>results!AB9</f>
         <v>7.4448416122272904E-2</v>
       </c>
@@ -14794,7 +14834,7 @@
         <f>results!AC9</f>
         <v>-1.0738776038297431E-2</v>
       </c>
-      <c r="R4" s="110">
+      <c r="R4" s="101">
         <f>results!AD9</f>
         <v>9.4518477812886345E-2</v>
       </c>
@@ -14804,7 +14844,7 @@
       <c r="C5" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="111">
+      <c r="D5" s="102">
         <f>results!N10</f>
         <v>2.357926763012055E-2</v>
       </c>
@@ -14812,28 +14852,28 @@
         <f>results!O10</f>
         <v>0</v>
       </c>
-      <c r="F5" s="112">
+      <c r="F5" s="103">
         <f>results!P10</f>
         <v>8.9538420843803701E-2</v>
       </c>
-      <c r="G5" s="112">
+      <c r="G5" s="103">
         <f>results!Q10</f>
         <v>1.273950264981662E-2</v>
       </c>
-      <c r="H5" s="112">
+      <c r="H5" s="103">
         <f>results!R10</f>
         <v>0.20317460317460317</v>
       </c>
-      <c r="I5" s="112">
+      <c r="I5" s="103">
         <f>results!S10</f>
         <v>6.3717306622147959E-2</v>
       </c>
-      <c r="J5" s="113">
+      <c r="J5" s="104">
         <f>results!T10</f>
         <v>9.9052067591702236E-2</v>
       </c>
       <c r="K5" s="40"/>
-      <c r="L5" s="114">
+      <c r="L5" s="105">
         <f>results!X10</f>
         <v>2.2579244463742869E-2</v>
       </c>
@@ -14841,15 +14881,15 @@
         <f>results!Y10</f>
         <v>-2.1075320320919591E-2</v>
       </c>
-      <c r="N5" s="115">
+      <c r="N5" s="106">
         <f>results!Z10</f>
         <v>8.9538420843803701E-2</v>
       </c>
-      <c r="O5" s="115">
+      <c r="O5" s="106">
         <f>results!AA10</f>
         <v>1.273950264981662E-2</v>
       </c>
-      <c r="P5" s="115">
+      <c r="P5" s="106">
         <f>results!AB10</f>
         <v>7.4448416122272904E-2</v>
       </c>
@@ -14857,7 +14897,7 @@
         <f>results!AC10</f>
         <v>-1.0738776038297431E-2</v>
       </c>
-      <c r="R5" s="116">
+      <c r="R5" s="107">
         <f>results!AD10</f>
         <v>9.9052067591702236E-2</v>
       </c>
@@ -14875,11 +14915,11 @@
         <f>results!O11</f>
         <v>1.5045871559633E-2</v>
       </c>
-      <c r="F6" s="109">
+      <c r="F6" s="100">
         <f>results!P11</f>
         <v>6.4541727284750633E-2</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="100">
         <f>results!Q11</f>
         <v>9.5801059926621229E-3</v>
       </c>
@@ -14891,12 +14931,12 @@
         <f>results!S11</f>
         <v>9.2654424040066768E-2</v>
       </c>
-      <c r="J6" s="110">
+      <c r="J6" s="101">
         <f>results!T11</f>
         <v>3.5993955213628248E-2</v>
       </c>
       <c r="K6" s="40"/>
-      <c r="L6" s="108">
+      <c r="L6" s="99">
         <f>results!X11</f>
         <v>4.8849326964827923E-3</v>
       </c>
@@ -14904,23 +14944,23 @@
         <f>results!Y11</f>
         <v>-6.3465453239132698E-3</v>
       </c>
-      <c r="N6" s="109">
+      <c r="N6" s="100">
         <f>results!Z11</f>
         <v>6.4541727284750633E-2</v>
       </c>
-      <c r="O6" s="109">
+      <c r="O6" s="100">
         <f>results!AA11</f>
         <v>9.5801059926621229E-3</v>
       </c>
-      <c r="P6" s="109">
+      <c r="P6" s="100">
         <f>results!AB11</f>
         <v>1.3928263281153675E-2</v>
       </c>
-      <c r="Q6" s="109">
+      <c r="Q6" s="100">
         <f>results!AC11</f>
         <v>1.6172855479363379E-2</v>
       </c>
-      <c r="R6" s="110">
+      <c r="R6" s="101">
         <f>results!AD11</f>
         <v>3.5993955213628248E-2</v>
       </c>
@@ -14938,11 +14978,11 @@
         <f>results!O12</f>
         <v>1.5045871559633E-2</v>
       </c>
-      <c r="F7" s="112">
+      <c r="F7" s="103">
         <f>results!P12</f>
         <v>6.4541727284750633E-2</v>
       </c>
-      <c r="G7" s="112">
+      <c r="G7" s="103">
         <f>results!Q12</f>
         <v>9.5801059926621229E-3</v>
       </c>
@@ -14954,12 +14994,12 @@
         <f>results!S12</f>
         <v>9.2654424040066768E-2</v>
       </c>
-      <c r="J7" s="113">
+      <c r="J7" s="104">
         <f>results!T12</f>
         <v>3.5993955213628248E-2</v>
       </c>
       <c r="K7" s="40"/>
-      <c r="L7" s="111">
+      <c r="L7" s="102">
         <f>results!X12</f>
         <v>4.8849326964827923E-3</v>
       </c>
@@ -14967,23 +15007,23 @@
         <f>results!Y12</f>
         <v>-6.3465453239132698E-3</v>
       </c>
-      <c r="N7" s="112">
+      <c r="N7" s="103">
         <f>results!Z12</f>
         <v>6.4541727284750633E-2</v>
       </c>
-      <c r="O7" s="112">
+      <c r="O7" s="103">
         <f>results!AA12</f>
         <v>9.5801059926621229E-3</v>
       </c>
-      <c r="P7" s="112">
+      <c r="P7" s="103">
         <f>results!AB12</f>
         <v>1.3928263281153675E-2</v>
       </c>
-      <c r="Q7" s="112">
+      <c r="Q7" s="103">
         <f>results!AC12</f>
         <v>1.6172855479363379E-2</v>
       </c>
-      <c r="R7" s="113">
+      <c r="R7" s="104">
         <f>results!AD12</f>
         <v>3.5993955213628248E-2</v>
       </c>
@@ -15046,7 +15086,7 @@
         <f>results!AC13</f>
         <v>-9.7037132876180696E-2</v>
       </c>
-      <c r="R8" s="110">
+      <c r="R8" s="101">
         <f>results!AD13</f>
         <v>8.9297980491826641E-3</v>
       </c>
@@ -15127,28 +15167,28 @@
         <f>results!O15</f>
         <v>-1.7125382262996956E-2</v>
       </c>
-      <c r="F10" s="109">
+      <c r="F10" s="100">
         <f>results!P15</f>
         <v>7.8825552175638122E-2</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G10" s="100">
         <f>results!Q15</f>
         <v>6.420709335507627E-3</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="108">
         <f>results!R15</f>
         <v>0.21352657004830911</v>
       </c>
-      <c r="I10" s="109">
+      <c r="I10" s="100">
         <f>results!S15</f>
         <v>6.0795770728992712E-2</v>
       </c>
-      <c r="J10" s="110">
+      <c r="J10" s="101">
         <f>results!T15</f>
         <v>9.9052067591702236E-2</v>
       </c>
       <c r="K10" s="40"/>
-      <c r="L10" s="114">
+      <c r="L10" s="105">
         <f>results!X15</f>
         <v>1.7694311767260076E-2</v>
       </c>
@@ -15156,15 +15196,15 @@
         <f>results!Y15</f>
         <v>-3.7839779667105694E-2</v>
       </c>
-      <c r="N10" s="115">
+      <c r="N10" s="106">
         <f>results!Z15</f>
         <v>7.8825552175638122E-2</v>
       </c>
-      <c r="O10" s="115">
+      <c r="O10" s="106">
         <f>results!AA15</f>
         <v>6.420709335507627E-3</v>
       </c>
-      <c r="P10" s="115">
+      <c r="P10" s="106">
         <f>results!AB15</f>
         <v>8.3692838654012031E-2</v>
       </c>
@@ -15172,7 +15212,7 @@
         <f>results!AC15</f>
         <v>-1.3455815758830477E-2</v>
       </c>
-      <c r="R10" s="116">
+      <c r="R10" s="107">
         <f>results!AD15</f>
         <v>9.9052067591702236E-2</v>
       </c>
@@ -15206,7 +15246,7 @@
         <f>results!S16</f>
         <v>8.4028937117417934E-2</v>
       </c>
-      <c r="J11" s="113">
+      <c r="J11" s="104">
         <f>results!T16</f>
         <v>7.6521500206072221E-2</v>
       </c>
@@ -15227,15 +15267,15 @@
         <f>results!AA16</f>
         <v>-9.5801059926620101E-3</v>
       </c>
-      <c r="P11" s="115">
+      <c r="P11" s="106">
         <f>results!AB16</f>
         <v>9.3676814988289652E-3</v>
       </c>
-      <c r="Q11" s="115">
+      <c r="Q11" s="106">
         <f>results!AC16</f>
         <v>8.1511191615991352E-3</v>
       </c>
-      <c r="R11" s="116">
+      <c r="R11" s="107">
         <f>results!AD16</f>
         <v>7.6521500206072221E-2</v>
       </c>
@@ -15245,36 +15285,36 @@
       <c r="C12" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="108">
+      <c r="D12" s="99">
         <f>results!N17</f>
         <v>2.8577637726828198E-2</v>
       </c>
-      <c r="E12" s="109">
+      <c r="E12" s="100">
         <f>results!O17</f>
         <v>2.2018348623853504E-3</v>
       </c>
-      <c r="F12" s="109">
+      <c r="F12" s="100">
         <f>results!P17</f>
         <v>9.6812590927126102E-2</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="100">
         <f>results!Q17</f>
         <v>1.6000815328169635E-2</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="100">
         <f>results!R17</f>
         <v>0.20317460317460317</v>
       </c>
-      <c r="I12" s="109">
+      <c r="I12" s="100">
         <f>results!S17</f>
         <v>6.3717306622147959E-2</v>
       </c>
-      <c r="J12" s="110">
+      <c r="J12" s="101">
         <f>results!T17</f>
         <v>8.1055089984888112E-2</v>
       </c>
       <c r="K12" s="40"/>
-      <c r="L12" s="108">
+      <c r="L12" s="99">
         <f>results!X17</f>
         <v>2.7572731220147608E-2</v>
       </c>
@@ -15282,15 +15322,15 @@
         <f>results!Y17</f>
         <v>-1.8919889833552781E-2</v>
       </c>
-      <c r="N12" s="109">
+      <c r="N12" s="100">
         <f>results!Z17</f>
         <v>9.6812590927126102E-2</v>
       </c>
-      <c r="O12" s="109">
+      <c r="O12" s="100">
         <f>results!AA17</f>
         <v>1.6000815328169635E-2</v>
       </c>
-      <c r="P12" s="109">
+      <c r="P12" s="100">
         <f>results!AB17</f>
         <v>7.4448416122272904E-2</v>
       </c>
@@ -15298,7 +15338,7 @@
         <f>results!AC17</f>
         <v>-1.0738776038297431E-2</v>
       </c>
-      <c r="R12" s="110">
+      <c r="R12" s="101">
         <f>results!AD17</f>
         <v>8.1055089984888112E-2</v>
       </c>
@@ -15308,36 +15348,36 @@
       <c r="C13" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="111">
+      <c r="D13" s="102">
         <f>results!N18</f>
         <v>2.8577637726828198E-2</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="103">
         <f>results!O18</f>
         <v>2.2018348623853504E-3</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="103">
         <f>results!P18</f>
         <v>9.6812590927126102E-2</v>
       </c>
-      <c r="G13" s="112">
+      <c r="G13" s="103">
         <f>results!Q18</f>
         <v>1.6000815328169635E-2</v>
       </c>
-      <c r="H13" s="112">
+      <c r="H13" s="103">
         <f>results!R18</f>
         <v>0.20317460317460317</v>
       </c>
-      <c r="I13" s="112">
+      <c r="I13" s="103">
         <f>results!S18</f>
         <v>6.3717306622147959E-2</v>
       </c>
-      <c r="J13" s="113">
+      <c r="J13" s="104">
         <f>results!T18</f>
         <v>8.1055089984888112E-2</v>
       </c>
       <c r="K13" s="40"/>
-      <c r="L13" s="111">
+      <c r="L13" s="102">
         <f>results!X18</f>
         <v>2.7572731220147608E-2</v>
       </c>
@@ -15345,15 +15385,15 @@
         <f>results!Y18</f>
         <v>-1.8919889833552781E-2</v>
       </c>
-      <c r="N13" s="112">
+      <c r="N13" s="103">
         <f>results!Z18</f>
         <v>9.6812590927126102E-2</v>
       </c>
-      <c r="O13" s="112">
+      <c r="O13" s="103">
         <f>results!AA18</f>
         <v>1.6000815328169635E-2</v>
       </c>
-      <c r="P13" s="112">
+      <c r="P13" s="103">
         <f>results!AB18</f>
         <v>7.4448416122272904E-2</v>
       </c>
@@ -15361,7 +15401,7 @@
         <f>results!AC18</f>
         <v>-1.0738776038297431E-2</v>
       </c>
-      <c r="R13" s="113">
+      <c r="R13" s="104">
         <f>results!AD18</f>
         <v>8.1055089984888112E-2</v>
       </c>
@@ -15371,60 +15411,60 @@
       <c r="C14" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="108">
+      <c r="D14" s="99">
         <f>results!N19</f>
         <v>3.7379115505813305E-2</v>
       </c>
-      <c r="E14" s="109">
+      <c r="E14" s="100">
         <f>results!O19</f>
         <v>3.0091743119266001E-2</v>
       </c>
-      <c r="F14" s="109">
+      <c r="F14" s="100">
         <f>results!P19</f>
         <v>0.10395450337256977</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G14" s="100">
         <f>results!Q19</f>
         <v>1.6000815328169635E-2</v>
       </c>
-      <c r="H14" s="109">
+      <c r="H14" s="100">
         <f>results!R19</f>
         <v>0.16149068322981364</v>
       </c>
-      <c r="I14" s="109">
+      <c r="I14" s="100">
         <f>results!S19</f>
         <v>9.2654424040066768E-2</v>
       </c>
-      <c r="J14" s="110">
+      <c r="J14" s="101">
         <f>results!T19</f>
         <v>9.4518477812886345E-2</v>
       </c>
       <c r="K14" s="40"/>
-      <c r="L14" s="114">
+      <c r="L14" s="105">
         <f>results!X19</f>
         <v>3.636561007381673E-2</v>
       </c>
-      <c r="M14" s="115">
+      <c r="M14" s="106">
         <f>results!Y19</f>
         <v>8.3822296730930515E-3</v>
       </c>
-      <c r="N14" s="118">
+      <c r="N14" s="109">
         <f>results!Z19</f>
         <v>0.10395450337256977</v>
       </c>
-      <c r="O14" s="115">
+      <c r="O14" s="106">
         <f>results!AA19</f>
         <v>1.6000815328169635E-2</v>
       </c>
-      <c r="P14" s="115">
+      <c r="P14" s="106">
         <f>results!AB19</f>
         <v>3.7224208061136452E-2</v>
       </c>
-      <c r="Q14" s="115">
+      <c r="Q14" s="106">
         <f>results!AC19</f>
         <v>1.6172855479363379E-2</v>
       </c>
-      <c r="R14" s="116">
+      <c r="R14" s="107">
         <f>results!AD19</f>
         <v>9.4518477812886345E-2</v>
       </c>
@@ -15434,23 +15474,23 @@
       <c r="C15" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="114">
+      <c r="D15" s="105">
         <f>results!N20</f>
         <v>3.6401173530370506E-2</v>
       </c>
-      <c r="E15" s="115">
+      <c r="E15" s="106">
         <f>results!O20</f>
         <v>2.8012232415902179E-2</v>
       </c>
-      <c r="F15" s="115">
+      <c r="F15" s="106">
         <f>results!P20</f>
         <v>0.10038354714984786</v>
       </c>
-      <c r="G15" s="115">
+      <c r="G15" s="106">
         <f>results!Q20</f>
         <v>1.6000815328169635E-2</v>
       </c>
-      <c r="H15" s="115">
+      <c r="H15" s="106">
         <f>results!R20</f>
         <v>0.16149068322981364</v>
       </c>
@@ -15458,36 +15498,36 @@
         <f>results!S20</f>
         <v>0.10141903171953251</v>
       </c>
-      <c r="J15" s="116">
+      <c r="J15" s="107">
         <f>results!T20</f>
         <v>8.1055089984888112E-2</v>
       </c>
       <c r="K15" s="40"/>
-      <c r="L15" s="114">
+      <c r="L15" s="105">
         <f>results!X20</f>
         <v>3.5388623534520151E-2</v>
       </c>
-      <c r="M15" s="115">
+      <c r="M15" s="106">
         <f>results!Y20</f>
         <v>6.3465453239134025E-3</v>
       </c>
-      <c r="N15" s="115">
+      <c r="N15" s="106">
         <f>results!Z20</f>
         <v>0.10038354714984786</v>
       </c>
-      <c r="O15" s="115">
+      <c r="O15" s="106">
         <f>results!AA20</f>
         <v>1.6000815328169635E-2</v>
       </c>
-      <c r="P15" s="115">
+      <c r="P15" s="106">
         <f>results!AB20</f>
         <v>3.7224208061136452E-2</v>
       </c>
-      <c r="Q15" s="115">
+      <c r="Q15" s="106">
         <f>results!AC20</f>
         <v>2.4323974640962514E-2</v>
       </c>
-      <c r="R15" s="116">
+      <c r="R15" s="107">
         <f>results!AD20</f>
         <v>8.1055089984888112E-2</v>
       </c>
@@ -15497,36 +15537,36 @@
       <c r="C16" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="114">
+      <c r="D16" s="105">
         <f>results!N21</f>
         <v>2.9555579702271E-2</v>
       </c>
-      <c r="E16" s="115">
+      <c r="E16" s="106">
         <f>results!O21</f>
         <v>1.7247706422018349E-2</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="106">
         <f>results!P21</f>
         <v>0.10395450337256977</v>
       </c>
-      <c r="G16" s="115">
+      <c r="G16" s="106">
         <f>results!Q21</f>
         <v>9.5801059926621229E-3</v>
       </c>
-      <c r="H16" s="115">
+      <c r="H16" s="106">
         <f>results!R21</f>
         <v>0.12505175983436853</v>
       </c>
-      <c r="I16" s="115">
+      <c r="I16" s="106">
         <f>results!S21</f>
         <v>8.6811352253756274E-2</v>
       </c>
-      <c r="J16" s="116">
+      <c r="J16" s="107">
         <f>results!T21</f>
         <v>8.998488803407062E-2</v>
       </c>
       <c r="K16" s="40"/>
-      <c r="L16" s="114">
+      <c r="L16" s="105">
         <f>results!X21</f>
         <v>2.854971775944419E-2</v>
       </c>
@@ -15534,23 +15574,23 @@
         <f>results!Y21</f>
         <v>-4.191114836546459E-3</v>
       </c>
-      <c r="N16" s="115">
+      <c r="N16" s="106">
         <f>results!Z21</f>
         <v>0.10395450337256977</v>
       </c>
-      <c r="O16" s="115">
+      <c r="O16" s="106">
         <f>results!AA21</f>
         <v>9.5801059926621229E-3</v>
       </c>
-      <c r="P16" s="115">
+      <c r="P16" s="106">
         <f>results!AB21</f>
         <v>4.6838407494145511E-3</v>
       </c>
-      <c r="Q16" s="115">
+      <c r="Q16" s="106">
         <f>results!AC21</f>
         <v>1.0738776038297287E-2</v>
       </c>
-      <c r="R16" s="116">
+      <c r="R16" s="107">
         <f>results!AD21</f>
         <v>8.998488803407062E-2</v>
       </c>
@@ -15560,19 +15600,19 @@
       <c r="C17" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="111">
+      <c r="D17" s="102">
         <f>results!N22</f>
         <v>3.0533521677713803E-2</v>
       </c>
-      <c r="E17" s="112">
+      <c r="E17" s="103">
         <f>results!O22</f>
         <v>2.5810397553516828E-2</v>
       </c>
-      <c r="F17" s="112">
+      <c r="F17" s="103">
         <f>results!P22</f>
         <v>9.6812590927126102E-2</v>
       </c>
-      <c r="G17" s="112">
+      <c r="G17" s="103">
         <f>results!Q22</f>
         <v>9.5801059926621229E-3</v>
       </c>
@@ -15580,28 +15620,28 @@
         <f>results!R22</f>
         <v>0.11456176673567972</v>
       </c>
-      <c r="I17" s="112">
+      <c r="I17" s="103">
         <f>results!S22</f>
         <v>8.1107401224262687E-2</v>
       </c>
-      <c r="J17" s="113">
+      <c r="J17" s="104">
         <f>results!T22</f>
         <v>8.998488803407062E-2</v>
       </c>
       <c r="K17" s="40"/>
-      <c r="L17" s="111">
+      <c r="L17" s="102">
         <f>results!X22</f>
         <v>2.9526704298740776E-2</v>
       </c>
-      <c r="M17" s="112">
+      <c r="M17" s="103">
         <f>results!Y22</f>
         <v>4.1911148365465917E-3</v>
       </c>
-      <c r="N17" s="112">
+      <c r="N17" s="103">
         <f>results!Z22</f>
         <v>9.6812590927126102E-2</v>
       </c>
-      <c r="O17" s="112">
+      <c r="O17" s="103">
         <f>results!AA22</f>
         <v>9.5801059926621229E-3</v>
       </c>
@@ -15609,11 +15649,11 @@
         <f>results!AB22</f>
         <v>-4.6838407494145511E-3</v>
       </c>
-      <c r="Q17" s="112">
+      <c r="Q17" s="103">
         <f>results!AC22</f>
         <v>5.4340794410660904E-3</v>
       </c>
-      <c r="R17" s="113">
+      <c r="R17" s="104">
         <f>results!AD22</f>
         <v>8.998488803407062E-2</v>
       </c>
@@ -15704,42 +15744,42 @@
     </row>
     <row r="21" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="22"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="115"/>
       <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="29"/>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="97" t="s">
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="117"/>
       <c r="R22" s="45"/>
       <c r="S22" s="31"/>
     </row>
@@ -15796,7 +15836,7 @@
         <f t="shared" si="0"/>
         <v>-4.1420861051839853E-3</v>
       </c>
-      <c r="R23" s="103"/>
+      <c r="R23" s="116"/>
       <c r="S23" s="31"/>
     </row>
     <row r="24" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15852,7 +15892,7 @@
         <f t="shared" ref="Q24:Q29" si="7">-J24</f>
         <v>0</v>
       </c>
-      <c r="R24" s="103"/>
+      <c r="R24" s="116"/>
       <c r="S24" s="31"/>
     </row>
     <row r="25" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15908,7 +15948,7 @@
         <f t="shared" si="7"/>
         <v>0.33033769063180829</v>
       </c>
-      <c r="R25" s="103"/>
+      <c r="R25" s="116"/>
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15964,7 +16004,7 @@
         <f t="shared" si="7"/>
         <v>2.0500000000000101E-2</v>
       </c>
-      <c r="R26" s="103"/>
+      <c r="R26" s="116"/>
       <c r="S26" s="31"/>
     </row>
     <row r="27" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16020,7 +16060,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R27" s="103"/>
+      <c r="R27" s="116"/>
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16076,7 +16116,7 @@
         <f t="shared" si="7"/>
         <v>1.2300740554788402E-2</v>
       </c>
-      <c r="R28" s="103"/>
+      <c r="R28" s="116"/>
       <c r="S28" s="31"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16132,7 +16172,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R29" s="103"/>
+      <c r="R29" s="116"/>
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16213,7 +16253,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
-      <c r="L32" s="101"/>
+      <c r="L32" s="96"/>
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
       <c r="O32" s="31"/>
@@ -16299,7 +16339,7 @@
       <c r="K34" s="24">
         <v>-2.0600000000000007E-2</v>
       </c>
-      <c r="L34" s="102">
+      <c r="L34" s="97">
         <v>2.3799999999999988E-2</v>
       </c>
       <c r="M34" s="21">
@@ -16348,7 +16388,7 @@
       <c r="K35" s="24">
         <v>-4.9800000000000011E-2</v>
       </c>
-      <c r="L35" s="102">
+      <c r="L35" s="97">
         <v>1.7000000000000071E-3</v>
       </c>
       <c r="M35" s="21">
@@ -16396,7 +16436,7 @@
       <c r="K36" s="21">
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="L36" s="102">
+      <c r="L36" s="97">
         <v>9.5499999999999974E-2</v>
       </c>
       <c r="M36" s="21">
@@ -16444,7 +16484,7 @@
       <c r="K37" s="21">
         <v>0.10350000000000004</v>
       </c>
-      <c r="L37" s="102">
+      <c r="L37" s="97">
         <v>0.19379999999999997</v>
       </c>
       <c r="M37" s="21">
@@ -16492,7 +16532,7 @@
       <c r="K38" s="24">
         <v>-1.040000000000002E-2</v>
       </c>
-      <c r="L38" s="102">
+      <c r="L38" s="97">
         <v>6.6699999999999982E-2</v>
       </c>
       <c r="M38" s="21">
@@ -16540,7 +16580,7 @@
       <c r="K39" s="24">
         <v>-7.8999999999999626E-3</v>
       </c>
-      <c r="L39" s="102">
+      <c r="L39" s="97">
         <v>4.2100000000000026E-2</v>
       </c>
       <c r="M39" s="21">
@@ -16588,7 +16628,7 @@
       <c r="K40" s="21">
         <v>2.5299999999999989E-2</v>
       </c>
-      <c r="L40" s="102">
+      <c r="L40" s="97">
         <v>0.11100000000000004</v>
       </c>
       <c r="M40" s="21">
@@ -16754,7 +16794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23 J23 D29:E29 I26 I28 M29 O29:P29 Q28 K28:M28 Q26 K26:O26 K25:Q25">
+  <conditionalFormatting sqref="J23 E23 D29:E29 I26 I28 M29 O29:P29 Q28 K28:M28 Q26 K26:O26 K25:Q25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
